--- a/chengww.xlsx
+++ b/chengww.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Cheng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>000905.SH</t>
   </si>
@@ -49,6 +52,10 @@
   </si>
   <si>
     <t>000016.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF.CFE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -141,6 +148,3003 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>-12.1311770694651</v>
+          </cell>
+          <cell r="D2">
+            <v>-2.4659913427441702</v>
+          </cell>
+          <cell r="E2">
+            <v>-11.0567498025975</v>
+          </cell>
+          <cell r="F2">
+            <v>-1.10703925498152</v>
+          </cell>
+          <cell r="G2">
+            <v>1.4548193856309899</v>
+          </cell>
+          <cell r="H2">
+            <v>-13.3711237079026</v>
+          </cell>
+          <cell r="I2">
+            <v>-2.1344879507069199</v>
+          </cell>
+          <cell r="K2">
+            <v>-1.96319018404908</v>
+          </cell>
+          <cell r="L2">
+            <v>0.47734564519914502</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>1.3516524553986999</v>
+          </cell>
+          <cell r="D3">
+            <v>5.9438368655405203</v>
+          </cell>
+          <cell r="E3">
+            <v>-1.72933021338961</v>
+          </cell>
+          <cell r="F3">
+            <v>7.4246907787263803</v>
+          </cell>
+          <cell r="G3">
+            <v>3.3879615084261498</v>
+          </cell>
+          <cell r="H3">
+            <v>9.6227867590454199</v>
+          </cell>
+          <cell r="I3">
+            <v>2.6219909465411599</v>
+          </cell>
+          <cell r="K3">
+            <v>1.60200250312892</v>
+          </cell>
+          <cell r="L3">
+            <v>0.92679127725856503</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>3.3633275807107799</v>
+          </cell>
+          <cell r="D4">
+            <v>2.6212432338778702</v>
+          </cell>
+          <cell r="E4">
+            <v>1.0318902769651701</v>
+          </cell>
+          <cell r="F4">
+            <v>-0.473375383701857</v>
+          </cell>
+          <cell r="G4">
+            <v>6.2865528846591996</v>
+          </cell>
+          <cell r="H4">
+            <v>-13.026685393258401</v>
+          </cell>
+          <cell r="I4">
+            <v>-2.14446193111355</v>
+          </cell>
+          <cell r="K4">
+            <v>0.42292847170894998</v>
+          </cell>
+          <cell r="L4">
+            <v>0.67134809784705796</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>-8.5657417971106398</v>
+          </cell>
+          <cell r="D5">
+            <v>-6.6750529892095702</v>
+          </cell>
+          <cell r="E5">
+            <v>-7.5957685233094301</v>
+          </cell>
+          <cell r="F5">
+            <v>-6.9048166613209201</v>
+          </cell>
+          <cell r="G5">
+            <v>-2.59466293718839</v>
+          </cell>
+          <cell r="H5">
+            <v>-14.6951958013726</v>
+          </cell>
+          <cell r="I5">
+            <v>-3.2826066351271499</v>
+          </cell>
+          <cell r="K5">
+            <v>5.1886985321175896</v>
+          </cell>
+          <cell r="L5">
+            <v>0.74352291890234001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>-10.390736619967999</v>
+          </cell>
+          <cell r="D6">
+            <v>-7.5318996792065001</v>
+          </cell>
+          <cell r="E6">
+            <v>-25.664826920289599</v>
+          </cell>
+          <cell r="F6">
+            <v>-6.1177368467178797</v>
+          </cell>
+          <cell r="G6">
+            <v>-7.5757955348751498</v>
+          </cell>
+          <cell r="H6">
+            <v>-12.825366777094199</v>
+          </cell>
+          <cell r="I6">
+            <v>-4.3899271594709202</v>
+          </cell>
+          <cell r="K6">
+            <v>3.4012283293166399</v>
+          </cell>
+          <cell r="L6">
+            <v>0.89781632808338996</v>
+          </cell>
+          <cell r="M6">
+            <v>-10.1383971676859</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>-5.55524116236412</v>
+          </cell>
+          <cell r="D7">
+            <v>-10.717860306736901</v>
+          </cell>
+          <cell r="E7">
+            <v>-9.7466477574798507</v>
+          </cell>
+          <cell r="F7">
+            <v>-8.5952374747515297</v>
+          </cell>
+          <cell r="G7">
+            <v>-8.2616383274962697</v>
+          </cell>
+          <cell r="H7">
+            <v>-7.16002503491588</v>
+          </cell>
+          <cell r="I7">
+            <v>-7.3244444444444401</v>
+          </cell>
+          <cell r="J7">
+            <v>-5.54019438305113</v>
+          </cell>
+          <cell r="K7">
+            <v>2.0412766437351899</v>
+          </cell>
+          <cell r="L7">
+            <v>0.42983183771963002</v>
+          </cell>
+          <cell r="M7">
+            <v>-7.6289398280802301</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9.2161052471292404</v>
+          </cell>
+          <cell r="D8">
+            <v>14.372251985556399</v>
+          </cell>
+          <cell r="E8">
+            <v>10.907384064942599</v>
+          </cell>
+          <cell r="F8">
+            <v>16.508905653183401</v>
+          </cell>
+          <cell r="G8">
+            <v>12.3418250961198</v>
+          </cell>
+          <cell r="H8">
+            <v>17.5417661097852</v>
+          </cell>
+          <cell r="I8">
+            <v>11.8045072314076</v>
+          </cell>
+          <cell r="J8">
+            <v>5.3427882094692496</v>
+          </cell>
+          <cell r="K8">
+            <v>-5.76186265841437</v>
+          </cell>
+          <cell r="L8">
+            <v>0.64574260399459205</v>
+          </cell>
+          <cell r="M8">
+            <v>11.337727801473401</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>-3.16359298556445</v>
+          </cell>
+          <cell r="D9">
+            <v>9.50003936885755</v>
+          </cell>
+          <cell r="E9">
+            <v>-5.8244590282478299</v>
+          </cell>
+          <cell r="F9">
+            <v>11.077872196505201</v>
+          </cell>
+          <cell r="G9">
+            <v>9.4043082701769496</v>
+          </cell>
+          <cell r="H9">
+            <v>1.8274111675126801</v>
+          </cell>
+          <cell r="I9">
+            <v>11.6427376250727</v>
+          </cell>
+          <cell r="J9">
+            <v>5.9001622211597899</v>
+          </cell>
+          <cell r="K9">
+            <v>5.7974980453479299</v>
+          </cell>
+          <cell r="L9">
+            <v>0.47746941211579402</v>
+          </cell>
+          <cell r="M9">
+            <v>1.35822246987532</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>-0.56125374043547405</v>
+          </cell>
+          <cell r="D10">
+            <v>1.55396620260786</v>
+          </cell>
+          <cell r="E10">
+            <v>-5.19348526446581</v>
+          </cell>
+          <cell r="F10">
+            <v>6.0569332987639299</v>
+          </cell>
+          <cell r="G10">
+            <v>2.1936505863498801</v>
+          </cell>
+          <cell r="H10">
+            <v>-0.29910269192422501</v>
+          </cell>
+          <cell r="I10">
+            <v>6.5585176291049798</v>
+          </cell>
+          <cell r="J10">
+            <v>-8.0960831537583893</v>
+          </cell>
+          <cell r="K10">
+            <v>4.2382588774341396</v>
+          </cell>
+          <cell r="L10">
+            <v>8.91000891001026E-2</v>
+          </cell>
+          <cell r="M10">
+            <v>1.47746014293568</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>14.4461188567928</v>
+          </cell>
+          <cell r="D11">
+            <v>8.4728699385594908</v>
+          </cell>
+          <cell r="E11">
+            <v>32.114346882975397</v>
+          </cell>
+          <cell r="F11">
+            <v>13.598727363680601</v>
+          </cell>
+          <cell r="G11">
+            <v>13.250619747879099</v>
+          </cell>
+          <cell r="H11">
+            <v>15.25</v>
+          </cell>
+          <cell r="I11">
+            <v>4.2783220929370804</v>
+          </cell>
+          <cell r="J11">
+            <v>12.9419578394103</v>
+          </cell>
+          <cell r="K11">
+            <v>2.5168380007089701</v>
+          </cell>
+          <cell r="L11">
+            <v>-1.07566765578636</v>
+          </cell>
+          <cell r="M11">
+            <v>15.798740434753199</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>-9.5725056052147401</v>
+          </cell>
+          <cell r="D12">
+            <v>1.0955016841090801</v>
+          </cell>
+          <cell r="E12">
+            <v>-17.937102524714302</v>
+          </cell>
+          <cell r="F12">
+            <v>-4.11870968939271</v>
+          </cell>
+          <cell r="G12">
+            <v>4.0320285196985299</v>
+          </cell>
+          <cell r="H12">
+            <v>-3.55748373101952</v>
+          </cell>
+          <cell r="I12">
+            <v>6.1191843172350602</v>
+          </cell>
+          <cell r="J12">
+            <v>10.9891575749491</v>
+          </cell>
+          <cell r="K12">
+            <v>2.0331950207468799</v>
+          </cell>
+          <cell r="L12">
+            <v>-2.03974503187102</v>
+          </cell>
+          <cell r="M12">
+            <v>-7.8011695906432799</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>-0.12753227324130401</v>
+          </cell>
+          <cell r="D13">
+            <v>-3.40761611270085</v>
+          </cell>
+          <cell r="E13">
+            <v>-2.6377546367006999</v>
+          </cell>
+          <cell r="F13">
+            <v>-2.2984589411769298</v>
+          </cell>
+          <cell r="G13">
+            <v>-1.9345730769012901</v>
+          </cell>
+          <cell r="H13">
+            <v>-7.5573549257759698</v>
+          </cell>
+          <cell r="I13">
+            <v>-4.6987996994225503</v>
+          </cell>
+          <cell r="J13">
+            <v>-3.71069416607983</v>
+          </cell>
+          <cell r="K13">
+            <v>2.2773485156567701</v>
+          </cell>
+          <cell r="L13">
+            <v>0.85738344943735401</v>
+          </cell>
+          <cell r="M13">
+            <v>0.120512495242934</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>-0.67058905635072297</v>
+          </cell>
+          <cell r="D14">
+            <v>-6.6006632749382597</v>
+          </cell>
+          <cell r="E14">
+            <v>-2.12692875591619</v>
+          </cell>
+          <cell r="F14">
+            <v>-1.81107121178153</v>
+          </cell>
+          <cell r="G14">
+            <v>-11.3457491651974</v>
+          </cell>
+          <cell r="H14">
+            <v>-7.3965936739659304</v>
+          </cell>
+          <cell r="I14">
+            <v>-6.6612788631078699</v>
+          </cell>
+          <cell r="J14">
+            <v>-9.5407950691857604</v>
+          </cell>
+          <cell r="K14">
+            <v>-5.3346587143803896</v>
+          </cell>
+          <cell r="L14">
+            <v>-7.5901328273242405E-2</v>
+          </cell>
+          <cell r="M14">
+            <v>-2.4453595185302399</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>2.9399126116411298</v>
+          </cell>
+          <cell r="D15">
+            <v>10.5045045826592</v>
+          </cell>
+          <cell r="E15">
+            <v>11.100628214185299</v>
+          </cell>
+          <cell r="F15">
+            <v>9.5834240171763092</v>
+          </cell>
+          <cell r="G15">
+            <v>11.439294882160199</v>
+          </cell>
+          <cell r="H15">
+            <v>6.5160273252758696</v>
+          </cell>
+          <cell r="I15">
+            <v>6.4096320737442802</v>
+          </cell>
+          <cell r="J15">
+            <v>6.8656716417910602</v>
+          </cell>
+          <cell r="K15">
+            <v>4.8652432621631103</v>
+          </cell>
+          <cell r="L15">
+            <v>-0.212685150018987</v>
+          </cell>
+          <cell r="M15">
+            <v>5.69517501136436</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>3.0615045930729701</v>
+          </cell>
+          <cell r="D16">
+            <v>-1.8606894949136501</v>
+          </cell>
+          <cell r="E16">
+            <v>-5.1616273361402696</v>
+          </cell>
+          <cell r="F16">
+            <v>-4.3175466535398703</v>
+          </cell>
+          <cell r="G16">
+            <v>-6.1753924528953297</v>
+          </cell>
+          <cell r="H16">
+            <v>3.2560434139121899</v>
+          </cell>
+          <cell r="I16">
+            <v>-3.41095580829862</v>
+          </cell>
+          <cell r="J16">
+            <v>-8.3180574953445099</v>
+          </cell>
+          <cell r="K16">
+            <v>0.854472630173575</v>
+          </cell>
+          <cell r="L16">
+            <v>0.715536271599304</v>
+          </cell>
+          <cell r="M16">
+            <v>-0.34406488080608899</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>1.4456162645387201</v>
+          </cell>
+          <cell r="D17">
+            <v>-3.2704570552527601</v>
+          </cell>
+          <cell r="E17">
+            <v>-3.7406908086830399</v>
+          </cell>
+          <cell r="F17">
+            <v>-8.4552469365073009</v>
+          </cell>
+          <cell r="G17">
+            <v>-7.0777084538602901</v>
+          </cell>
+          <cell r="H17">
+            <v>-8.3134257047300508</v>
+          </cell>
+          <cell r="I17">
+            <v>-2.5286293373277502</v>
+          </cell>
+          <cell r="J17">
+            <v>-9.4794584130057</v>
+          </cell>
+          <cell r="K17">
+            <v>5.9604183214191098</v>
+          </cell>
+          <cell r="L17">
+            <v>0.40057440858589599</v>
+          </cell>
+          <cell r="M17">
+            <v>-1.5659679408138201</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>-4.8871004900488204</v>
+          </cell>
+          <cell r="D18">
+            <v>-8.1166193150689008</v>
+          </cell>
+          <cell r="E18">
+            <v>-4.9708504595621203</v>
+          </cell>
+          <cell r="F18">
+            <v>-6.9984837548474301</v>
+          </cell>
+          <cell r="G18">
+            <v>-8.4139421622535195</v>
+          </cell>
+          <cell r="H18">
+            <v>-8.5461177696716994</v>
+          </cell>
+          <cell r="I18">
+            <v>-2.0389831598857899</v>
+          </cell>
+          <cell r="J18">
+            <v>-7.2749982195975704</v>
+          </cell>
+          <cell r="K18">
+            <v>0.146797014086264</v>
+          </cell>
+          <cell r="L18">
+            <v>0.93345377898224102</v>
+          </cell>
+          <cell r="M18">
+            <v>-6.1756231992985002</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>-1.0509986252613801</v>
+          </cell>
+          <cell r="D19">
+            <v>3.0388751733690702</v>
+          </cell>
+          <cell r="E19">
+            <v>0.53435728168194097</v>
+          </cell>
+          <cell r="F19">
+            <v>11.763642252880199</v>
+          </cell>
+          <cell r="G19">
+            <v>3.6653664930505401</v>
+          </cell>
+          <cell r="H19">
+            <v>-5.9363253209770797</v>
+          </cell>
+          <cell r="I19">
+            <v>2.2812765832084199</v>
+          </cell>
+          <cell r="J19">
+            <v>-4.6791088424535901E-2</v>
+          </cell>
+          <cell r="K19">
+            <v>-1.8525449101796401</v>
+          </cell>
+          <cell r="L19">
+            <v>-0.43257756563246402</v>
+          </cell>
+          <cell r="M19">
+            <v>1.3017356475300399</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>-4.0825702599685396</v>
+          </cell>
+          <cell r="D20">
+            <v>1.06976301347008</v>
+          </cell>
+          <cell r="E20">
+            <v>-6.4663207885894902</v>
+          </cell>
+          <cell r="F20">
+            <v>0.995231649463868</v>
+          </cell>
+          <cell r="G20">
+            <v>2.2429958740180802</v>
+          </cell>
+          <cell r="H20">
+            <v>4.7239263803680904</v>
+          </cell>
+          <cell r="I20">
+            <v>6.4577601778831504</v>
+          </cell>
+          <cell r="J20">
+            <v>7.9628191351654296</v>
+          </cell>
+          <cell r="K20">
+            <v>6.1328249126151997</v>
+          </cell>
+          <cell r="L20">
+            <v>-0.85393258426965701</v>
+          </cell>
+          <cell r="M20">
+            <v>-2.08896210873147</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>-3.4940543849140502</v>
+          </cell>
+          <cell r="D21">
+            <v>-4.2733000311128002</v>
+          </cell>
+          <cell r="E21">
+            <v>-7.1140129577323101</v>
+          </cell>
+          <cell r="F21">
+            <v>-6.3156296857313503</v>
+          </cell>
+          <cell r="G21">
+            <v>-3.4608987872210299</v>
+          </cell>
+          <cell r="H21">
+            <v>-5.3309900410076203</v>
+          </cell>
+          <cell r="I21">
+            <v>1.16281167123704</v>
+          </cell>
+          <cell r="J21">
+            <v>0.89972604179668902</v>
+          </cell>
+          <cell r="K21">
+            <v>13.0808383233533</v>
+          </cell>
+          <cell r="L21">
+            <v>-0.105772136597171</v>
+          </cell>
+          <cell r="M21">
+            <v>-4.19975770628617</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>-8.5277585758433503</v>
+          </cell>
+          <cell r="D22">
+            <v>-12.948991747729</v>
+          </cell>
+          <cell r="E22">
+            <v>-3.7035566560070299</v>
+          </cell>
+          <cell r="F22">
+            <v>-14.2758266808844</v>
+          </cell>
+          <cell r="G22">
+            <v>-12.655080589411901</v>
+          </cell>
+          <cell r="H22">
+            <v>-7.1782178217821597</v>
+          </cell>
+          <cell r="I22">
+            <v>-12.623872778954199</v>
+          </cell>
+          <cell r="J22">
+            <v>-14.1466855490263</v>
+          </cell>
+          <cell r="K22">
+            <v>-10.3788821520294</v>
+          </cell>
+          <cell r="L22">
+            <v>0.99833610648918403</v>
+          </cell>
+          <cell r="M22">
+            <v>-9.6599690880989204</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>6.38493271285137</v>
+          </cell>
+          <cell r="D23">
+            <v>3.69562759863806</v>
+          </cell>
+          <cell r="E23">
+            <v>7.6256479645573103</v>
+          </cell>
+          <cell r="F23">
+            <v>1.36224920626364</v>
+          </cell>
+          <cell r="G23">
+            <v>3.5723010854743702</v>
+          </cell>
+          <cell r="H23">
+            <v>4.5999999999999801</v>
+          </cell>
+          <cell r="I23">
+            <v>5.1463824541926098</v>
+          </cell>
+          <cell r="J23">
+            <v>7.7943812299812603</v>
+          </cell>
+          <cell r="K23">
+            <v>3.54515643002749</v>
+          </cell>
+          <cell r="L23">
+            <v>1.60079376965703</v>
+          </cell>
+          <cell r="M23">
+            <v>4.7437592347772002</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>-7.2153638484618998</v>
+          </cell>
+          <cell r="D24">
+            <v>-4.4862155513804503</v>
+          </cell>
+          <cell r="E24">
+            <v>-13.578821628323301</v>
+          </cell>
+          <cell r="F24">
+            <v>-2.9270267234616898</v>
+          </cell>
+          <cell r="G24">
+            <v>-3.1170518456109102</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>1.69438407494573</v>
+          </cell>
+          <cell r="J24">
+            <v>-1.7225650153963801</v>
+          </cell>
+          <cell r="K24">
+            <v>0.365203001512171</v>
+          </cell>
+          <cell r="L24">
+            <v>1.35740803389208</v>
+          </cell>
+          <cell r="M24">
+            <v>-6.1548741554681197</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>-2.7144822907620401</v>
+          </cell>
+          <cell r="D25">
+            <v>-14.481031387387601</v>
+          </cell>
+          <cell r="E25">
+            <v>-10.877024720785499</v>
+          </cell>
+          <cell r="F25">
+            <v>-15.993910999607801</v>
+          </cell>
+          <cell r="G25">
+            <v>-13.6970605874158</v>
+          </cell>
+          <cell r="H25">
+            <v>-19.821542383683902</v>
+          </cell>
+          <cell r="I25">
+            <v>-14.836504455553801</v>
+          </cell>
+          <cell r="J25">
+            <v>-12.958234499611001</v>
+          </cell>
+          <cell r="K25">
+            <v>-9.0883247576541404</v>
+          </cell>
+          <cell r="L25">
+            <v>1.44248738723409</v>
+          </cell>
+          <cell r="M25">
+            <v>-6.7642405063291102</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>7.8569472426346803</v>
+          </cell>
+          <cell r="D26">
+            <v>0.84851267687551202</v>
+          </cell>
+          <cell r="E26">
+            <v>9.4639627419063093</v>
+          </cell>
+          <cell r="F26">
+            <v>-0.322513176330053</v>
+          </cell>
+          <cell r="G26">
+            <v>-3.4555857190754899</v>
+          </cell>
+          <cell r="H26">
+            <v>6.4387917329094</v>
+          </cell>
+          <cell r="I26">
+            <v>-3.2592768436830699</v>
+          </cell>
+          <cell r="J26">
+            <v>-11.0791716015265</v>
+          </cell>
+          <cell r="K26">
+            <v>10.744215134458999</v>
+          </cell>
+          <cell r="L26">
+            <v>0.74220572876157997</v>
+          </cell>
+          <cell r="M26">
+            <v>5.0487908358082301</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>4.4741584265103302</v>
+          </cell>
+          <cell r="D27">
+            <v>12.191553543579101</v>
+          </cell>
+          <cell r="E27">
+            <v>9.0895760056673094</v>
+          </cell>
+          <cell r="F27">
+            <v>11.6587882099957</v>
+          </cell>
+          <cell r="G27">
+            <v>14.070108517057999</v>
+          </cell>
+          <cell r="H27">
+            <v>8.5138162808065605</v>
+          </cell>
+          <cell r="I27">
+            <v>11.942973807952001</v>
+          </cell>
+          <cell r="J27">
+            <v>13.358646237518901</v>
+          </cell>
+          <cell r="K27">
+            <v>2.2023943980121801</v>
+          </cell>
+          <cell r="L27">
+            <v>-0.467558711669747</v>
+          </cell>
+          <cell r="M27">
+            <v>7.0597738287560601</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>-6.4262668500506699</v>
+          </cell>
+          <cell r="D28">
+            <v>-7.5561991091256102</v>
+          </cell>
+          <cell r="E28">
+            <v>-2.0685698923306202</v>
+          </cell>
+          <cell r="F28">
+            <v>-8.6040631948013502</v>
+          </cell>
+          <cell r="G28">
+            <v>-8.4456565995502793</v>
+          </cell>
+          <cell r="H28">
+            <v>-10.736407432897501</v>
+          </cell>
+          <cell r="I28">
+            <v>-4.9072449265791702</v>
+          </cell>
+          <cell r="J28">
+            <v>-7.7266718887692196</v>
+          </cell>
+          <cell r="K28">
+            <v>-6.3321914023649004</v>
+          </cell>
+          <cell r="L28">
+            <v>0.38861492664499198</v>
+          </cell>
+          <cell r="M28">
+            <v>-7.4392636185302603</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>6.8542881147351196</v>
+          </cell>
+          <cell r="D29">
+            <v>7.2517542442526004</v>
+          </cell>
+          <cell r="E29">
+            <v>13.127700501677101</v>
+          </cell>
+          <cell r="F29">
+            <v>9.0307181389495099</v>
+          </cell>
+          <cell r="G29">
+            <v>4.77104175298442</v>
+          </cell>
+          <cell r="H29">
+            <v>14.2636854279106</v>
+          </cell>
+          <cell r="I29">
+            <v>7.2470439995396596</v>
+          </cell>
+          <cell r="J29">
+            <v>0.97447529103826802</v>
+          </cell>
+          <cell r="K29">
+            <v>-0.87010382255782204</v>
+          </cell>
+          <cell r="L29">
+            <v>9.7276126045930902E-2</v>
+          </cell>
+          <cell r="M29">
+            <v>7.5399413107270998</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>-0.98483327133200804</v>
+          </cell>
+          <cell r="D30">
+            <v>2.42738846238018</v>
+          </cell>
+          <cell r="E30">
+            <v>8.1578002973494907</v>
+          </cell>
+          <cell r="F30">
+            <v>-1.8702967109223101</v>
+          </cell>
+          <cell r="G30">
+            <v>4.0721055543681901</v>
+          </cell>
+          <cell r="H30">
+            <v>3.9811066126855601</v>
+          </cell>
+          <cell r="I30">
+            <v>0.95304006211149905</v>
+          </cell>
+          <cell r="J30">
+            <v>7.1990612014344801</v>
+          </cell>
+          <cell r="K30">
+            <v>-4.2667142729625898</v>
+          </cell>
+          <cell r="L30">
+            <v>1.86473403831489</v>
+          </cell>
+          <cell r="M30">
+            <v>-0.113696657318275</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>-5.3051851580938303</v>
+          </cell>
+          <cell r="D31">
+            <v>-7.5295323707178596</v>
+          </cell>
+          <cell r="E31">
+            <v>-9.5070839791628199</v>
+          </cell>
+          <cell r="F31">
+            <v>-8.9621978224426204</v>
+          </cell>
+          <cell r="G31">
+            <v>-5.2062778173566304</v>
+          </cell>
+          <cell r="H31">
+            <v>-7.5924724205061702</v>
+          </cell>
+          <cell r="I31">
+            <v>-1.65364533039148</v>
+          </cell>
+          <cell r="J31">
+            <v>-1.05792874706925</v>
+          </cell>
+          <cell r="K31">
+            <v>0.22999222999222599</v>
+          </cell>
+          <cell r="L31">
+            <v>0.44537503483310598</v>
+          </cell>
+          <cell r="M31">
+            <v>-6.3211412960995599</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>-4.5042414340354098</v>
+          </cell>
+          <cell r="D32">
+            <v>-8.9823147165125601</v>
+          </cell>
+          <cell r="E32">
+            <v>-5.1653816068834502</v>
+          </cell>
+          <cell r="F32">
+            <v>-10.786726522286701</v>
+          </cell>
+          <cell r="G32">
+            <v>-9.6757147805270698</v>
+          </cell>
+          <cell r="H32">
+            <v>-11.4850326773315</v>
+          </cell>
+          <cell r="I32">
+            <v>-3.2727432963979499</v>
+          </cell>
+          <cell r="J32">
+            <v>-6.8425890758568997</v>
+          </cell>
+          <cell r="K32">
+            <v>3.05745914602003</v>
+          </cell>
+          <cell r="L32">
+            <v>0.45661116225514897</v>
+          </cell>
+          <cell r="M32">
+            <v>-4.2851356824625402</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>-4.9443435045974402</v>
+          </cell>
+          <cell r="D33">
+            <v>-0.62332393852605505</v>
+          </cell>
+          <cell r="E33">
+            <v>-12.820536424426299</v>
+          </cell>
+          <cell r="F33">
+            <v>2.1947492428481499</v>
+          </cell>
+          <cell r="G33">
+            <v>5.5142507250553603</v>
+          </cell>
+          <cell r="H33">
+            <v>1.4285714285714</v>
+          </cell>
+          <cell r="I33">
+            <v>-4.4896289065530404</v>
+          </cell>
+          <cell r="J33">
+            <v>4.3820905223351403</v>
+          </cell>
+          <cell r="K33">
+            <v>2.2085151196028301</v>
+          </cell>
+          <cell r="L33">
+            <v>-0.54396163821117705</v>
+          </cell>
+          <cell r="M33">
+            <v>-6.2288422477995899</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>3.9900103081551799</v>
+          </cell>
+          <cell r="D34">
+            <v>1.91915910176779</v>
+          </cell>
+          <cell r="E34">
+            <v>14.712248979445301</v>
+          </cell>
+          <cell r="F34">
+            <v>2.1407887157673899</v>
+          </cell>
+          <cell r="G34">
+            <v>9.7550440383531403E-2</v>
+          </cell>
+          <cell r="H34">
+            <v>-1.76056338028169</v>
+          </cell>
+          <cell r="I34">
+            <v>3.1726072765248401</v>
+          </cell>
+          <cell r="J34">
+            <v>-2.4036794622324398</v>
+          </cell>
+          <cell r="K34">
+            <v>5.9878124172039202</v>
+          </cell>
+          <cell r="L34">
+            <v>-7.8014520026281606E-2</v>
+          </cell>
+          <cell r="M34">
+            <v>4.4945848375451201</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>-1.61429106337395</v>
+          </cell>
+          <cell r="D35">
+            <v>-0.98929542039507501</v>
+          </cell>
+          <cell r="E35">
+            <v>-5.2190610145402498</v>
+          </cell>
+          <cell r="F35">
+            <v>-3.8563813164845699</v>
+          </cell>
+          <cell r="G35">
+            <v>-2.5176122255271398</v>
+          </cell>
+          <cell r="H35">
+            <v>0.23894862604541001</v>
+          </cell>
+          <cell r="I35">
+            <v>-0.79684384711492495</v>
+          </cell>
+          <cell r="J35">
+            <v>0.29189142161127901</v>
+          </cell>
+          <cell r="K35">
+            <v>-4.4690720217759496</v>
+          </cell>
+          <cell r="L35">
+            <v>0.15050937079281701</v>
+          </cell>
+          <cell r="M35">
+            <v>-2.6083952323371999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>-2.4758483023870599</v>
+          </cell>
+          <cell r="D36">
+            <v>-11.094136322214901</v>
+          </cell>
+          <cell r="E36">
+            <v>-14.0845672285964</v>
+          </cell>
+          <cell r="F36">
+            <v>-11.4313488748646</v>
+          </cell>
+          <cell r="G36">
+            <v>-13.2741807387347</v>
+          </cell>
+          <cell r="H36">
+            <v>-4.8867699642431397</v>
+          </cell>
+          <cell r="I36">
+            <v>-13.7165150888623</v>
+          </cell>
+          <cell r="J36">
+            <v>-12.2730617809798</v>
+          </cell>
+          <cell r="K36">
+            <v>0.60475664360062398</v>
+          </cell>
+          <cell r="L36">
+            <v>0.20118891312088699</v>
+          </cell>
+          <cell r="M36">
+            <v>-5.1791415395530196</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>20.023853842878601</v>
+          </cell>
+          <cell r="D37">
+            <v>16.304483665551398</v>
+          </cell>
+          <cell r="E37">
+            <v>31.277737208950001</v>
+          </cell>
+          <cell r="F37">
+            <v>20.167210607394701</v>
+          </cell>
+          <cell r="G37">
+            <v>15.3851061753601</v>
+          </cell>
+          <cell r="H37">
+            <v>13.7421849221908</v>
+          </cell>
+          <cell r="I37">
+            <v>9.7921713430381399</v>
+          </cell>
+          <cell r="J37">
+            <v>17.650461627711501</v>
+          </cell>
+          <cell r="K37">
+            <v>-3.32928732443211</v>
+          </cell>
+          <cell r="L37">
+            <v>0.22597850566854499</v>
+          </cell>
+          <cell r="M37">
+            <v>18.686868686868699</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7.2979199862193598</v>
+          </cell>
+          <cell r="D38">
+            <v>6.2205955077445196</v>
+          </cell>
+          <cell r="E38">
+            <v>10.7627581289857</v>
+          </cell>
+          <cell r="F38">
+            <v>17.738140376446498</v>
+          </cell>
+          <cell r="G38">
+            <v>5.7732242354232604</v>
+          </cell>
+          <cell r="H38">
+            <v>8.2191780821917906</v>
+          </cell>
+          <cell r="I38">
+            <v>0.30478485486624701</v>
+          </cell>
+          <cell r="J38">
+            <v>8.7050316377232004</v>
+          </cell>
+          <cell r="K38">
+            <v>0.68759342301942805</v>
+          </cell>
+          <cell r="L38">
+            <v>0.50688975355601695</v>
+          </cell>
+          <cell r="M38">
+            <v>6.3750985027580898</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>-1.8385031094914199</v>
+          </cell>
+          <cell r="D39">
+            <v>3.69466593938794</v>
+          </cell>
+          <cell r="E39">
+            <v>3.5238235911469098</v>
+          </cell>
+          <cell r="F39">
+            <v>5.6593379295318202</v>
+          </cell>
+          <cell r="G39">
+            <v>6.7319709864663002</v>
+          </cell>
+          <cell r="H39">
+            <v>0.94936708860757801</v>
+          </cell>
+          <cell r="I39">
+            <v>2.6906069445049101</v>
+          </cell>
+          <cell r="J39">
+            <v>10.965135533920501</v>
+          </cell>
+          <cell r="K39">
+            <v>-3.8034441805225598</v>
+          </cell>
+          <cell r="L39">
+            <v>0.518388530963798</v>
+          </cell>
+          <cell r="M39">
+            <v>-0.79265130750426305</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>-8.3518092043058303</v>
+          </cell>
+          <cell r="D40">
+            <v>-4.4596764202861401</v>
+          </cell>
+          <cell r="E40">
+            <v>-15.145179918567701</v>
+          </cell>
+          <cell r="F40">
+            <v>-7.3689929428213796</v>
+          </cell>
+          <cell r="G40">
+            <v>1.81065856423268</v>
+          </cell>
+          <cell r="H40">
+            <v>-10.031347962382499</v>
+          </cell>
+          <cell r="I40">
+            <v>-4.0237707629928297</v>
+          </cell>
+          <cell r="J40">
+            <v>0.62246325899000299</v>
+          </cell>
+          <cell r="K40">
+            <v>-1.16052964597673</v>
+          </cell>
+          <cell r="L40">
+            <v>0.389185335979092</v>
+          </cell>
+          <cell r="M40">
+            <v>-7.2655316606929503</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>-1.51444852034972</v>
+          </cell>
+          <cell r="D41">
+            <v>-2.30671383422025</v>
+          </cell>
+          <cell r="E41">
+            <v>3.10449071484704</v>
+          </cell>
+          <cell r="F41">
+            <v>-5.7718923672801203</v>
+          </cell>
+          <cell r="G41">
+            <v>-0.95789491131972304</v>
+          </cell>
+          <cell r="H41">
+            <v>0.69686411149827399</v>
+          </cell>
+          <cell r="I41">
+            <v>-3.5902841018394098</v>
+          </cell>
+          <cell r="J41">
+            <v>2.6459539156678602</v>
+          </cell>
+          <cell r="K41">
+            <v>-7.4102988477032197</v>
+          </cell>
+          <cell r="L41">
+            <v>0.80204940110868395</v>
+          </cell>
+          <cell r="M41">
+            <v>-1.7714791851195699</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>4.26542592255994</v>
+          </cell>
+          <cell r="D42">
+            <v>14.0583401578376</v>
+          </cell>
+          <cell r="E42">
+            <v>7.8825395517468699</v>
+          </cell>
+          <cell r="F42">
+            <v>18.4491634992835</v>
+          </cell>
+          <cell r="G42">
+            <v>20.120660202338499</v>
+          </cell>
+          <cell r="H42">
+            <v>4.9596309111879799</v>
+          </cell>
+          <cell r="I42">
+            <v>7.9345479135319401</v>
+          </cell>
+          <cell r="J42">
+            <v>20.648293588462099</v>
+          </cell>
+          <cell r="K42">
+            <v>-5.0590219224283297</v>
+          </cell>
+          <cell r="L42">
+            <v>0.56178329280600603</v>
+          </cell>
+          <cell r="M42">
+            <v>6.5661119763915003</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>-15.6939467764692</v>
+          </cell>
+          <cell r="D43">
+            <v>-15.756460580992799</v>
+          </cell>
+          <cell r="E43">
+            <v>-22.7938438624798</v>
+          </cell>
+          <cell r="F43">
+            <v>-15.5867015972849</v>
+          </cell>
+          <cell r="G43">
+            <v>-9.0775667378691391</v>
+          </cell>
+          <cell r="H43">
+            <v>-15.714285714285699</v>
+          </cell>
+          <cell r="I43">
+            <v>-10.9362468382097</v>
+          </cell>
+          <cell r="J43">
+            <v>-5.7188895298609497</v>
+          </cell>
+          <cell r="K43">
+            <v>-13.499111900532901</v>
+          </cell>
+          <cell r="L43">
+            <v>-0.38022070987103801</v>
+          </cell>
+          <cell r="M43">
+            <v>-16.592307692307699</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>-3.1059345535219198</v>
+          </cell>
+          <cell r="D44">
+            <v>6.0187368393728198</v>
+          </cell>
+          <cell r="E44">
+            <v>6.5667282908662203</v>
+          </cell>
+          <cell r="F44">
+            <v>6.57015551647258</v>
+          </cell>
+          <cell r="G44">
+            <v>12.038387695845</v>
+          </cell>
+          <cell r="H44">
+            <v>-1.4830508474576101</v>
+          </cell>
+          <cell r="I44">
+            <v>1.89181917766328</v>
+          </cell>
+          <cell r="J44">
+            <v>12.0946999875452</v>
+          </cell>
+          <cell r="K44">
+            <v>9.1416837782340803</v>
+          </cell>
+          <cell r="L44">
+            <v>-0.48302286853651999</v>
+          </cell>
+          <cell r="M44">
+            <v>-0.16600571797472599</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>5.6915222844272</v>
+          </cell>
+          <cell r="D45">
+            <v>6.8033367699067</v>
+          </cell>
+          <cell r="E45">
+            <v>4.1181238489020702</v>
+          </cell>
+          <cell r="F45">
+            <v>6.0362499045713198</v>
+          </cell>
+          <cell r="G45">
+            <v>6.8501951794577103</v>
+          </cell>
+          <cell r="H45">
+            <v>17.3684210526316</v>
+          </cell>
+          <cell r="I45">
+            <v>4.0778418453759402</v>
+          </cell>
+          <cell r="J45">
+            <v>4.5087587024862801</v>
+          </cell>
+          <cell r="K45">
+            <v>4.4551475015051301</v>
+          </cell>
+          <cell r="L45">
+            <v>-0.816645435244157</v>
+          </cell>
+          <cell r="M45">
+            <v>6.3371824480369403</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>3.3512876334228099</v>
+          </cell>
+          <cell r="D46">
+            <v>5.6969587472995</v>
+          </cell>
+          <cell r="E46">
+            <v>2.72183409463551</v>
+          </cell>
+          <cell r="F46">
+            <v>5.3306903787081703</v>
+          </cell>
+          <cell r="G46">
+            <v>7.9407612486130503</v>
+          </cell>
+          <cell r="H46">
+            <v>-2.69058295964127</v>
+          </cell>
+          <cell r="I46">
+            <v>5.6918537694435898</v>
+          </cell>
+          <cell r="J46">
+            <v>15.421488509844799</v>
+          </cell>
+          <cell r="K46">
+            <v>-4.3047550432276802</v>
+          </cell>
+          <cell r="L46">
+            <v>0.172482883574054</v>
+          </cell>
+          <cell r="M46">
+            <v>4.6651029450091297</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>-0.73083372133008195</v>
+          </cell>
+          <cell r="D47">
+            <v>-4.1071106276367599</v>
+          </cell>
+          <cell r="E47">
+            <v>-3.2596694074396702</v>
+          </cell>
+          <cell r="F47">
+            <v>-3.0644102799032198</v>
+          </cell>
+          <cell r="G47">
+            <v>-6.47267630515723</v>
+          </cell>
+          <cell r="H47">
+            <v>7.8341013824885</v>
+          </cell>
+          <cell r="I47">
+            <v>-3.3827638030734999</v>
+          </cell>
+          <cell r="J47">
+            <v>-9.6758417208124499</v>
+          </cell>
+          <cell r="K47">
+            <v>-1.2798795407490999</v>
+          </cell>
+          <cell r="L47">
+            <v>-0.66310031708737305</v>
+          </cell>
+          <cell r="M47">
+            <v>-1.18691899070385</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>1.86150368444318</v>
+          </cell>
+          <cell r="D48">
+            <v>6.2618391961503796</v>
+          </cell>
+          <cell r="E48">
+            <v>5.2704508273941704</v>
+          </cell>
+          <cell r="F48">
+            <v>24.513236596401299</v>
+          </cell>
+          <cell r="G48">
+            <v>10.8429222922459</v>
+          </cell>
+          <cell r="H48">
+            <v>-1.7094017094017</v>
+          </cell>
+          <cell r="I48">
+            <v>4.22319591582818</v>
+          </cell>
+          <cell r="J48">
+            <v>10.625103698338</v>
+          </cell>
+          <cell r="K48">
+            <v>-6.6882745471877998</v>
+          </cell>
+          <cell r="L48">
+            <v>-1.3841352097783599</v>
+          </cell>
+          <cell r="M48">
+            <v>3.1919361612767698</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>-5.2141284897337297</v>
+          </cell>
+          <cell r="D49">
+            <v>-2.9720125998920999</v>
+          </cell>
+          <cell r="E49">
+            <v>0.38510115919214699</v>
+          </cell>
+          <cell r="F49">
+            <v>-8.1837574397096695</v>
+          </cell>
+          <cell r="G49">
+            <v>-4.9048751901003698</v>
+          </cell>
+          <cell r="H49">
+            <v>1.4492753623188199</v>
+          </cell>
+          <cell r="I49">
+            <v>-2.0235783949400199</v>
+          </cell>
+          <cell r="J49">
+            <v>-4.5645630705703901</v>
+          </cell>
+          <cell r="K49">
+            <v>-3.3713375015324201</v>
+          </cell>
+          <cell r="L49">
+            <v>-0.27530960114311398</v>
+          </cell>
+          <cell r="M49">
+            <v>-4.5584045584045603</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>-6.1872730239950799</v>
+          </cell>
+          <cell r="D50">
+            <v>1.47084324864146</v>
+          </cell>
+          <cell r="E50">
+            <v>-5.1249722514816103</v>
+          </cell>
+          <cell r="F50">
+            <v>3.46494982244077</v>
+          </cell>
+          <cell r="G50">
+            <v>10.6895554213806</v>
+          </cell>
+          <cell r="H50">
+            <v>-7.0000000000000098</v>
+          </cell>
+          <cell r="I50">
+            <v>-6.6547989928134301</v>
+          </cell>
+          <cell r="J50">
+            <v>14.683190692739601</v>
+          </cell>
+          <cell r="K50">
+            <v>4.1909836758859704</v>
+          </cell>
+          <cell r="L50">
+            <v>0.88812669524893595</v>
+          </cell>
+          <cell r="M50">
+            <v>-6.2174840085287899</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>-0.88158148570578498</v>
+          </cell>
+          <cell r="D51">
+            <v>2.3295575042672398</v>
+          </cell>
+          <cell r="E51">
+            <v>-5.2539498262119499</v>
+          </cell>
+          <cell r="F51">
+            <v>-1.60358419506706</v>
+          </cell>
+          <cell r="G51">
+            <v>1.49219234963176</v>
+          </cell>
+          <cell r="H51">
+            <v>-1.99692780337941</v>
+          </cell>
+          <cell r="I51">
+            <v>1.57713801955384</v>
+          </cell>
+          <cell r="J51">
+            <v>-4.0832151274952002</v>
+          </cell>
+          <cell r="K51">
+            <v>6.6404188821691097</v>
+          </cell>
+          <cell r="L51">
+            <v>1.6684786718776501</v>
+          </cell>
+          <cell r="M51">
+            <v>-1.1458712259003201</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>9.9841496502484098E-2</v>
+          </cell>
+          <cell r="D52">
+            <v>-3.4053173484737802</v>
+          </cell>
+          <cell r="E52">
+            <v>-4.8841872445596204</v>
+          </cell>
+          <cell r="F52">
+            <v>-7.8190407379573497</v>
+          </cell>
+          <cell r="G52">
+            <v>-8.8842234906255495</v>
+          </cell>
+          <cell r="H52">
+            <v>2.3510971786833998</v>
+          </cell>
+          <cell r="I52">
+            <v>-1.58599163486401</v>
+          </cell>
+          <cell r="J52">
+            <v>-7.4635478300139297</v>
+          </cell>
+          <cell r="K52">
+            <v>-1.8764511095040499</v>
+          </cell>
+          <cell r="L52">
+            <v>8.9807221565196799E-2</v>
+          </cell>
+          <cell r="M52">
+            <v>-1.4075436982520699</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.9801703253483001</v>
+          </cell>
+          <cell r="D53">
+            <v>-1.9363443019411799</v>
+          </cell>
+          <cell r="E53">
+            <v>4.2113081076607903</v>
+          </cell>
+          <cell r="F53">
+            <v>-0.55680923566866503</v>
+          </cell>
+          <cell r="G53">
+            <v>-1.3503214580215701</v>
+          </cell>
+          <cell r="H53">
+            <v>-2.4502297090352201</v>
+          </cell>
+          <cell r="I53">
+            <v>0.63341421156917199</v>
+          </cell>
+          <cell r="J53">
+            <v>-3.35826178641361</v>
+          </cell>
+          <cell r="K53">
+            <v>0.95422808378586899</v>
+          </cell>
+          <cell r="L53">
+            <v>0.90476635278251605</v>
+          </cell>
+          <cell r="M53">
+            <v>0.16795745077913199</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>-0.85041021990783805</v>
+          </cell>
+          <cell r="D54">
+            <v>1.67459249051423</v>
+          </cell>
+          <cell r="E54">
+            <v>-0.78941694912831895</v>
+          </cell>
+          <cell r="F54">
+            <v>6.9123493230435198</v>
+          </cell>
+          <cell r="G54">
+            <v>5.7583527391638301</v>
+          </cell>
+          <cell r="H54">
+            <v>-0.156985871271587</v>
+          </cell>
+          <cell r="I54">
+            <v>-1.50803654193022</v>
+          </cell>
+          <cell r="J54">
+            <v>2.7211467500617399</v>
+          </cell>
+          <cell r="K54">
+            <v>-2.8663644048259398</v>
+          </cell>
+          <cell r="L54">
+            <v>1.2204491106776201</v>
+          </cell>
+          <cell r="M54">
+            <v>3.7261294830003802E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>2.0848851896237999E-2</v>
+          </cell>
+          <cell r="D55">
+            <v>2.4982777252288799</v>
+          </cell>
+          <cell r="E55">
+            <v>-1.2744179736376</v>
+          </cell>
+          <cell r="F55">
+            <v>11.1192020696339</v>
+          </cell>
+          <cell r="G55">
+            <v>4.60746455796495</v>
+          </cell>
+          <cell r="H55">
+            <v>-4.2117965385520897</v>
+          </cell>
+          <cell r="I55">
+            <v>0.365581961021966</v>
+          </cell>
+          <cell r="J55">
+            <v>6.5686386820086504</v>
+          </cell>
+          <cell r="K55">
+            <v>3.58386075949366</v>
+          </cell>
+          <cell r="L55">
+            <v>0.78644387316764197</v>
+          </cell>
+          <cell r="M55">
+            <v>0.29797932768412499</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>9.4064712409901396</v>
+          </cell>
+          <cell r="D56">
+            <v>8.4624256956159307</v>
+          </cell>
+          <cell r="E56">
+            <v>14.902018886831399</v>
+          </cell>
+          <cell r="F56">
+            <v>7.9568030390035904</v>
+          </cell>
+          <cell r="G56">
+            <v>0.42592182609058099</v>
+          </cell>
+          <cell r="H56">
+            <v>6.7245119305856704</v>
+          </cell>
+          <cell r="I56">
+            <v>8.6062004805754295</v>
+          </cell>
+          <cell r="J56">
+            <v>-4.2831616490236399</v>
+          </cell>
+          <cell r="K56">
+            <v>-1.5542656381272399</v>
+          </cell>
+          <cell r="L56">
+            <v>-0.21559289702541801</v>
+          </cell>
+          <cell r="M56">
+            <v>10.054776715253899</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>-2.5010373974856899</v>
+          </cell>
+          <cell r="D57">
+            <v>4.0129714391085702</v>
+          </cell>
+          <cell r="E57">
+            <v>-1.10422478565614</v>
+          </cell>
+          <cell r="F57">
+            <v>6.0497425131169402</v>
+          </cell>
+          <cell r="G57">
+            <v>7.5754734818024998</v>
+          </cell>
+          <cell r="H57">
+            <v>2.03252032520325</v>
+          </cell>
+          <cell r="I57">
+            <v>2.19013192966659</v>
+          </cell>
+          <cell r="J57">
+            <v>5.94439453078515</v>
+          </cell>
+          <cell r="K57">
+            <v>-1.0667597657007799</v>
+          </cell>
+          <cell r="L57">
+            <v>0.81146471870883197</v>
+          </cell>
+          <cell r="M57">
+            <v>-0.80985321410495503</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>2.42922839919963</v>
+          </cell>
+          <cell r="D58">
+            <v>11.0264982399022</v>
+          </cell>
+          <cell r="E58">
+            <v>8.4032379871312504</v>
+          </cell>
+          <cell r="F58">
+            <v>19.796577820724799</v>
+          </cell>
+          <cell r="G58">
+            <v>9.7446253222813297</v>
+          </cell>
+          <cell r="H58">
+            <v>8.1673306772908507</v>
+          </cell>
+          <cell r="I58">
+            <v>6.4613064923333603</v>
+          </cell>
+          <cell r="J58">
+            <v>8.1718170068987099</v>
+          </cell>
+          <cell r="K58">
+            <v>-5.4109159347553204</v>
+          </cell>
+          <cell r="L58">
+            <v>0.95788669704233198</v>
+          </cell>
+          <cell r="M58">
+            <v>4.3204626637183203</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>2.3207427068149298</v>
+          </cell>
+          <cell r="D59">
+            <v>1.4299287710488799</v>
+          </cell>
+          <cell r="E59">
+            <v>6.0196601634634002</v>
+          </cell>
+          <cell r="F59">
+            <v>0.86923772919385001</v>
+          </cell>
+          <cell r="G59">
+            <v>-0.54697075047719401</v>
+          </cell>
+          <cell r="H59">
+            <v>12.5230202578269</v>
+          </cell>
+          <cell r="I59">
+            <v>-2.0232563324400901</v>
+          </cell>
+          <cell r="J59">
+            <v>-1.79164552065906</v>
+          </cell>
+          <cell r="K59">
+            <v>-4.4768695075443601</v>
+          </cell>
+          <cell r="L59">
+            <v>1.68544088989295</v>
+          </cell>
+          <cell r="M59">
+            <v>2.85341594651883</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>15.5165734821871</v>
+          </cell>
+          <cell r="D60">
+            <v>5.1911232436282901</v>
+          </cell>
+          <cell r="E60">
+            <v>41.380366755656702</v>
+          </cell>
+          <cell r="F60">
+            <v>-1.2246532781822701</v>
+          </cell>
+          <cell r="G60">
+            <v>4.8544837552073599</v>
+          </cell>
+          <cell r="H60">
+            <v>10.4746317512275</v>
+          </cell>
+          <cell r="I60">
+            <v>2.9383178512558201</v>
+          </cell>
+          <cell r="J60">
+            <v>3.80527692733668</v>
+          </cell>
+          <cell r="K60">
+            <v>2.19579934039229</v>
+          </cell>
+          <cell r="L60">
+            <v>1.7460784747596501</v>
+          </cell>
+          <cell r="M60">
+            <v>12.000634115408999</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>34.847109337456402</v>
+          </cell>
+          <cell r="D61">
+            <v>1.4765120631609501</v>
+          </cell>
+          <cell r="E61">
+            <v>57.652917847821598</v>
+          </cell>
+          <cell r="F61">
+            <v>5.1287906570780999</v>
+          </cell>
+          <cell r="G61">
+            <v>-6.7867448778772896</v>
+          </cell>
+          <cell r="H61">
+            <v>3.99999999999998</v>
+          </cell>
+          <cell r="I61">
+            <v>5.8532459004504904</v>
+          </cell>
+          <cell r="J61">
+            <v>-6.3078547869912702</v>
+          </cell>
+          <cell r="K61">
+            <v>2.1613588110403401</v>
+          </cell>
+          <cell r="L61">
+            <v>-0.20014183279488701</v>
+          </cell>
+          <cell r="M61">
+            <v>27.1479122434536</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>-6.8248083431497202</v>
+          </cell>
+          <cell r="D62">
+            <v>5.8243595278649298</v>
+          </cell>
+          <cell r="E62">
+            <v>-14.906426458276099</v>
+          </cell>
+          <cell r="F62">
+            <v>6.7391460631015301</v>
+          </cell>
+          <cell r="G62">
+            <v>15.407903039495601</v>
+          </cell>
+          <cell r="H62">
+            <v>-7.1225071225071197</v>
+          </cell>
+          <cell r="I62">
+            <v>2.2722970386400498</v>
+          </cell>
+          <cell r="J62">
+            <v>14.1881442948734</v>
+          </cell>
+          <cell r="K62">
+            <v>5.2371254000581802</v>
+          </cell>
+          <cell r="L62">
+            <v>1.09518696311268</v>
+          </cell>
+          <cell r="M62">
+            <v>-4.5641767783591201</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>2.8775079197465501</v>
+          </cell>
+          <cell r="D63">
+            <v>6.8481027310390203</v>
+          </cell>
+          <cell r="E63">
+            <v>9.2342414585864692</v>
+          </cell>
+          <cell r="F63">
+            <v>7.1644768468601896</v>
+          </cell>
+          <cell r="G63">
+            <v>14.821459600347501</v>
+          </cell>
+          <cell r="H63">
+            <v>2.6073619631902001</v>
+          </cell>
+          <cell r="I63">
+            <v>4.3171535012721796</v>
+          </cell>
+          <cell r="J63">
+            <v>14.724916397910199</v>
+          </cell>
+          <cell r="K63">
+            <v>-3.3018681622496899</v>
+          </cell>
+          <cell r="L63">
+            <v>0.772489767509565</v>
+          </cell>
+          <cell r="M63">
+            <v>4.6074886270850302</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>11.317528726922999</v>
+          </cell>
+          <cell r="D64">
+            <v>20.514224312752301</v>
+          </cell>
+          <cell r="E64">
+            <v>12.4271298911609</v>
+          </cell>
+          <cell r="F64">
+            <v>15.4459769115177</v>
+          </cell>
+          <cell r="G64">
+            <v>23.440924860421799</v>
+          </cell>
+          <cell r="H64">
+            <v>21.973094170403598</v>
+          </cell>
+          <cell r="I64">
+            <v>15.527313371315101</v>
+          </cell>
+          <cell r="J64">
+            <v>21.116063741283899</v>
+          </cell>
+          <cell r="K64">
+            <v>-3.79038516521668</v>
+          </cell>
+          <cell r="L64">
+            <v>-0.91797212851610899</v>
+          </cell>
+          <cell r="M64">
+            <v>12.5055753791258</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>17.999766214172499</v>
+          </cell>
+          <cell r="D65">
+            <v>16.773080876821901</v>
+          </cell>
+          <cell r="E65">
+            <v>9.4479421177088305</v>
+          </cell>
+          <cell r="F65">
+            <v>18.154862739886202</v>
+          </cell>
+          <cell r="G65">
+            <v>16.937671075625399</v>
+          </cell>
+          <cell r="H65">
+            <v>22.303921568627501</v>
+          </cell>
+          <cell r="I65">
+            <v>15.7881803062313</v>
+          </cell>
+          <cell r="J65">
+            <v>22.3846133752089</v>
+          </cell>
+          <cell r="K65">
+            <v>1.85947781787306</v>
+          </cell>
+          <cell r="L65">
+            <v>1.35423569407864</v>
+          </cell>
+          <cell r="M65">
+            <v>18.137667872540799</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>-4.2810776221431297</v>
+          </cell>
+          <cell r="D66">
+            <v>17.676857182089499</v>
+          </cell>
+          <cell r="E66">
+            <v>-5.9786962113489004</v>
+          </cell>
+          <cell r="F66">
+            <v>34.296179321695803</v>
+          </cell>
+          <cell r="G66">
+            <v>28.2074864452436</v>
+          </cell>
+          <cell r="H66">
+            <v>4.7094188376753499</v>
+          </cell>
+          <cell r="I66">
+            <v>13.679803835202</v>
+          </cell>
+          <cell r="J66">
+            <v>23.967122597440799</v>
+          </cell>
+          <cell r="K66">
+            <v>-0.97528445796690699</v>
+          </cell>
+          <cell r="L66">
+            <v>0.41457296515057301</v>
+          </cell>
+          <cell r="M66">
+            <v>2.7098452116280001</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>-7.7557954240849796</v>
+          </cell>
+          <cell r="D67">
+            <v>-10.643536645749</v>
+          </cell>
+          <cell r="E67">
+            <v>-14.2331169491691</v>
+          </cell>
+          <cell r="F67">
+            <v>-15.534019093307499</v>
+          </cell>
+          <cell r="G67">
+            <v>-18.9728461208943</v>
+          </cell>
+          <cell r="H67">
+            <v>-1.8181818181818299</v>
+          </cell>
+          <cell r="I67">
+            <v>-5.9388019880741503</v>
+          </cell>
+          <cell r="J67">
+            <v>-19.313241000732699</v>
+          </cell>
+          <cell r="K67">
+            <v>-1.11536680836736</v>
+          </cell>
+          <cell r="L67">
+            <v>0.42878556663761302</v>
+          </cell>
+          <cell r="M67">
+            <v>-10.5288952419849</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>-14.243261200519701</v>
+          </cell>
+          <cell r="D68">
+            <v>-13.2377804397973</v>
+          </cell>
+          <cell r="E68">
+            <v>-21.613265864854998</v>
+          </cell>
+          <cell r="F68">
+            <v>-7.2011764585390399</v>
+          </cell>
+          <cell r="G68">
+            <v>-16.449504678553598</v>
+          </cell>
+          <cell r="H68">
+            <v>-13.173710899441801</v>
+          </cell>
+          <cell r="I68">
+            <v>-12.4888021624293</v>
+          </cell>
+          <cell r="J68">
+            <v>-11.1509595935921</v>
+          </cell>
+          <cell r="K68">
+            <v>-7.6913254447944199</v>
+          </cell>
+          <cell r="L68">
+            <v>1.21627644438567</v>
+          </cell>
+          <cell r="M68">
+            <v>-15.702743415346699</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>-10.189716964224701</v>
+          </cell>
+          <cell r="D69">
+            <v>-14.8277350166573</v>
+          </cell>
+          <cell r="E69">
+            <v>-25.643803557197099</v>
+          </cell>
+          <cell r="F69">
+            <v>-17.3731528861308</v>
+          </cell>
+          <cell r="G69">
+            <v>-19.993349503963501</v>
+          </cell>
+          <cell r="H69">
+            <v>-17.2881355932203</v>
+          </cell>
+          <cell r="I69">
+            <v>-11.003997200682599</v>
+          </cell>
+          <cell r="J69">
+            <v>-21.378438990741198</v>
+          </cell>
+          <cell r="K69">
+            <v>7.7834647484668302</v>
+          </cell>
+          <cell r="L69">
+            <v>0.78407059841105697</v>
+          </cell>
+          <cell r="M69">
+            <v>-16.873341636432599</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>-2.9102126733026399</v>
+          </cell>
+          <cell r="D70">
+            <v>-6.9527968181788502</v>
+          </cell>
+          <cell r="E70">
+            <v>-3.6297489266934102</v>
+          </cell>
+          <cell r="F70">
+            <v>-10.805669586591399</v>
+          </cell>
+          <cell r="G70">
+            <v>-1.0061518356808501</v>
+          </cell>
+          <cell r="H70">
+            <v>-2.8688524590164</v>
+          </cell>
+          <cell r="I70">
+            <v>-6.4116268227826598</v>
+          </cell>
+          <cell r="J70">
+            <v>4.2971357603042604</v>
+          </cell>
+          <cell r="K70">
+            <v>-1.3903743315507999</v>
+          </cell>
+          <cell r="L70">
+            <v>0.54583383845718803</v>
+          </cell>
+          <cell r="M70">
+            <v>1.6676438017067401</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>7.7747728689662203</v>
+          </cell>
+          <cell r="D71">
+            <v>15.6970279245285</v>
+          </cell>
+          <cell r="E71">
+            <v>19.426318677020699</v>
+          </cell>
+          <cell r="F71">
+            <v>19.782587349908599</v>
+          </cell>
+          <cell r="G71">
+            <v>22.287633808281601</v>
+          </cell>
+          <cell r="H71">
+            <v>12.9395218002813</v>
+          </cell>
+          <cell r="I71">
+            <v>11.055579743707099</v>
+          </cell>
+          <cell r="J71">
+            <v>18.995012659212499</v>
+          </cell>
+          <cell r="K71">
+            <v>1.47939262472885</v>
+          </cell>
+          <cell r="L71">
+            <v>1.1509813155794699</v>
+          </cell>
+          <cell r="M71">
+            <v>10.1813288908823</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>1.0080745402304201</v>
+          </cell>
+          <cell r="D72">
+            <v>4.56499000856829</v>
+          </cell>
+          <cell r="E72">
+            <v>11.342921201025399</v>
+          </cell>
+          <cell r="F72">
+            <v>1.4940838521637601</v>
+          </cell>
+          <cell r="G72">
+            <v>8.4817891248293105</v>
+          </cell>
+          <cell r="H72">
+            <v>-0.124533001245331</v>
+          </cell>
+          <cell r="I72">
+            <v>2.6104342788778201</v>
+          </cell>
+          <cell r="J72">
+            <v>7.8402858114730503</v>
+          </cell>
+          <cell r="K72">
+            <v>-6.7932110640844696</v>
+          </cell>
+          <cell r="L72">
+            <v>-1.0267691704890501E-2</v>
+          </cell>
+          <cell r="M72">
+            <v>1.3549662712258801</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>3.6172944774885099</v>
+          </cell>
+          <cell r="D73">
+            <v>2.8250396023497002</v>
+          </cell>
+          <cell r="E73">
+            <v>4.9329417927948898</v>
+          </cell>
+          <cell r="F73">
+            <v>-1.5963408146520801</v>
+          </cell>
+          <cell r="G73">
+            <v>3.7911790237491498</v>
+          </cell>
+          <cell r="H73">
+            <v>4.6134663341646203</v>
+          </cell>
+          <cell r="I73">
+            <v>5.9366740261990198</v>
+          </cell>
+          <cell r="J73">
+            <v>1.5515713087835199</v>
+          </cell>
+          <cell r="K73">
+            <v>2.2199798183652799</v>
+          </cell>
+          <cell r="L73">
+            <v>1.5953146190354399</v>
+          </cell>
+          <cell r="M73">
+            <v>4.9457800218027304</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>-18.497829313341299</v>
+          </cell>
+          <cell r="D74">
+            <v>-28.204926717276098</v>
+          </cell>
+          <cell r="E74">
+            <v>-26.6598937949238</v>
+          </cell>
+          <cell r="F74">
+            <v>-25.2438138980181</v>
+          </cell>
+          <cell r="G74">
+            <v>-28.890310278914601</v>
+          </cell>
+          <cell r="H74">
+            <v>-23.361144219308699</v>
+          </cell>
+          <cell r="I74">
+            <v>-22.5090957814473</v>
+          </cell>
+          <cell r="J74">
+            <v>-26.528012769118298</v>
+          </cell>
+          <cell r="K74">
+            <v>6.1114601094857601</v>
+          </cell>
+          <cell r="L74">
+            <v>0.22288779397427999</v>
+          </cell>
+          <cell r="M74">
+            <v>-20.622163905746</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>-1.4391295066024099</v>
+          </cell>
+          <cell r="D75">
+            <v>-2.1702135409072998</v>
+          </cell>
+          <cell r="E75">
+            <v>-5.8325538365034602</v>
+          </cell>
+          <cell r="F75">
+            <v>-5.9559220325901903</v>
+          </cell>
+          <cell r="G75">
+            <v>-4.3361172170093498</v>
+          </cell>
+          <cell r="H75">
+            <v>-2.9548989113530202</v>
+          </cell>
+          <cell r="I75">
+            <v>-0.84531289259043296</v>
+          </cell>
+          <cell r="J75">
+            <v>-5.7129030397705201</v>
+          </cell>
+          <cell r="K75">
+            <v>9.4638024357239594</v>
+          </cell>
+          <cell r="L75">
+            <v>0.33552982007509802</v>
+          </cell>
+          <cell r="M75">
+            <v>-3.9534403195812402</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>10.8983179207401</v>
+          </cell>
+          <cell r="D76">
+            <v>15.0526133984241</v>
+          </cell>
+          <cell r="E76">
+            <v>23.940884281044301</v>
+          </cell>
+          <cell r="F76">
+            <v>14.2326247121545</v>
+          </cell>
+          <cell r="G76">
+            <v>17.715838870604799</v>
+          </cell>
+          <cell r="H76">
+            <v>16.185897435897399</v>
+          </cell>
+          <cell r="I76">
+            <v>14.855819445061901</v>
+          </cell>
+          <cell r="J76">
+            <v>19.048520699988199</v>
+          </cell>
+          <cell r="K76">
+            <v>-1.2207370779572</v>
+          </cell>
+          <cell r="L76">
+            <v>0.69313508017931902</v>
+          </cell>
+          <cell r="M76">
+            <v>14.413768375761901</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>-0.97527939417800802</v>
+          </cell>
+          <cell r="D77">
+            <v>-2.7651876020031598</v>
+          </cell>
+          <cell r="E77">
+            <v>-5.2514225242496604</v>
+          </cell>
+          <cell r="F77">
+            <v>-6.6609833285007998</v>
+          </cell>
+          <cell r="G77">
+            <v>-4.28225467019465</v>
+          </cell>
+          <cell r="H77">
+            <v>-3.3103448275862202</v>
+          </cell>
+          <cell r="I77">
+            <v>-0.38980560574506401</v>
+          </cell>
+          <cell r="J77">
+            <v>-4.4475102824214696</v>
+          </cell>
+          <cell r="K77">
+            <v>4.1533046538912801</v>
+          </cell>
+          <cell r="L77">
+            <v>-0.74401116619119401</v>
+          </cell>
+          <cell r="M77">
+            <v>-1.9743027264180499</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>0.94342860790031002</v>
+          </cell>
+          <cell r="D78">
+            <v>-0.63939518784601501</v>
+          </cell>
+          <cell r="E78">
+            <v>2.6117687915590002</v>
+          </cell>
+          <cell r="F78">
+            <v>-0.89044289398162402</v>
+          </cell>
+          <cell r="G78">
+            <v>3.06017671870435</v>
+          </cell>
+          <cell r="H78">
+            <v>-3.1383737517831598</v>
+          </cell>
+          <cell r="I78">
+            <v>1.29748069014917</v>
+          </cell>
+          <cell r="J78">
+            <v>0.984786355317957</v>
+          </cell>
+          <cell r="K78">
+            <v>-3.5370982276960099</v>
+          </cell>
+          <cell r="L78">
+            <v>0.39453226598851199</v>
+          </cell>
+          <cell r="M78">
+            <v>0.98465473145780602</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>-1.5319097572028799</v>
+          </cell>
+          <cell r="D79">
+            <v>2.9621985853667501</v>
+          </cell>
+          <cell r="E79">
+            <v>-8.6809976434065704E-3</v>
+          </cell>
+          <cell r="F79">
+            <v>7.7545338836811704</v>
+          </cell>
+          <cell r="G79">
+            <v>5.7919271022461603</v>
+          </cell>
+          <cell r="H79">
+            <v>-0.14551747776009299</v>
+          </cell>
+          <cell r="I79">
+            <v>4.0349894004450402</v>
+          </cell>
+          <cell r="J79">
+            <v>3.1479766645059701</v>
+          </cell>
+          <cell r="K79">
+            <v>9.5757103931490803</v>
+          </cell>
+          <cell r="L79">
+            <v>0.71872035077054097</v>
+          </cell>
+          <cell r="M79">
+            <v>-1.5069013549449299</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>1.5360969135974201</v>
+          </cell>
+          <cell r="D80">
+            <v>1.2966192388956399</v>
+          </cell>
+          <cell r="E80">
+            <v>-2.2034284814690799</v>
+          </cell>
+          <cell r="F80">
+            <v>-1.0715101822075499</v>
+          </cell>
+          <cell r="G80">
+            <v>-4.4343445126671703</v>
+          </cell>
+          <cell r="H80">
+            <v>4.4510385756676696</v>
+          </cell>
+          <cell r="I80">
+            <v>4.6291359387097097</v>
+          </cell>
+          <cell r="J80">
+            <v>-4.7301585876586296</v>
+          </cell>
+          <cell r="K80">
+            <v>1.5381882770870301</v>
+          </cell>
+          <cell r="L80">
+            <v>0.97750162907412896</v>
+          </cell>
+          <cell r="M80">
+            <v>2.2692208794034601</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>3.5946366404797598</v>
+          </cell>
+          <cell r="D81">
+            <v>3.72919581402371</v>
+          </cell>
+          <cell r="E81">
+            <v>5.3698543876635503</v>
+          </cell>
+          <cell r="F81">
+            <v>2.2045616525752498</v>
+          </cell>
+          <cell r="G81">
+            <v>3.05685620985057</v>
+          </cell>
+          <cell r="H81">
+            <v>10.653409090909101</v>
+          </cell>
+          <cell r="I81">
+            <v>-0.221746245012999</v>
+          </cell>
+          <cell r="J81">
+            <v>3.2673203883129198</v>
+          </cell>
+          <cell r="K81">
+            <v>-0.92362593149773997</v>
+          </cell>
+          <cell r="L81">
+            <v>0.67317233879837801</v>
+          </cell>
+          <cell r="M81">
+            <v>4.0480231315607398</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>-2.4794647692310399</v>
+          </cell>
+          <cell r="D82">
+            <v>-1.6493818985058499</v>
+          </cell>
+          <cell r="E82">
+            <v>-4.3574964643293104</v>
+          </cell>
+          <cell r="F82">
+            <v>-4.6418013164401897</v>
+          </cell>
+          <cell r="G82">
+            <v>-2.8010101571139399</v>
+          </cell>
+          <cell r="H82">
+            <v>2.8241335044929299</v>
+          </cell>
+          <cell r="I82">
+            <v>-2.5767503519163899</v>
+          </cell>
+          <cell r="J82">
+            <v>-1.90974551022512</v>
+          </cell>
+          <cell r="K82">
+            <v>0.62149087185281404</v>
+          </cell>
+          <cell r="L82">
+            <v>0.53293508459317795</v>
+          </cell>
+          <cell r="M82">
+            <v>-1.9513079200145</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>3.3580645925758201</v>
+          </cell>
+          <cell r="D83">
+            <v>1.9614178417561201</v>
+          </cell>
+          <cell r="E83">
+            <v>4.3170131850010796</v>
+          </cell>
+          <cell r="F83">
+            <v>2.4293380849645101</v>
+          </cell>
+          <cell r="G83">
+            <v>1.80281103000222</v>
+          </cell>
+          <cell r="H83">
+            <v>3.4956304619226102</v>
+          </cell>
+          <cell r="I83">
+            <v>4.6528847432957896</v>
+          </cell>
+          <cell r="J83">
+            <v>0.45857925550991702</v>
+          </cell>
+          <cell r="K83">
+            <v>-2.11265134234075</v>
+          </cell>
+          <cell r="L83">
+            <v>0.52485246913891404</v>
+          </cell>
+          <cell r="M83">
+            <v>2.1996303142329099</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>7.5070697476299602</v>
+          </cell>
+          <cell r="D84">
+            <v>2.06707293806407</v>
+          </cell>
+          <cell r="E84">
+            <v>6.0405684446135801</v>
+          </cell>
+          <cell r="F84">
+            <v>0.588749243417097</v>
+          </cell>
+          <cell r="G84">
+            <v>0.88035033564424203</v>
+          </cell>
+          <cell r="H84">
+            <v>1.32689987937273</v>
+          </cell>
+          <cell r="I84">
+            <v>1.8561452114114401</v>
+          </cell>
+          <cell r="J84">
+            <v>1.07831425713967</v>
+          </cell>
+          <cell r="K84">
+            <v>-3.9508120316925299</v>
+          </cell>
+          <cell r="L84">
+            <v>-0.80164022444592098</v>
+          </cell>
+          <cell r="M84">
+            <v>6.5472960752396396</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>-5.4771619040250004</v>
+          </cell>
+          <cell r="D85">
+            <v>-4.8887435477185699</v>
+          </cell>
+          <cell r="E85">
+            <v>-10.4617186346991</v>
+          </cell>
+          <cell r="F85">
+            <v>-4.1897542055369303</v>
+          </cell>
+          <cell r="G85">
+            <v>-9.66666419506819</v>
+          </cell>
+          <cell r="H85">
+            <v>-3.9285714285714302</v>
+          </cell>
+          <cell r="I85">
+            <v>-2.32443513334611</v>
+          </cell>
+          <cell r="J85">
+            <v>-10.123011439504999</v>
+          </cell>
+          <cell r="K85">
+            <v>-1.4967713037960699</v>
+          </cell>
+          <cell r="L85">
+            <v>-1.5121932888254801</v>
+          </cell>
+          <cell r="M85">
+            <v>-7.0616194194534003</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>3.3725153684133899</v>
+          </cell>
+          <cell r="D86">
+            <v>-0.63732257560221695</v>
+          </cell>
+          <cell r="E86">
+            <v>0.20328531745914499</v>
+          </cell>
+          <cell r="F86">
+            <v>4.1845850793802404</v>
+          </cell>
+          <cell r="G86">
+            <v>-2.7463584281730902</v>
+          </cell>
+          <cell r="H86">
+            <v>3.4696406443618399</v>
+          </cell>
+          <cell r="I86">
+            <v>-0.207086407819912</v>
+          </cell>
+          <cell r="J86">
+            <v>-3.8646499210242902</v>
+          </cell>
+          <cell r="K86">
+            <v>0.89048882152331599</v>
+          </cell>
+          <cell r="L86">
+            <v>-0.222444198170102</v>
+          </cell>
+          <cell r="M86">
+            <v>2.8188736681887301</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>0.28267897742511</v>
+          </cell>
+          <cell r="D87">
+            <v>3.6515863112494902</v>
+          </cell>
+          <cell r="E87">
+            <v>0.885194739292405</v>
+          </cell>
+          <cell r="F87">
+            <v>0.83414070351048897</v>
+          </cell>
+          <cell r="G87">
+            <v>3.0896546014052699</v>
+          </cell>
+          <cell r="H87">
+            <v>5.9880239520957899</v>
+          </cell>
+          <cell r="I87">
+            <v>3.8298343376222301</v>
+          </cell>
+          <cell r="J87">
+            <v>2.1698126211409798</v>
+          </cell>
+          <cell r="K87">
+            <v>5.8516431924882504</v>
+          </cell>
+          <cell r="L87">
+            <v>-0.175566767882018</v>
+          </cell>
+          <cell r="M87">
+            <v>1.53363334912364</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -441,7 +3445,7 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -472,3019 +3476,4227 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40207.000000057902</v>
       </c>
       <c r="B2">
-        <v>-1.7407454765167003</v>
+        <f>[1]Sheet1!C2</f>
+        <v>-12.1311770694651</v>
       </c>
       <c r="C2">
-        <v>7.9244402502042295</v>
+        <f>[1]Sheet1!D2</f>
+        <v>-2.4659913427441702</v>
       </c>
       <c r="D2">
-        <v>-0.66631820964910027</v>
+        <f>[1]Sheet1!E2</f>
+        <v>-11.0567498025975</v>
       </c>
       <c r="E2">
-        <v>9.2833923379668786</v>
+        <f>[1]Sheet1!F2</f>
+        <v>-1.10703925498152</v>
       </c>
       <c r="F2">
-        <v>11.84525097857939</v>
+        <f>[1]Sheet1!G2</f>
+        <v>1.4548193856309899</v>
       </c>
       <c r="G2">
-        <v>-2.9806921149542003</v>
+        <f>[1]Sheet1!H2</f>
+        <v>-13.3711237079026</v>
       </c>
       <c r="H2">
-        <v>8.2559436422414798</v>
+        <f>[1]Sheet1!I2</f>
+        <v>-2.1344879507069199</v>
       </c>
       <c r="I2">
-        <v>10.390431592948399</v>
+        <f>[1]Sheet1!J2</f>
+        <v>0</v>
       </c>
       <c r="J2">
+        <f>[1]Sheet1!K2</f>
         <v>-1.96319018404908</v>
       </c>
       <c r="K2">
+        <f>[1]Sheet1!L2</f>
         <v>0.47734564519914502</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>-[1]Sheet1!M2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40235.000000057902</v>
       </c>
       <c r="B3">
-        <v>-1.06742527336285</v>
+        <f>[1]Sheet1!C3</f>
+        <v>1.3516524553986999</v>
       </c>
       <c r="C3">
-        <v>3.5247591367789703</v>
+        <f>[1]Sheet1!D3</f>
+        <v>5.9438368655405203</v>
       </c>
       <c r="D3">
-        <v>-4.1484079421511595</v>
+        <f>[1]Sheet1!E3</f>
+        <v>-1.72933021338961</v>
       </c>
       <c r="E3">
-        <v>5.0056130499648308</v>
+        <f>[1]Sheet1!F3</f>
+        <v>7.4246907787263803</v>
       </c>
       <c r="F3">
-        <v>0.96888377966459993</v>
+        <f>[1]Sheet1!G3</f>
+        <v>3.3879615084261498</v>
       </c>
       <c r="G3">
-        <v>7.2037090302838696</v>
+        <f>[1]Sheet1!H3</f>
+        <v>9.6227867590454199</v>
       </c>
       <c r="H3">
-        <v>0.20291321777961002</v>
+        <f>[1]Sheet1!I3</f>
+        <v>2.6219909465411599</v>
       </c>
       <c r="I3">
-        <v>-2.4190777287615499</v>
+        <f>[1]Sheet1!J3</f>
+        <v>0</v>
       </c>
       <c r="J3">
+        <f>[1]Sheet1!K3</f>
         <v>1.60200250312892</v>
       </c>
       <c r="K3">
+        <f>[1]Sheet1!L3</f>
         <v>0.92679127725856503</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>-[1]Sheet1!M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40268.000000057902</v>
       </c>
       <c r="B4">
-        <v>1.4148965094195698</v>
+        <f>[1]Sheet1!C4</f>
+        <v>3.3633275807107799</v>
       </c>
       <c r="C4">
-        <v>0.6728121625866601</v>
+        <f>[1]Sheet1!D4</f>
+        <v>2.6212432338778702</v>
       </c>
       <c r="D4">
-        <v>-0.91654079432603996</v>
+        <f>[1]Sheet1!E4</f>
+        <v>1.0318902769651701</v>
       </c>
       <c r="E4">
-        <v>-2.4218064549930669</v>
+        <f>[1]Sheet1!F4</f>
+        <v>-0.473375383701857</v>
       </c>
       <c r="F4">
-        <v>4.3381218133679891</v>
+        <f>[1]Sheet1!G4</f>
+        <v>6.2865528846591996</v>
       </c>
       <c r="G4">
-        <v>-14.975116464549611</v>
+        <f>[1]Sheet1!H4</f>
+        <v>-13.026685393258401</v>
       </c>
       <c r="H4">
-        <v>-4.0928930024047601</v>
+        <f>[1]Sheet1!I4</f>
+        <v>-2.14446193111355</v>
       </c>
       <c r="I4">
-        <v>-1.9484310712912101</v>
+        <f>[1]Sheet1!J4</f>
+        <v>0</v>
       </c>
       <c r="J4">
+        <f>[1]Sheet1!K4</f>
         <v>0.42292847170894998</v>
       </c>
       <c r="K4">
+        <f>[1]Sheet1!L4</f>
         <v>0.67134809784705796</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <f>-[1]Sheet1!M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40298.000000057902</v>
       </c>
       <c r="B5">
-        <v>-0.24910448734891055</v>
+        <f>[1]Sheet1!C5</f>
+        <v>-8.5657417971106398</v>
       </c>
       <c r="C5">
-        <v>1.641584320552159</v>
+        <f>[1]Sheet1!D5</f>
+        <v>-6.6750529892095702</v>
       </c>
       <c r="D5">
-        <v>0.72086878645229913</v>
+        <f>[1]Sheet1!E5</f>
+        <v>-7.5957685233094301</v>
       </c>
       <c r="E5">
-        <v>1.4118206484408091</v>
+        <f>[1]Sheet1!F5</f>
+        <v>-6.9048166613209201</v>
       </c>
       <c r="F5">
-        <v>5.7219743725733387</v>
+        <f>[1]Sheet1!G5</f>
+        <v>-2.59466293718839</v>
       </c>
       <c r="G5">
-        <v>-6.3785584916108711</v>
+        <f>[1]Sheet1!H5</f>
+        <v>-14.6951958013726</v>
       </c>
       <c r="H5">
-        <v>5.0340306746345789</v>
+        <f>[1]Sheet1!I5</f>
+        <v>-3.2826066351271499</v>
       </c>
       <c r="I5">
-        <v>8.3166373097617292</v>
+        <f>[1]Sheet1!J5</f>
+        <v>0</v>
       </c>
       <c r="J5">
+        <f>[1]Sheet1!K5</f>
         <v>5.1886985321175896</v>
       </c>
       <c r="K5">
+        <f>[1]Sheet1!L5</f>
         <v>0.74352291890234001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>-[1]Sheet1!M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40329.000000057902</v>
       </c>
       <c r="B6">
-        <v>-0.80266998948875923</v>
+        <f>[1]Sheet1!C6</f>
+        <v>-10.390736619967999</v>
       </c>
       <c r="C6">
-        <v>2.0561669512727399</v>
+        <f>[1]Sheet1!D6</f>
+        <v>-7.5318996792065001</v>
       </c>
       <c r="D6">
-        <v>-16.076760289810359</v>
+        <f>[1]Sheet1!E6</f>
+        <v>-25.664826920289599</v>
       </c>
       <c r="E6">
-        <v>3.4703297837613603</v>
+        <f>[1]Sheet1!F6</f>
+        <v>-6.1177368467178797</v>
       </c>
       <c r="F6">
-        <v>2.0122710956040901</v>
+        <f>[1]Sheet1!G6</f>
+        <v>-7.5757955348751498</v>
       </c>
       <c r="G6">
-        <v>-3.2373001466149596</v>
+        <f>[1]Sheet1!H6</f>
+        <v>-12.825366777094199</v>
       </c>
       <c r="H6">
-        <v>5.1981394710083197</v>
+        <f>[1]Sheet1!I6</f>
+        <v>-4.3899271594709202</v>
       </c>
       <c r="I6">
-        <v>9.5880666304792399</v>
+        <f>[1]Sheet1!J6</f>
+        <v>0</v>
       </c>
       <c r="J6">
+        <f>[1]Sheet1!K6</f>
         <v>3.4012283293166399</v>
       </c>
       <c r="K6">
+        <f>[1]Sheet1!L6</f>
         <v>0.89781632808338996</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>-[1]Sheet1!M6</f>
+        <v>10.1383971676859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40359.000000057902</v>
       </c>
       <c r="B7">
-        <v>2.0240588970604403</v>
+        <f>[1]Sheet1!C7</f>
+        <v>-5.55524116236412</v>
       </c>
       <c r="C7">
-        <v>-3.1385602473123404</v>
+        <f>[1]Sheet1!D7</f>
+        <v>-10.717860306736901</v>
       </c>
       <c r="D7">
-        <v>-2.1673476980552904</v>
+        <f>[1]Sheet1!E7</f>
+        <v>-9.7466477574798507</v>
       </c>
       <c r="E7">
-        <v>-1.0159374153269694</v>
+        <f>[1]Sheet1!F7</f>
+        <v>-8.5952374747515297</v>
       </c>
       <c r="F7">
-        <v>-0.68233826807170939</v>
+        <f>[1]Sheet1!G7</f>
+        <v>-8.2616383274962697</v>
       </c>
       <c r="G7">
-        <v>0.41927502450868026</v>
+        <f>[1]Sheet1!H7</f>
+        <v>-7.16002503491588</v>
       </c>
       <c r="H7">
-        <v>0.25485561498012022</v>
+        <f>[1]Sheet1!I7</f>
+        <v>-7.3244444444444401</v>
       </c>
       <c r="I7">
-        <v>2.0391056763734303</v>
+        <f>[1]Sheet1!J7</f>
+        <v>-5.54019438305113</v>
       </c>
       <c r="J7">
+        <f>[1]Sheet1!K7</f>
         <v>2.0412766437351899</v>
       </c>
       <c r="K7">
+        <f>[1]Sheet1!L7</f>
         <v>0.42983183771963002</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <f>-[1]Sheet1!M7</f>
+        <v>7.6289398280802301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40389.000000057902</v>
       </c>
       <c r="B8">
-        <v>-2.7139629913503605</v>
+        <f>[1]Sheet1!C8</f>
+        <v>9.2161052471292404</v>
       </c>
       <c r="C8">
-        <v>2.4421837470767986</v>
+        <f>[1]Sheet1!D8</f>
+        <v>14.372251985556399</v>
       </c>
       <c r="D8">
-        <v>-1.0226841735370016</v>
+        <f>[1]Sheet1!E8</f>
+        <v>10.907384064942599</v>
       </c>
       <c r="E8">
-        <v>4.5788374147038002</v>
+        <f>[1]Sheet1!F8</f>
+        <v>16.508905653183401</v>
       </c>
       <c r="F8">
-        <v>0.41175685764019931</v>
+        <f>[1]Sheet1!G8</f>
+        <v>12.3418250961198</v>
       </c>
       <c r="G8">
-        <v>5.6116978713055996</v>
+        <f>[1]Sheet1!H8</f>
+        <v>17.5417661097852</v>
       </c>
       <c r="H8">
-        <v>-0.12556100707200102</v>
+        <f>[1]Sheet1!I8</f>
+        <v>11.8045072314076</v>
       </c>
       <c r="I8">
-        <v>-6.5872800290103513</v>
+        <f>[1]Sheet1!J8</f>
+        <v>5.3427882094692496</v>
       </c>
       <c r="J8">
+        <f>[1]Sheet1!K8</f>
         <v>-5.76186265841437</v>
       </c>
       <c r="K8">
+        <f>[1]Sheet1!L8</f>
         <v>0.64574260399459205</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>-[1]Sheet1!M8</f>
+        <v>-11.337727801473401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40421.000000057902</v>
       </c>
       <c r="B9">
-        <v>-4.3606596806746198</v>
+        <f>[1]Sheet1!C9</f>
+        <v>-3.16359298556445</v>
       </c>
       <c r="C9">
-        <v>8.3029726737473801</v>
+        <f>[1]Sheet1!D9</f>
+        <v>9.50003936885755</v>
       </c>
       <c r="D9">
-        <v>-7.0215257233579997</v>
+        <f>[1]Sheet1!E9</f>
+        <v>-5.8244590282478299</v>
       </c>
       <c r="E9">
-        <v>9.8808055013950309</v>
+        <f>[1]Sheet1!F9</f>
+        <v>11.077872196505201</v>
       </c>
       <c r="F9">
-        <v>8.2072415750667798</v>
+        <f>[1]Sheet1!G9</f>
+        <v>9.4043082701769496</v>
       </c>
       <c r="G9">
-        <v>0.63034447240251001</v>
+        <f>[1]Sheet1!H9</f>
+        <v>1.8274111675126801</v>
       </c>
       <c r="H9">
-        <v>10.44567092996253</v>
+        <f>[1]Sheet1!I9</f>
+        <v>11.6427376250727</v>
       </c>
       <c r="I9">
-        <v>4.7030955260496201</v>
+        <f>[1]Sheet1!J9</f>
+        <v>5.9001622211597899</v>
       </c>
       <c r="J9">
+        <f>[1]Sheet1!K9</f>
         <v>5.7974980453479299</v>
       </c>
       <c r="K9">
+        <f>[1]Sheet1!L9</f>
         <v>0.47746941211579402</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>-[1]Sheet1!M9</f>
+        <v>-1.35822246987532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40451.000000057902</v>
       </c>
       <c r="B10">
-        <v>-1.676786044922804</v>
+        <f>[1]Sheet1!C10</f>
+        <v>-0.56125374043547405</v>
       </c>
       <c r="C10">
-        <v>0.43843389812053002</v>
+        <f>[1]Sheet1!D10</f>
+        <v>1.55396620260786</v>
       </c>
       <c r="D10">
-        <v>-6.3090175689531396</v>
+        <f>[1]Sheet1!E10</f>
+        <v>-5.19348526446581</v>
       </c>
       <c r="E10">
-        <v>4.9414009942766004</v>
+        <f>[1]Sheet1!F10</f>
+        <v>6.0569332987639299</v>
       </c>
       <c r="F10">
-        <v>1.0781182818625501</v>
+        <f>[1]Sheet1!G10</f>
+        <v>2.1936505863498801</v>
       </c>
       <c r="G10">
-        <v>-1.414634996411555</v>
+        <f>[1]Sheet1!H10</f>
+        <v>-0.29910269192422501</v>
       </c>
       <c r="H10">
-        <v>5.4429853246176503</v>
+        <f>[1]Sheet1!I10</f>
+        <v>6.5585176291049798</v>
       </c>
       <c r="I10">
-        <v>-9.2116154582457188</v>
+        <f>[1]Sheet1!J10</f>
+        <v>-8.0960831537583893</v>
       </c>
       <c r="J10">
+        <f>[1]Sheet1!K10</f>
         <v>4.2382588774341396</v>
       </c>
       <c r="K10">
+        <f>[1]Sheet1!L10</f>
         <v>8.91000891001026E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f>-[1]Sheet1!M10</f>
+        <v>-1.47746014293568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>40480.000000057902</v>
       </c>
       <c r="B11">
-        <v>-0.69262402620039865</v>
+        <f>[1]Sheet1!C11</f>
+        <v>14.4461188567928</v>
       </c>
       <c r="C11">
-        <v>-6.6658729444337084</v>
+        <f>[1]Sheet1!D11</f>
+        <v>8.4728699385594908</v>
       </c>
       <c r="D11">
-        <v>16.975603999982198</v>
+        <f>[1]Sheet1!E11</f>
+        <v>32.114346882975397</v>
       </c>
       <c r="E11">
-        <v>-1.5400155193125986</v>
+        <f>[1]Sheet1!F11</f>
+        <v>13.598727363680601</v>
       </c>
       <c r="F11">
-        <v>-1.8881231351140997</v>
+        <f>[1]Sheet1!G11</f>
+        <v>13.250619747879099</v>
       </c>
       <c r="G11">
-        <v>0.11125711700680085</v>
+        <f>[1]Sheet1!H11</f>
+        <v>15.25</v>
       </c>
       <c r="H11">
-        <v>-10.860420790056118</v>
+        <f>[1]Sheet1!I11</f>
+        <v>4.2783220929370804</v>
       </c>
       <c r="I11">
-        <v>-2.1967850435828993</v>
+        <f>[1]Sheet1!J11</f>
+        <v>12.9419578394103</v>
       </c>
       <c r="J11">
+        <f>[1]Sheet1!K11</f>
         <v>2.5168380007089701</v>
       </c>
       <c r="K11">
+        <f>[1]Sheet1!L11</f>
         <v>-1.07566765578636</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f>-[1]Sheet1!M11</f>
+        <v>-15.798740434753199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>40512.000000057902</v>
       </c>
       <c r="B12">
-        <v>-2.3831795050538798</v>
+        <f>[1]Sheet1!C12</f>
+        <v>-9.5725056052147401</v>
       </c>
       <c r="C12">
-        <v>8.2848277842699396</v>
+        <f>[1]Sheet1!D12</f>
+        <v>1.0955016841090801</v>
       </c>
       <c r="D12">
-        <v>-10.747776424553441</v>
+        <f>[1]Sheet1!E12</f>
+        <v>-17.937102524714302</v>
       </c>
       <c r="E12">
-        <v>3.0706164107681504</v>
+        <f>[1]Sheet1!F12</f>
+        <v>-4.11870968939271</v>
       </c>
       <c r="F12">
-        <v>11.22135461985939</v>
+        <f>[1]Sheet1!G12</f>
+        <v>4.0320285196985299</v>
       </c>
       <c r="G12">
-        <v>3.6318423691413404</v>
+        <f>[1]Sheet1!H12</f>
+        <v>-3.55748373101952</v>
       </c>
       <c r="H12">
-        <v>13.308510417395921</v>
+        <f>[1]Sheet1!I12</f>
+        <v>6.1191843172350602</v>
       </c>
       <c r="I12">
-        <v>18.178483675109959</v>
+        <f>[1]Sheet1!J12</f>
+        <v>10.9891575749491</v>
       </c>
       <c r="J12">
+        <f>[1]Sheet1!K12</f>
         <v>2.0331950207468799</v>
       </c>
       <c r="K12">
+        <f>[1]Sheet1!L12</f>
         <v>-2.03974503187102</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f>-[1]Sheet1!M12</f>
+        <v>7.8011695906432799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>40543.000000057902</v>
       </c>
       <c r="B13">
-        <v>0.15056915217195299</v>
+        <f>[1]Sheet1!C13</f>
+        <v>-0.12753227324130401</v>
       </c>
       <c r="C13">
-        <v>-3.129514687287593</v>
+        <f>[1]Sheet1!D13</f>
+        <v>-3.40761611270085</v>
       </c>
       <c r="D13">
-        <v>-2.3596532112874429</v>
+        <f>[1]Sheet1!E13</f>
+        <v>-2.6377546367006999</v>
       </c>
       <c r="E13">
-        <v>-2.0203575157636728</v>
+        <f>[1]Sheet1!F13</f>
+        <v>-2.2984589411769298</v>
       </c>
       <c r="F13">
-        <v>-1.6564716514880331</v>
+        <f>[1]Sheet1!G13</f>
+        <v>-1.9345730769012901</v>
       </c>
       <c r="G13">
-        <v>-7.2792535003627128</v>
+        <f>[1]Sheet1!H13</f>
+        <v>-7.5573549257759698</v>
       </c>
       <c r="H13">
-        <v>-4.4206982740092933</v>
+        <f>[1]Sheet1!I13</f>
+        <v>-4.6987996994225503</v>
       </c>
       <c r="I13">
-        <v>-3.4325927406665731</v>
+        <f>[1]Sheet1!J13</f>
+        <v>-3.71069416607983</v>
       </c>
       <c r="J13">
+        <f>[1]Sheet1!K13</f>
         <v>2.2773485156567701</v>
       </c>
       <c r="K13">
+        <f>[1]Sheet1!L13</f>
         <v>0.85738344943735401</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f>-[1]Sheet1!M13</f>
+        <v>-0.120512495242934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>40574.000000057902</v>
       </c>
       <c r="B14">
-        <v>0.98378057585068712</v>
+        <f>[1]Sheet1!C14</f>
+        <v>-0.67058905635072297</v>
       </c>
       <c r="C14">
-        <v>-4.9462936427368493</v>
+        <f>[1]Sheet1!D14</f>
+        <v>-6.6006632749382597</v>
       </c>
       <c r="D14">
-        <v>-0.47255912371477993</v>
+        <f>[1]Sheet1!E14</f>
+        <v>-2.12692875591619</v>
       </c>
       <c r="E14">
-        <v>-0.15670157958011988</v>
+        <f>[1]Sheet1!F14</f>
+        <v>-1.81107121178153</v>
       </c>
       <c r="F14">
-        <v>-9.69137953299599</v>
+        <f>[1]Sheet1!G14</f>
+        <v>-11.3457491651974</v>
       </c>
       <c r="G14">
-        <v>-5.7422240417645201</v>
+        <f>[1]Sheet1!H14</f>
+        <v>-7.3965936739659304</v>
       </c>
       <c r="H14">
-        <v>-5.0069092309064596</v>
+        <f>[1]Sheet1!I14</f>
+        <v>-6.6612788631078699</v>
       </c>
       <c r="I14">
-        <v>-7.8864254369843501</v>
+        <f>[1]Sheet1!J14</f>
+        <v>-9.5407950691857604</v>
       </c>
       <c r="J14">
+        <f>[1]Sheet1!K14</f>
         <v>-5.3346587143803896</v>
       </c>
       <c r="K14">
+        <f>[1]Sheet1!L14</f>
         <v>-7.5901328273242405E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>-[1]Sheet1!M14</f>
+        <v>2.4453595185302399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>40602.000000057902</v>
       </c>
       <c r="B15">
-        <v>-2.3599598411527603</v>
+        <f>[1]Sheet1!C15</f>
+        <v>2.9399126116411298</v>
       </c>
       <c r="C15">
-        <v>5.2046321298653098</v>
+        <f>[1]Sheet1!D15</f>
+        <v>10.5045045826592</v>
       </c>
       <c r="D15">
-        <v>5.8007557613914091</v>
+        <f>[1]Sheet1!E15</f>
+        <v>11.100628214185299</v>
       </c>
       <c r="E15">
-        <v>4.2835515643824191</v>
+        <f>[1]Sheet1!F15</f>
+        <v>9.5834240171763092</v>
       </c>
       <c r="F15">
-        <v>6.1394224293663093</v>
+        <f>[1]Sheet1!G15</f>
+        <v>11.439294882160199</v>
       </c>
       <c r="G15">
-        <v>1.2161548724819795</v>
+        <f>[1]Sheet1!H15</f>
+        <v>6.5160273252758696</v>
       </c>
       <c r="H15">
-        <v>1.1097596209503902</v>
+        <f>[1]Sheet1!I15</f>
+        <v>6.4096320737442802</v>
       </c>
       <c r="I15">
-        <v>1.5657991889971701</v>
+        <f>[1]Sheet1!J15</f>
+        <v>6.8656716417910602</v>
       </c>
       <c r="J15">
+        <f>[1]Sheet1!K15</f>
         <v>4.8652432621631103</v>
       </c>
       <c r="K15">
+        <f>[1]Sheet1!L15</f>
         <v>-0.212685150018987</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>-[1]Sheet1!M15</f>
+        <v>-5.69517501136436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>40633.000000057902</v>
       </c>
       <c r="B16">
-        <v>3.5637643142263791</v>
+        <f>[1]Sheet1!C16</f>
+        <v>3.0615045930729701</v>
       </c>
       <c r="C16">
-        <v>-1.3584297737602411</v>
+        <f>[1]Sheet1!D16</f>
+        <v>-1.8606894949136501</v>
       </c>
       <c r="D16">
-        <v>-4.659367614986861</v>
+        <f>[1]Sheet1!E16</f>
+        <v>-5.1616273361402696</v>
       </c>
       <c r="E16">
-        <v>-3.8152869323864613</v>
+        <f>[1]Sheet1!F16</f>
+        <v>-4.3175466535398703</v>
       </c>
       <c r="F16">
-        <v>-5.6731327317419211</v>
+        <f>[1]Sheet1!G16</f>
+        <v>-6.1753924528953297</v>
       </c>
       <c r="G16">
-        <v>3.7583031350655989</v>
+        <f>[1]Sheet1!H16</f>
+        <v>3.2560434139121899</v>
       </c>
       <c r="H16">
-        <v>-2.908696087145211</v>
+        <f>[1]Sheet1!I16</f>
+        <v>-3.41095580829862</v>
       </c>
       <c r="I16">
-        <v>-7.8157977741911004</v>
+        <f>[1]Sheet1!J16</f>
+        <v>-8.3180574953445099</v>
       </c>
       <c r="J16">
+        <f>[1]Sheet1!K16</f>
         <v>0.854472630173575</v>
       </c>
       <c r="K16">
+        <f>[1]Sheet1!L16</f>
         <v>0.715536271599304</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>-[1]Sheet1!M16</f>
+        <v>0.34406488080608899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>40662.000000057902</v>
       </c>
       <c r="B17">
-        <v>2.3938715864336291</v>
+        <f>[1]Sheet1!C17</f>
+        <v>1.4456162645387201</v>
       </c>
       <c r="C17">
-        <v>-2.3222017333578511</v>
+        <f>[1]Sheet1!D17</f>
+        <v>-3.2704570552527601</v>
       </c>
       <c r="D17">
-        <v>-2.7924354867881309</v>
+        <f>[1]Sheet1!E17</f>
+        <v>-3.7406908086830399</v>
       </c>
       <c r="E17">
-        <v>-7.5069916146123923</v>
+        <f>[1]Sheet1!F17</f>
+        <v>-8.4552469365073009</v>
       </c>
       <c r="F17">
-        <v>-6.1294531319653807</v>
+        <f>[1]Sheet1!G17</f>
+        <v>-7.0777084538602901</v>
       </c>
       <c r="G17">
-        <v>-7.3651703828351422</v>
+        <f>[1]Sheet1!H17</f>
+        <v>-8.3134257047300508</v>
       </c>
       <c r="H17">
-        <v>-1.5803740154328412</v>
+        <f>[1]Sheet1!I17</f>
+        <v>-2.5286293373277502</v>
       </c>
       <c r="I17">
-        <v>-8.5312030911107914</v>
+        <f>[1]Sheet1!J17</f>
+        <v>-9.4794584130057</v>
       </c>
       <c r="J17">
+        <f>[1]Sheet1!K17</f>
         <v>5.9604183214191098</v>
       </c>
       <c r="K17">
+        <f>[1]Sheet1!L17</f>
         <v>0.40057440858589599</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>-[1]Sheet1!M17</f>
+        <v>1.5659679408138201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>40694.000000057902</v>
       </c>
       <c r="B18">
-        <v>1.1004844022202498</v>
+        <f>[1]Sheet1!C18</f>
+        <v>-4.8871004900488204</v>
       </c>
       <c r="C18">
-        <v>-2.1290344227998306</v>
+        <f>[1]Sheet1!D18</f>
+        <v>-8.1166193150689008</v>
       </c>
       <c r="D18">
-        <v>1.0167344327069499</v>
+        <f>[1]Sheet1!E18</f>
+        <v>-4.9708504595621203</v>
       </c>
       <c r="E18">
-        <v>-1.0108988625783599</v>
+        <f>[1]Sheet1!F18</f>
+        <v>-6.9984837548474301</v>
       </c>
       <c r="F18">
-        <v>-2.4263572699844493</v>
+        <f>[1]Sheet1!G18</f>
+        <v>-8.4139421622535195</v>
       </c>
       <c r="G18">
-        <v>-2.5585328774026292</v>
+        <f>[1]Sheet1!H18</f>
+        <v>-8.5461177696716994</v>
       </c>
       <c r="H18">
-        <v>3.9486017323832803</v>
+        <f>[1]Sheet1!I18</f>
+        <v>-2.0389831598857899</v>
       </c>
       <c r="I18">
-        <v>-1.2874133273285002</v>
+        <f>[1]Sheet1!J18</f>
+        <v>-7.2749982195975704</v>
       </c>
       <c r="J18">
+        <f>[1]Sheet1!K18</f>
         <v>0.146797014086264</v>
       </c>
       <c r="K18">
+        <f>[1]Sheet1!L18</f>
         <v>0.93345377898224102</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>-[1]Sheet1!M18</f>
+        <v>6.1756231992985002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>40724.000000057902</v>
       </c>
       <c r="B19">
-        <v>-2.4680303248198703</v>
+        <f>[1]Sheet1!C19</f>
+        <v>-1.0509986252613801</v>
       </c>
       <c r="C19">
-        <v>1.6218434738105802</v>
+        <f>[1]Sheet1!D19</f>
+        <v>3.0388751733690702</v>
       </c>
       <c r="D19">
-        <v>-0.88267441787654899</v>
+        <f>[1]Sheet1!E19</f>
+        <v>0.53435728168194097</v>
       </c>
       <c r="E19">
-        <v>10.34661055332171</v>
+        <f>[1]Sheet1!F19</f>
+        <v>11.763642252880199</v>
       </c>
       <c r="F19">
-        <v>2.2483347934920501</v>
+        <f>[1]Sheet1!G19</f>
+        <v>3.6653664930505401</v>
       </c>
       <c r="G19">
-        <v>-7.3533570205355696</v>
+        <f>[1]Sheet1!H19</f>
+        <v>-5.9363253209770797</v>
       </c>
       <c r="H19">
-        <v>0.86424488364992991</v>
+        <f>[1]Sheet1!I19</f>
+        <v>2.2812765832084199</v>
       </c>
       <c r="I19">
-        <v>-1.4638227879830259</v>
+        <f>[1]Sheet1!J19</f>
+        <v>-4.6791088424535901E-2</v>
       </c>
       <c r="J19">
+        <f>[1]Sheet1!K19</f>
         <v>-1.8525449101796401</v>
       </c>
       <c r="K19">
+        <f>[1]Sheet1!L19</f>
         <v>-0.43257756563246402</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>-[1]Sheet1!M19</f>
+        <v>-1.3017356475300399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>40753.000000057902</v>
       </c>
       <c r="B20">
-        <v>-1.7170021047667796</v>
+        <f>[1]Sheet1!C20</f>
+        <v>-4.0825702599685396</v>
       </c>
       <c r="C20">
-        <v>3.4353311686718397</v>
+        <f>[1]Sheet1!D20</f>
+        <v>1.06976301347008</v>
       </c>
       <c r="D20">
-        <v>-4.1007526333877298</v>
+        <f>[1]Sheet1!E20</f>
+        <v>-6.4663207885894902</v>
       </c>
       <c r="E20">
-        <v>3.360799804665628</v>
+        <f>[1]Sheet1!F20</f>
+        <v>0.995231649463868</v>
       </c>
       <c r="F20">
-        <v>4.6085640292198402</v>
+        <f>[1]Sheet1!G20</f>
+        <v>2.2429958740180802</v>
       </c>
       <c r="G20">
-        <v>7.08949453556985</v>
+        <f>[1]Sheet1!H20</f>
+        <v>4.7239263803680904</v>
       </c>
       <c r="H20">
-        <v>8.8233283330849108</v>
+        <f>[1]Sheet1!I20</f>
+        <v>6.4577601778831504</v>
       </c>
       <c r="I20">
-        <v>10.328387290367189</v>
+        <f>[1]Sheet1!J20</f>
+        <v>7.9628191351654296</v>
       </c>
       <c r="J20">
+        <f>[1]Sheet1!K20</f>
         <v>6.1328249126151997</v>
       </c>
       <c r="K20">
+        <f>[1]Sheet1!L20</f>
         <v>-0.85393258426965701</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>-[1]Sheet1!M20</f>
+        <v>2.08896210873147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>40786.000000057902</v>
       </c>
       <c r="B21">
-        <v>0.72195064052437985</v>
+        <f>[1]Sheet1!C21</f>
+        <v>-3.4940543849140502</v>
       </c>
       <c r="C21">
-        <v>-5.7295005674370181E-2</v>
+        <f>[1]Sheet1!D21</f>
+        <v>-4.2733000311128002</v>
       </c>
       <c r="D21">
-        <v>-2.8980079322938801</v>
+        <f>[1]Sheet1!E21</f>
+        <v>-7.1140129577323101</v>
       </c>
       <c r="E21">
-        <v>-2.0996246602929203</v>
+        <f>[1]Sheet1!F21</f>
+        <v>-6.3156296857313503</v>
       </c>
       <c r="F21">
-        <v>0.75510623821740008</v>
+        <f>[1]Sheet1!G21</f>
+        <v>-3.4608987872210299</v>
       </c>
       <c r="G21">
-        <v>-1.1149850155691903</v>
+        <f>[1]Sheet1!H21</f>
+        <v>-5.3309900410076203</v>
       </c>
       <c r="H21">
-        <v>5.3788166966754698</v>
+        <f>[1]Sheet1!I21</f>
+        <v>1.16281167123704</v>
       </c>
       <c r="I21">
-        <v>5.1157310672351191</v>
+        <f>[1]Sheet1!J21</f>
+        <v>0.89972604179668902</v>
       </c>
       <c r="J21">
+        <f>[1]Sheet1!K21</f>
         <v>13.0808383233533</v>
       </c>
       <c r="K21">
+        <f>[1]Sheet1!L21</f>
         <v>-0.105772136597171</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>-[1]Sheet1!M21</f>
+        <v>4.19975770628617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>40816.000000057902</v>
       </c>
       <c r="B22">
-        <v>0.79594655585649932</v>
+        <f>[1]Sheet1!C22</f>
+        <v>-8.5277585758433503</v>
       </c>
       <c r="C22">
-        <v>-3.6252866160291504</v>
+        <f>[1]Sheet1!D22</f>
+        <v>-12.948991747729</v>
       </c>
       <c r="D22">
-        <v>5.6201484756928197</v>
+        <f>[1]Sheet1!E22</f>
+        <v>-3.7035566560070299</v>
       </c>
       <c r="E22">
-        <v>-4.9521215491845503</v>
+        <f>[1]Sheet1!F22</f>
+        <v>-14.2758266808844</v>
       </c>
       <c r="F22">
-        <v>-3.3313754577120509</v>
+        <f>[1]Sheet1!G22</f>
+        <v>-12.655080589411901</v>
       </c>
       <c r="G22">
-        <v>2.1454873099176899</v>
+        <f>[1]Sheet1!H22</f>
+        <v>-7.1782178217821597</v>
       </c>
       <c r="H22">
-        <v>-3.3001676472543497</v>
+        <f>[1]Sheet1!I22</f>
+        <v>-12.623872778954199</v>
       </c>
       <c r="I22">
-        <v>-4.8229804173264501</v>
+        <f>[1]Sheet1!J22</f>
+        <v>-14.1466855490263</v>
       </c>
       <c r="J22">
+        <f>[1]Sheet1!K22</f>
         <v>-10.3788821520294</v>
       </c>
       <c r="K22">
+        <f>[1]Sheet1!L22</f>
         <v>0.99833610648918403</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>-[1]Sheet1!M22</f>
+        <v>9.6599690880989204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>40847.000000057902</v>
       </c>
       <c r="B23">
-        <v>1.9703451577300504</v>
+        <f>[1]Sheet1!C23</f>
+        <v>6.38493271285137</v>
       </c>
       <c r="C23">
-        <v>-0.71895995648325961</v>
+        <f>[1]Sheet1!D23</f>
+        <v>3.69562759863806</v>
       </c>
       <c r="D23">
-        <v>3.2110604094359907</v>
+        <f>[1]Sheet1!E23</f>
+        <v>7.6256479645573103</v>
       </c>
       <c r="E23">
-        <v>-3.0523383488576794</v>
+        <f>[1]Sheet1!F23</f>
+        <v>1.36224920626364</v>
       </c>
       <c r="F23">
-        <v>-0.84228646964694942</v>
+        <f>[1]Sheet1!G23</f>
+        <v>3.5723010854743702</v>
       </c>
       <c r="G23">
-        <v>0.18541244487866049</v>
+        <f>[1]Sheet1!H23</f>
+        <v>4.5999999999999801</v>
       </c>
       <c r="H23">
-        <v>0.73179489907129014</v>
+        <f>[1]Sheet1!I23</f>
+        <v>5.1463824541926098</v>
       </c>
       <c r="I23">
-        <v>3.3797936748599406</v>
+        <f>[1]Sheet1!J23</f>
+        <v>7.7943812299812603</v>
       </c>
       <c r="J23">
+        <f>[1]Sheet1!K23</f>
         <v>3.54515643002749</v>
       </c>
       <c r="K23">
+        <f>[1]Sheet1!L23</f>
         <v>1.60079376965703</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f>-[1]Sheet1!M23</f>
+        <v>-4.7437592347772002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>40877.000000057902</v>
       </c>
       <c r="B24">
-        <v>-0.76760112607072983</v>
+        <f>[1]Sheet1!C24</f>
+        <v>-7.2153638484618998</v>
       </c>
       <c r="C24">
-        <v>1.9615471710107197</v>
+        <f>[1]Sheet1!D24</f>
+        <v>-4.4862155513804503</v>
       </c>
       <c r="D24">
-        <v>-7.1310589059321305</v>
+        <f>[1]Sheet1!E24</f>
+        <v>-13.578821628323301</v>
       </c>
       <c r="E24">
-        <v>3.5207359989294802</v>
+        <f>[1]Sheet1!F24</f>
+        <v>-2.9270267234616898</v>
       </c>
       <c r="F24">
-        <v>3.3307108767802598</v>
+        <f>[1]Sheet1!G24</f>
+        <v>-3.1170518456109102</v>
       </c>
       <c r="G24">
-        <v>6.44776272239117</v>
+        <f>[1]Sheet1!H24</f>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>8.1421467973368991</v>
+        <f>[1]Sheet1!I24</f>
+        <v>1.69438407494573</v>
       </c>
       <c r="I24">
-        <v>4.7251977069947895</v>
+        <f>[1]Sheet1!J24</f>
+        <v>-1.7225650153963801</v>
       </c>
       <c r="J24">
+        <f>[1]Sheet1!K24</f>
         <v>0.365203001512171</v>
       </c>
       <c r="K24">
+        <f>[1]Sheet1!L24</f>
         <v>1.35740803389208</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>-[1]Sheet1!M24</f>
+        <v>6.1548741554681197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>40907.000000057902</v>
       </c>
       <c r="B25">
-        <v>4.2566303714417</v>
+        <f>[1]Sheet1!C25</f>
+        <v>-2.7144822907620401</v>
       </c>
       <c r="C25">
-        <v>-7.5099187251838613</v>
+        <f>[1]Sheet1!D25</f>
+        <v>-14.481031387387601</v>
       </c>
       <c r="D25">
-        <v>-3.9059120585817597</v>
+        <f>[1]Sheet1!E25</f>
+        <v>-10.877024720785499</v>
       </c>
       <c r="E25">
-        <v>-9.0227983374040619</v>
+        <f>[1]Sheet1!F25</f>
+        <v>-15.993910999607801</v>
       </c>
       <c r="F25">
-        <v>-6.7259479252120604</v>
+        <f>[1]Sheet1!G25</f>
+        <v>-13.6970605874158</v>
       </c>
       <c r="G25">
-        <v>-12.850429721480161</v>
+        <f>[1]Sheet1!H25</f>
+        <v>-19.821542383683902</v>
       </c>
       <c r="H25">
-        <v>-7.865391793350061</v>
+        <f>[1]Sheet1!I25</f>
+        <v>-14.836504455553801</v>
       </c>
       <c r="I25">
-        <v>-5.987121837407261</v>
+        <f>[1]Sheet1!J25</f>
+        <v>-12.958234499611001</v>
       </c>
       <c r="J25">
+        <f>[1]Sheet1!K25</f>
         <v>-9.0883247576541404</v>
       </c>
       <c r="K25">
+        <f>[1]Sheet1!L25</f>
         <v>1.44248738723409</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f>-[1]Sheet1!M25</f>
+        <v>6.7642405063291102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40939.000000057902</v>
       </c>
       <c r="B26">
-        <v>2.8044734411680299</v>
+        <f>[1]Sheet1!C26</f>
+        <v>7.8569472426346803</v>
       </c>
       <c r="C26">
-        <v>-4.2039611245911388</v>
+        <f>[1]Sheet1!D26</f>
+        <v>0.84851267687551202</v>
       </c>
       <c r="D26">
-        <v>4.4114889404396589</v>
+        <f>[1]Sheet1!E26</f>
+        <v>9.4639627419063093</v>
       </c>
       <c r="E26">
-        <v>-5.374986977796703</v>
+        <f>[1]Sheet1!F26</f>
+        <v>-0.322513176330053</v>
       </c>
       <c r="F26">
-        <v>-8.5080595205421403</v>
+        <f>[1]Sheet1!G26</f>
+        <v>-3.4555857190754899</v>
       </c>
       <c r="G26">
-        <v>1.3863179314427496</v>
+        <f>[1]Sheet1!H26</f>
+        <v>6.4387917329094</v>
       </c>
       <c r="H26">
-        <v>-8.3117506451497203</v>
+        <f>[1]Sheet1!I26</f>
+        <v>-3.2592768436830699</v>
       </c>
       <c r="I26">
-        <v>-16.131645402993151</v>
+        <f>[1]Sheet1!J26</f>
+        <v>-11.0791716015265</v>
       </c>
       <c r="J26">
+        <f>[1]Sheet1!K26</f>
         <v>10.744215134458999</v>
       </c>
       <c r="K26">
+        <f>[1]Sheet1!L26</f>
         <v>0.74220572876157997</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>-[1]Sheet1!M26</f>
+        <v>-5.0487908358082301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>40968.000000057902</v>
       </c>
       <c r="B27">
-        <v>-2.4197164081256197</v>
+        <f>[1]Sheet1!C27</f>
+        <v>4.4741584265103302</v>
       </c>
       <c r="C27">
-        <v>5.2976787089431507</v>
+        <f>[1]Sheet1!D27</f>
+        <v>12.191553543579101</v>
       </c>
       <c r="D27">
-        <v>2.1957011710313594</v>
+        <f>[1]Sheet1!E27</f>
+        <v>9.0895760056673094</v>
       </c>
       <c r="E27">
-        <v>4.7649133753597503</v>
+        <f>[1]Sheet1!F27</f>
+        <v>11.6587882099957</v>
       </c>
       <c r="F27">
-        <v>7.1762336824220494</v>
+        <f>[1]Sheet1!G27</f>
+        <v>14.070108517057999</v>
       </c>
       <c r="G27">
-        <v>1.6199414461706105</v>
+        <f>[1]Sheet1!H27</f>
+        <v>8.5138162808065605</v>
       </c>
       <c r="H27">
-        <v>5.0490989733160507</v>
+        <f>[1]Sheet1!I27</f>
+        <v>11.942973807952001</v>
       </c>
       <c r="I27">
-        <v>6.4647714028829508</v>
+        <f>[1]Sheet1!J27</f>
+        <v>13.358646237518901</v>
       </c>
       <c r="J27">
+        <f>[1]Sheet1!K27</f>
         <v>2.2023943980121801</v>
       </c>
       <c r="K27">
+        <f>[1]Sheet1!L27</f>
         <v>-0.467558711669747</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>-[1]Sheet1!M27</f>
+        <v>-7.0597738287560601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>40998.000000057902</v>
       </c>
       <c r="B28">
-        <v>0.37837511509701027</v>
+        <f>[1]Sheet1!C28</f>
+        <v>-6.4262668500506699</v>
       </c>
       <c r="C28">
-        <v>-0.75155714397793005</v>
+        <f>[1]Sheet1!D28</f>
+        <v>-7.5561991091256102</v>
       </c>
       <c r="D28">
-        <v>4.73607207281706</v>
+        <f>[1]Sheet1!E28</f>
+        <v>-2.0685698923306202</v>
       </c>
       <c r="E28">
-        <v>-1.79942122965367</v>
+        <f>[1]Sheet1!F28</f>
+        <v>-8.6040631948013502</v>
       </c>
       <c r="F28">
-        <v>-1.6410146344025991</v>
+        <f>[1]Sheet1!G28</f>
+        <v>-8.4456565995502793</v>
       </c>
       <c r="G28">
-        <v>-3.9317654677498206</v>
+        <f>[1]Sheet1!H28</f>
+        <v>-10.736407432897501</v>
       </c>
       <c r="H28">
-        <v>1.8973970385685099</v>
+        <f>[1]Sheet1!I28</f>
+        <v>-4.9072449265791702</v>
       </c>
       <c r="I28">
-        <v>-0.92202992362153946</v>
+        <f>[1]Sheet1!J28</f>
+        <v>-7.7266718887692196</v>
       </c>
       <c r="J28">
+        <f>[1]Sheet1!K28</f>
         <v>-6.3321914023649004</v>
       </c>
       <c r="K28">
+        <f>[1]Sheet1!L28</f>
         <v>0.38861492664499198</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f>-[1]Sheet1!M28</f>
+        <v>7.4392636185302603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41026.000000057902</v>
       </c>
       <c r="B29">
-        <v>-0.12188483576103071</v>
+        <f>[1]Sheet1!C29</f>
+        <v>6.8542881147351196</v>
       </c>
       <c r="C29">
-        <v>0.27558129375645013</v>
+        <f>[1]Sheet1!D29</f>
+        <v>7.2517542442526004</v>
       </c>
       <c r="D29">
-        <v>6.1515275511809504</v>
+        <f>[1]Sheet1!E29</f>
+        <v>13.127700501677101</v>
       </c>
       <c r="E29">
-        <v>2.0545451884533596</v>
+        <f>[1]Sheet1!F29</f>
+        <v>9.0307181389495099</v>
       </c>
       <c r="F29">
-        <v>-2.2051311975117303</v>
+        <f>[1]Sheet1!G29</f>
+        <v>4.77104175298442</v>
       </c>
       <c r="G29">
-        <v>7.2875124774144497</v>
+        <f>[1]Sheet1!H29</f>
+        <v>14.2636854279106</v>
       </c>
       <c r="H29">
-        <v>0.27087104904350934</v>
+        <f>[1]Sheet1!I29</f>
+        <v>7.2470439995396596</v>
       </c>
       <c r="I29">
-        <v>-6.0016976594578821</v>
+        <f>[1]Sheet1!J29</f>
+        <v>0.97447529103826802</v>
       </c>
       <c r="J29">
+        <f>[1]Sheet1!K29</f>
         <v>-0.87010382255782204</v>
       </c>
       <c r="K29">
+        <f>[1]Sheet1!L29</f>
         <v>9.7276126045930902E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>-[1]Sheet1!M29</f>
+        <v>-7.5399413107270998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41060.000000057902</v>
       </c>
       <c r="B30">
-        <v>-1.2089249764356991</v>
+        <f>[1]Sheet1!C30</f>
+        <v>-0.98483327133200804</v>
       </c>
       <c r="C30">
-        <v>2.203296757276489</v>
+        <f>[1]Sheet1!D30</f>
+        <v>2.42738846238018</v>
       </c>
       <c r="D30">
-        <v>7.9337085922458002</v>
+        <f>[1]Sheet1!E30</f>
+        <v>8.1578002973494907</v>
       </c>
       <c r="E30">
-        <v>-2.0943884160260011</v>
+        <f>[1]Sheet1!F30</f>
+        <v>-1.8702967109223101</v>
       </c>
       <c r="F30">
-        <v>3.8480138492644991</v>
+        <f>[1]Sheet1!G30</f>
+        <v>4.0721055543681901</v>
       </c>
       <c r="G30">
-        <v>3.7570149075818691</v>
+        <f>[1]Sheet1!H30</f>
+        <v>3.9811066126855601</v>
       </c>
       <c r="H30">
-        <v>0.72894835700780802</v>
+        <f>[1]Sheet1!I30</f>
+        <v>0.95304006211149905</v>
       </c>
       <c r="I30">
-        <v>6.9749694963307896</v>
+        <f>[1]Sheet1!J30</f>
+        <v>7.1990612014344801</v>
       </c>
       <c r="J30">
+        <f>[1]Sheet1!K30</f>
         <v>-4.2667142729625898</v>
       </c>
       <c r="K30">
+        <f>[1]Sheet1!L30</f>
         <v>1.86473403831489</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f>-[1]Sheet1!M30</f>
+        <v>0.113696657318275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41089.000000057902</v>
       </c>
       <c r="B31">
-        <v>1.1700154656044193</v>
+        <f>[1]Sheet1!C31</f>
+        <v>-5.3051851580938303</v>
       </c>
       <c r="C31">
-        <v>-1.0543317470196101</v>
+        <f>[1]Sheet1!D31</f>
+        <v>-7.5295323707178596</v>
       </c>
       <c r="D31">
-        <v>-3.0318833554645703</v>
+        <f>[1]Sheet1!E31</f>
+        <v>-9.5070839791628199</v>
       </c>
       <c r="E31">
-        <v>-2.4869971987443709</v>
+        <f>[1]Sheet1!F31</f>
+        <v>-8.9621978224426204</v>
       </c>
       <c r="F31">
-        <v>1.2689228063416191</v>
+        <f>[1]Sheet1!G31</f>
+        <v>-5.2062778173566304</v>
       </c>
       <c r="G31">
-        <v>-1.1172717968079207</v>
+        <f>[1]Sheet1!H31</f>
+        <v>-7.5924724205061702</v>
       </c>
       <c r="H31">
-        <v>4.8215552933067691</v>
+        <f>[1]Sheet1!I31</f>
+        <v>-1.65364533039148</v>
       </c>
       <c r="I31">
-        <v>5.417271876629</v>
+        <f>[1]Sheet1!J31</f>
+        <v>-1.05792874706925</v>
       </c>
       <c r="J31">
+        <f>[1]Sheet1!K31</f>
         <v>0.22999222999222599</v>
       </c>
       <c r="K31">
+        <f>[1]Sheet1!L31</f>
         <v>0.44537503483310598</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>-[1]Sheet1!M31</f>
+        <v>6.3211412960995599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41121.000000057902</v>
       </c>
       <c r="B32">
-        <v>0.72363363319696017</v>
+        <f>[1]Sheet1!C32</f>
+        <v>-4.5042414340354098</v>
       </c>
       <c r="C32">
-        <v>-3.7544396492801901</v>
+        <f>[1]Sheet1!D32</f>
+        <v>-8.9823147165125601</v>
       </c>
       <c r="D32">
-        <v>6.2493460348919783E-2</v>
+        <f>[1]Sheet1!E32</f>
+        <v>-5.1653816068834502</v>
       </c>
       <c r="E32">
-        <v>-5.5588514550543309</v>
+        <f>[1]Sheet1!F32</f>
+        <v>-10.786726522286701</v>
       </c>
       <c r="F32">
-        <v>-4.4478397132946998</v>
+        <f>[1]Sheet1!G32</f>
+        <v>-9.6757147805270698</v>
       </c>
       <c r="G32">
-        <v>-6.2571576100991297</v>
+        <f>[1]Sheet1!H32</f>
+        <v>-11.4850326773315</v>
       </c>
       <c r="H32">
-        <v>1.95513177083442</v>
+        <f>[1]Sheet1!I32</f>
+        <v>-3.2727432963979499</v>
       </c>
       <c r="I32">
-        <v>-1.6147140086245297</v>
+        <f>[1]Sheet1!J32</f>
+        <v>-6.8425890758568997</v>
       </c>
       <c r="J32">
+        <f>[1]Sheet1!K32</f>
         <v>3.05745914602003</v>
       </c>
       <c r="K32">
+        <f>[1]Sheet1!L32</f>
         <v>0.45661116225514897</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>-[1]Sheet1!M32</f>
+        <v>4.2851356824625402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41152.000000057902</v>
       </c>
       <c r="B33">
-        <v>0.54465269844749997</v>
+        <f>[1]Sheet1!C33</f>
+        <v>-4.9443435045974402</v>
       </c>
       <c r="C33">
-        <v>4.865672264518885</v>
+        <f>[1]Sheet1!D33</f>
+        <v>-0.62332393852605505</v>
       </c>
       <c r="D33">
-        <v>-7.331540221381359</v>
+        <f>[1]Sheet1!E33</f>
+        <v>-12.820536424426299</v>
       </c>
       <c r="E33">
-        <v>7.6837454458930896</v>
+        <f>[1]Sheet1!F33</f>
+        <v>2.1947492428481499</v>
       </c>
       <c r="F33">
-        <v>11.0032469281003</v>
+        <f>[1]Sheet1!G33</f>
+        <v>5.5142507250553603</v>
       </c>
       <c r="G33">
-        <v>6.9175676316163397</v>
+        <f>[1]Sheet1!H33</f>
+        <v>1.4285714285714</v>
       </c>
       <c r="H33">
-        <v>0.99936729649189981</v>
+        <f>[1]Sheet1!I33</f>
+        <v>-4.4896289065530404</v>
       </c>
       <c r="I33">
-        <v>9.8710867253800814</v>
+        <f>[1]Sheet1!J33</f>
+        <v>4.3820905223351403</v>
       </c>
       <c r="J33">
+        <f>[1]Sheet1!K33</f>
         <v>2.2085151196028301</v>
       </c>
       <c r="K33">
+        <f>[1]Sheet1!L33</f>
         <v>-0.54396163821117705</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>-[1]Sheet1!M33</f>
+        <v>6.2288422477995899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41180.000000057902</v>
       </c>
       <c r="B34">
-        <v>-1.1952621144900366E-2</v>
+        <f>[1]Sheet1!C34</f>
+        <v>3.9900103081551799</v>
       </c>
       <c r="C34">
-        <v>-2.08280382753229</v>
+        <f>[1]Sheet1!D34</f>
+        <v>1.91915910176779</v>
       </c>
       <c r="D34">
-        <v>10.710286050145221</v>
+        <f>[1]Sheet1!E34</f>
+        <v>14.712248979445301</v>
       </c>
       <c r="E34">
-        <v>-1.8611742135326903</v>
+        <f>[1]Sheet1!F34</f>
+        <v>2.1407887157673899</v>
       </c>
       <c r="F34">
-        <v>-3.9044124889165488</v>
+        <f>[1]Sheet1!G34</f>
+        <v>9.7550440383531403E-2</v>
       </c>
       <c r="G34">
-        <v>-5.7625263095817703</v>
+        <f>[1]Sheet1!H34</f>
+        <v>-1.76056338028169</v>
       </c>
       <c r="H34">
-        <v>-0.82935565277524015</v>
+        <f>[1]Sheet1!I34</f>
+        <v>3.1726072765248401</v>
       </c>
       <c r="I34">
-        <v>-6.4056423915325205</v>
+        <f>[1]Sheet1!J34</f>
+        <v>-2.4036794622324398</v>
       </c>
       <c r="J34">
+        <f>[1]Sheet1!K34</f>
         <v>5.9878124172039202</v>
       </c>
       <c r="K34">
+        <f>[1]Sheet1!L34</f>
         <v>-7.8014520026281606E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f>-[1]Sheet1!M34</f>
+        <v>-4.4945848375451201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41213.000000057902</v>
       </c>
       <c r="B35">
-        <v>5.5322116304610036E-2</v>
+        <f>[1]Sheet1!C35</f>
+        <v>-1.61429106337395</v>
       </c>
       <c r="C35">
-        <v>0.68031775928348504</v>
+        <f>[1]Sheet1!D35</f>
+        <v>-0.98929542039507501</v>
       </c>
       <c r="D35">
-        <v>-3.5494478348616898</v>
+        <f>[1]Sheet1!E35</f>
+        <v>-5.2190610145402498</v>
       </c>
       <c r="E35">
-        <v>-2.1867681368060099</v>
+        <f>[1]Sheet1!F35</f>
+        <v>-3.8563813164845699</v>
       </c>
       <c r="F35">
-        <v>-0.84799904584857977</v>
+        <f>[1]Sheet1!G35</f>
+        <v>-2.5176122255271398</v>
       </c>
       <c r="G35">
-        <v>1.9085618057239699</v>
+        <f>[1]Sheet1!H35</f>
+        <v>0.23894862604541001</v>
       </c>
       <c r="H35">
-        <v>0.87276933256363509</v>
+        <f>[1]Sheet1!I35</f>
+        <v>-0.79684384711492495</v>
       </c>
       <c r="I35">
-        <v>1.9615046012898389</v>
+        <f>[1]Sheet1!J35</f>
+        <v>0.29189142161127901</v>
       </c>
       <c r="J35">
+        <f>[1]Sheet1!K35</f>
         <v>-4.4690720217759496</v>
       </c>
       <c r="K35">
+        <f>[1]Sheet1!L35</f>
         <v>0.15050937079281701</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f>-[1]Sheet1!M35</f>
+        <v>2.6083952323371999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41243.000000057902</v>
       </c>
       <c r="B36">
-        <v>2.6313886389209</v>
+        <f>[1]Sheet1!C36</f>
+        <v>-2.4758483023870599</v>
       </c>
       <c r="C36">
-        <v>-5.9868993809069408</v>
+        <f>[1]Sheet1!D36</f>
+        <v>-11.094136322214901</v>
       </c>
       <c r="D36">
-        <v>-8.9773302872884404</v>
+        <f>[1]Sheet1!E36</f>
+        <v>-14.0845672285964</v>
       </c>
       <c r="E36">
-        <v>-6.3241119335566403</v>
+        <f>[1]Sheet1!F36</f>
+        <v>-11.4313488748646</v>
       </c>
       <c r="F36">
-        <v>-8.1669437974267396</v>
+        <f>[1]Sheet1!G36</f>
+        <v>-13.2741807387347</v>
       </c>
       <c r="G36">
-        <v>0.22046697706482021</v>
+        <f>[1]Sheet1!H36</f>
+        <v>-4.8867699642431397</v>
       </c>
       <c r="H36">
-        <v>-8.6092781475543401</v>
+        <f>[1]Sheet1!I36</f>
+        <v>-13.7165150888623</v>
       </c>
       <c r="I36">
-        <v>-7.1658248396718403</v>
+        <f>[1]Sheet1!J36</f>
+        <v>-12.2730617809798</v>
       </c>
       <c r="J36">
+        <f>[1]Sheet1!K36</f>
         <v>0.60475664360062398</v>
       </c>
       <c r="K36">
+        <f>[1]Sheet1!L36</f>
         <v>0.20118891312088699</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f>-[1]Sheet1!M36</f>
+        <v>5.1791415395530196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41274.000000057902</v>
       </c>
       <c r="B37">
-        <v>2.110221730128</v>
+        <f>[1]Sheet1!C37</f>
+        <v>20.023853842878601</v>
       </c>
       <c r="C37">
-        <v>-1.6091484471992032</v>
+        <f>[1]Sheet1!D37</f>
+        <v>16.304483665551398</v>
       </c>
       <c r="D37">
-        <v>13.364105096199399</v>
+        <f>[1]Sheet1!E37</f>
+        <v>31.277737208950001</v>
       </c>
       <c r="E37">
-        <v>2.2535784946440991</v>
+        <f>[1]Sheet1!F37</f>
+        <v>20.167210607394701</v>
       </c>
       <c r="F37">
-        <v>-2.5285259373905014</v>
+        <f>[1]Sheet1!G37</f>
+        <v>15.3851061753601</v>
       </c>
       <c r="G37">
-        <v>-4.1714471905598014</v>
+        <f>[1]Sheet1!H37</f>
+        <v>13.7421849221908</v>
       </c>
       <c r="H37">
-        <v>-8.1214607697124617</v>
+        <f>[1]Sheet1!I37</f>
+        <v>9.7921713430381399</v>
       </c>
       <c r="I37">
-        <v>-0.26317048503910101</v>
+        <f>[1]Sheet1!J37</f>
+        <v>17.650461627711501</v>
       </c>
       <c r="J37">
+        <f>[1]Sheet1!K37</f>
         <v>-3.32928732443211</v>
       </c>
       <c r="K37">
+        <f>[1]Sheet1!L37</f>
         <v>0.22597850566854499</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f>-[1]Sheet1!M37</f>
+        <v>-18.686868686868699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41305.000000057902</v>
       </c>
       <c r="B38">
-        <v>0.80037266863266954</v>
+        <f>[1]Sheet1!C38</f>
+        <v>7.2979199862193598</v>
       </c>
       <c r="C38">
-        <v>-0.2769518098421706</v>
+        <f>[1]Sheet1!D38</f>
+        <v>6.2205955077445196</v>
       </c>
       <c r="D38">
-        <v>4.2652108113990099</v>
+        <f>[1]Sheet1!E38</f>
+        <v>10.7627581289857</v>
       </c>
       <c r="E38">
-        <v>11.240593058859808</v>
+        <f>[1]Sheet1!F38</f>
+        <v>17.738140376446498</v>
       </c>
       <c r="F38">
-        <v>-0.72432308216342989</v>
+        <f>[1]Sheet1!G38</f>
+        <v>5.7732242354232604</v>
       </c>
       <c r="G38">
-        <v>1.7216307646051003</v>
+        <f>[1]Sheet1!H38</f>
+        <v>8.2191780821917906</v>
       </c>
       <c r="H38">
-        <v>-6.1927624627204434</v>
+        <f>[1]Sheet1!I38</f>
+        <v>0.30478485486624701</v>
       </c>
       <c r="I38">
-        <v>2.2074843201365102</v>
+        <f>[1]Sheet1!J38</f>
+        <v>8.7050316377232004</v>
       </c>
       <c r="J38">
+        <f>[1]Sheet1!K38</f>
         <v>0.68759342301942805</v>
       </c>
       <c r="K38">
+        <f>[1]Sheet1!L38</f>
         <v>0.50688975355601695</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f>-[1]Sheet1!M38</f>
+        <v>-6.3750985027580898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41333.000000057902</v>
       </c>
       <c r="B39">
-        <v>-1.3340150076693109</v>
+        <f>[1]Sheet1!C39</f>
+        <v>-1.8385031094914199</v>
       </c>
       <c r="C39">
-        <v>4.1991540412100488</v>
+        <f>[1]Sheet1!D39</f>
+        <v>3.69466593938794</v>
       </c>
       <c r="D39">
-        <v>4.0283116929690186</v>
+        <f>[1]Sheet1!E39</f>
+        <v>3.5238235911469098</v>
       </c>
       <c r="E39">
-        <v>6.1638260313539295</v>
+        <f>[1]Sheet1!F39</f>
+        <v>5.6593379295318202</v>
       </c>
       <c r="F39">
-        <v>7.2364590882884094</v>
+        <f>[1]Sheet1!G39</f>
+        <v>6.7319709864663002</v>
       </c>
       <c r="G39">
-        <v>1.453855190429687</v>
+        <f>[1]Sheet1!H39</f>
+        <v>0.94936708860757801</v>
       </c>
       <c r="H39">
-        <v>3.1950950463270189</v>
+        <f>[1]Sheet1!I39</f>
+        <v>2.6906069445049101</v>
       </c>
       <c r="I39">
-        <v>11.469623635742609</v>
+        <f>[1]Sheet1!J39</f>
+        <v>10.965135533920501</v>
       </c>
       <c r="J39">
+        <f>[1]Sheet1!K39</f>
         <v>-3.8034441805225598</v>
       </c>
       <c r="K39">
+        <f>[1]Sheet1!L39</f>
         <v>0.518388530963798</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f>-[1]Sheet1!M39</f>
+        <v>0.79265130750426305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41362.000000057902</v>
       </c>
       <c r="B40">
-        <v>-1.6843121117316704</v>
+        <f>[1]Sheet1!C40</f>
+        <v>-8.3518092043058303</v>
       </c>
       <c r="C40">
-        <v>2.2078206722880198</v>
+        <f>[1]Sheet1!D40</f>
+        <v>-4.4596764202861401</v>
       </c>
       <c r="D40">
-        <v>-8.47768282599354</v>
+        <f>[1]Sheet1!E40</f>
+        <v>-15.145179918567701</v>
       </c>
       <c r="E40">
-        <v>-0.70149585024721972</v>
+        <f>[1]Sheet1!F40</f>
+        <v>-7.3689929428213796</v>
       </c>
       <c r="F40">
-        <v>8.4781556568068392</v>
+        <f>[1]Sheet1!G40</f>
+        <v>1.81065856423268</v>
       </c>
       <c r="G40">
-        <v>-3.3638508698083394</v>
+        <f>[1]Sheet1!H40</f>
+        <v>-10.031347962382499</v>
       </c>
       <c r="H40">
-        <v>2.6437263295813302</v>
+        <f>[1]Sheet1!I40</f>
+        <v>-4.0237707629928297</v>
       </c>
       <c r="I40">
-        <v>7.2899603515641633</v>
+        <f>[1]Sheet1!J40</f>
+        <v>0.62246325899000299</v>
       </c>
       <c r="J40">
+        <f>[1]Sheet1!K40</f>
         <v>-1.16052964597673</v>
       </c>
       <c r="K40">
+        <f>[1]Sheet1!L40</f>
         <v>0.389185335979092</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>-[1]Sheet1!M40</f>
+        <v>7.2655316606929503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41390.000000057902</v>
       </c>
       <c r="B41">
-        <v>0.4003975989978199</v>
+        <f>[1]Sheet1!C41</f>
+        <v>-1.51444852034972</v>
       </c>
       <c r="C41">
-        <v>-0.3918677148727101</v>
+        <f>[1]Sheet1!D41</f>
+        <v>-2.30671383422025</v>
       </c>
       <c r="D41">
-        <v>5.0193368341945801</v>
+        <f>[1]Sheet1!E41</f>
+        <v>3.10449071484704</v>
       </c>
       <c r="E41">
-        <v>-3.8570462479325807</v>
+        <f>[1]Sheet1!F41</f>
+        <v>-5.7718923672801203</v>
       </c>
       <c r="F41">
-        <v>0.95695120802781686</v>
+        <f>[1]Sheet1!G41</f>
+        <v>-0.95789491131972304</v>
       </c>
       <c r="G41">
-        <v>2.611710230845814</v>
+        <f>[1]Sheet1!H41</f>
+        <v>0.69686411149827399</v>
       </c>
       <c r="H41">
-        <v>-1.6754379824918699</v>
+        <f>[1]Sheet1!I41</f>
+        <v>-3.5902841018394098</v>
       </c>
       <c r="I41">
-        <v>4.5608000350153999</v>
+        <f>[1]Sheet1!J41</f>
+        <v>2.6459539156678602</v>
       </c>
       <c r="J41">
+        <f>[1]Sheet1!K41</f>
         <v>-7.4102988477032197</v>
       </c>
       <c r="K41">
+        <f>[1]Sheet1!L41</f>
         <v>0.80204940110868395</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f>-[1]Sheet1!M41</f>
+        <v>1.7714791851195699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41425.000000057902</v>
       </c>
       <c r="B42">
-        <v>-2.2364173287539497</v>
+        <f>[1]Sheet1!C42</f>
+        <v>4.26542592255994</v>
       </c>
       <c r="C42">
-        <v>7.5564969065237104</v>
+        <f>[1]Sheet1!D42</f>
+        <v>14.0583401578376</v>
       </c>
       <c r="D42">
-        <v>1.3806963004329802</v>
+        <f>[1]Sheet1!E42</f>
+        <v>7.8825395517468699</v>
       </c>
       <c r="E42">
-        <v>11.947320247969611</v>
+        <f>[1]Sheet1!F42</f>
+        <v>18.4491634992835</v>
       </c>
       <c r="F42">
-        <v>13.618816951024609</v>
+        <f>[1]Sheet1!G42</f>
+        <v>20.120660202338499</v>
       </c>
       <c r="G42">
-        <v>-1.5422123401259098</v>
+        <f>[1]Sheet1!H42</f>
+        <v>4.9596309111879799</v>
       </c>
       <c r="H42">
-        <v>1.4327046622180504</v>
+        <f>[1]Sheet1!I42</f>
+        <v>7.9345479135319401</v>
       </c>
       <c r="I42">
-        <v>14.14645033714821</v>
+        <f>[1]Sheet1!J42</f>
+        <v>20.648293588462099</v>
       </c>
       <c r="J42">
+        <f>[1]Sheet1!K42</f>
         <v>-5.0590219224283297</v>
       </c>
       <c r="K42">
+        <f>[1]Sheet1!L42</f>
         <v>0.56178329280600603</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f>-[1]Sheet1!M42</f>
+        <v>-6.5661119763915003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41453.000000057902</v>
       </c>
       <c r="B43">
-        <v>-0.12523314331790125</v>
+        <f>[1]Sheet1!C43</f>
+        <v>-15.6939467764692</v>
       </c>
       <c r="C43">
-        <v>-0.18774694784150014</v>
+        <f>[1]Sheet1!D43</f>
+        <v>-15.756460580992799</v>
       </c>
       <c r="D43">
-        <v>-7.2251302293285011</v>
+        <f>[1]Sheet1!E43</f>
+        <v>-22.7938438624798</v>
       </c>
       <c r="E43">
-        <v>-1.7987964133601153E-2</v>
+        <f>[1]Sheet1!F43</f>
+        <v>-15.5867015972849</v>
       </c>
       <c r="F43">
-        <v>6.49114689528216</v>
+        <f>[1]Sheet1!G43</f>
+        <v>-9.0775667378691391</v>
       </c>
       <c r="G43">
-        <v>-0.14557208113440012</v>
+        <f>[1]Sheet1!H43</f>
+        <v>-15.714285714285699</v>
       </c>
       <c r="H43">
-        <v>4.6324667949415996</v>
+        <f>[1]Sheet1!I43</f>
+        <v>-10.9362468382097</v>
       </c>
       <c r="I43">
-        <v>9.8498241032903486</v>
+        <f>[1]Sheet1!J43</f>
+        <v>-5.7188895298609497</v>
       </c>
       <c r="J43">
+        <f>[1]Sheet1!K43</f>
         <v>-13.499111900532901</v>
       </c>
       <c r="K43">
+        <f>[1]Sheet1!L43</f>
         <v>-0.38022070987103801</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>-[1]Sheet1!M43</f>
+        <v>16.592307692307699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41486.000000057902</v>
       </c>
       <c r="B44">
-        <v>-2.7597623735323848</v>
+        <f>[1]Sheet1!C44</f>
+        <v>-3.1059345535219198</v>
       </c>
       <c r="C44">
-        <v>6.3649090193623543</v>
+        <f>[1]Sheet1!D44</f>
+        <v>6.0187368393728198</v>
       </c>
       <c r="D44">
-        <v>6.9129004708557549</v>
+        <f>[1]Sheet1!E44</f>
+        <v>6.5667282908662203</v>
       </c>
       <c r="E44">
-        <v>6.9163276964621154</v>
+        <f>[1]Sheet1!F44</f>
+        <v>6.57015551647258</v>
       </c>
       <c r="F44">
-        <v>12.384559875834535</v>
+        <f>[1]Sheet1!G44</f>
+        <v>12.038387695845</v>
       </c>
       <c r="G44">
-        <v>-1.1368786674680751</v>
+        <f>[1]Sheet1!H44</f>
+        <v>-1.4830508474576101</v>
       </c>
       <c r="H44">
-        <v>2.237991357652815</v>
+        <f>[1]Sheet1!I44</f>
+        <v>1.89181917766328</v>
       </c>
       <c r="I44">
-        <v>12.440872167534735</v>
+        <f>[1]Sheet1!J44</f>
+        <v>12.0946999875452</v>
       </c>
       <c r="J44">
+        <f>[1]Sheet1!K44</f>
         <v>9.1416837782340803</v>
       </c>
       <c r="K44">
+        <f>[1]Sheet1!L44</f>
         <v>-0.48302286853651999</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f>-[1]Sheet1!M44</f>
+        <v>0.16600571797472599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41516.000000057902</v>
       </c>
       <c r="B45">
-        <v>0.17908077109925014</v>
+        <f>[1]Sheet1!C45</f>
+        <v>5.6915222844272</v>
       </c>
       <c r="C45">
-        <v>1.2908952565787501</v>
+        <f>[1]Sheet1!D45</f>
+        <v>6.8033367699067</v>
       </c>
       <c r="D45">
-        <v>-1.3943176644258797</v>
+        <f>[1]Sheet1!E45</f>
+        <v>4.1181238489020702</v>
       </c>
       <c r="E45">
-        <v>0.52380839124336998</v>
+        <f>[1]Sheet1!F45</f>
+        <v>6.0362499045713198</v>
       </c>
       <c r="F45">
-        <v>1.3377536661297604</v>
+        <f>[1]Sheet1!G45</f>
+        <v>6.8501951794577103</v>
       </c>
       <c r="G45">
-        <v>11.85597953930365</v>
+        <f>[1]Sheet1!H45</f>
+        <v>17.3684210526316</v>
       </c>
       <c r="H45">
-        <v>-1.4345996679520097</v>
+        <f>[1]Sheet1!I45</f>
+        <v>4.0778418453759402</v>
       </c>
       <c r="I45">
-        <v>-1.0036828108416698</v>
+        <f>[1]Sheet1!J45</f>
+        <v>4.5087587024862801</v>
       </c>
       <c r="J45">
+        <f>[1]Sheet1!K45</f>
         <v>4.4551475015051301</v>
       </c>
       <c r="K45">
+        <f>[1]Sheet1!L45</f>
         <v>-0.816645435244157</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f>-[1]Sheet1!M45</f>
+        <v>-6.3371824480369403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>41547.000000057902</v>
       </c>
       <c r="B46">
-        <v>-0.75980571074356051</v>
+        <f>[1]Sheet1!C46</f>
+        <v>3.3512876334228099</v>
       </c>
       <c r="C46">
-        <v>1.5858654031331296</v>
+        <f>[1]Sheet1!D46</f>
+        <v>5.6969587472995</v>
       </c>
       <c r="D46">
-        <v>-1.3892592495308604</v>
+        <f>[1]Sheet1!E46</f>
+        <v>2.72183409463551</v>
       </c>
       <c r="E46">
-        <v>1.2195970345417999</v>
+        <f>[1]Sheet1!F46</f>
+        <v>5.3306903787081703</v>
       </c>
       <c r="F46">
-        <v>3.8296679044466799</v>
+        <f>[1]Sheet1!G46</f>
+        <v>7.9407612486130503</v>
       </c>
       <c r="G46">
-        <v>-6.8016763038076409</v>
+        <f>[1]Sheet1!H46</f>
+        <v>-2.69058295964127</v>
       </c>
       <c r="H46">
-        <v>1.5807604252772194</v>
+        <f>[1]Sheet1!I46</f>
+        <v>5.6918537694435898</v>
       </c>
       <c r="I46">
-        <v>11.310395165678429</v>
+        <f>[1]Sheet1!J46</f>
+        <v>15.421488509844799</v>
       </c>
       <c r="J46">
+        <f>[1]Sheet1!K46</f>
         <v>-4.3047550432276802</v>
       </c>
       <c r="K46">
+        <f>[1]Sheet1!L46</f>
         <v>0.172482883574054</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f>-[1]Sheet1!M46</f>
+        <v>-4.6651029450091297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41578.000000057902</v>
       </c>
       <c r="B47">
-        <v>0.73527078432923809</v>
+        <f>[1]Sheet1!C47</f>
+        <v>-0.73083372133008195</v>
       </c>
       <c r="C47">
-        <v>-2.6410061219774397</v>
+        <f>[1]Sheet1!D47</f>
+        <v>-4.1071106276367599</v>
       </c>
       <c r="D47">
-        <v>-1.7935649017803501</v>
+        <f>[1]Sheet1!E47</f>
+        <v>-3.2596694074396702</v>
       </c>
       <c r="E47">
-        <v>-1.5983057742438997</v>
+        <f>[1]Sheet1!F47</f>
+        <v>-3.0644102799032198</v>
       </c>
       <c r="F47">
-        <v>-5.0065717994979098</v>
+        <f>[1]Sheet1!G47</f>
+        <v>-6.47267630515723</v>
       </c>
       <c r="G47">
-        <v>9.3002058881478202</v>
+        <f>[1]Sheet1!H47</f>
+        <v>7.8341013824885</v>
       </c>
       <c r="H47">
-        <v>-1.9166592974141798</v>
+        <f>[1]Sheet1!I47</f>
+        <v>-3.3827638030734999</v>
       </c>
       <c r="I47">
-        <v>-8.2097372151531296</v>
+        <f>[1]Sheet1!J47</f>
+        <v>-9.6758417208124499</v>
       </c>
       <c r="J47">
+        <f>[1]Sheet1!K47</f>
         <v>-1.2798795407490999</v>
       </c>
       <c r="K47">
+        <f>[1]Sheet1!L47</f>
         <v>-0.66310031708737305</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <f>-[1]Sheet1!M47</f>
+        <v>1.18691899070385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>41607.000000057902</v>
       </c>
       <c r="B48">
-        <v>-0.88633746602204</v>
+        <f>[1]Sheet1!C48</f>
+        <v>1.86150368444318</v>
       </c>
       <c r="C48">
-        <v>3.5139980456851596</v>
+        <f>[1]Sheet1!D48</f>
+        <v>6.2618391961503796</v>
       </c>
       <c r="D48">
-        <v>2.5226096769289503</v>
+        <f>[1]Sheet1!E48</f>
+        <v>5.2704508273941704</v>
       </c>
       <c r="E48">
-        <v>21.765395445936079</v>
+        <f>[1]Sheet1!F48</f>
+        <v>24.513236596401299</v>
       </c>
       <c r="F48">
-        <v>8.0950811417806801</v>
+        <f>[1]Sheet1!G48</f>
+        <v>10.8429222922459</v>
       </c>
       <c r="G48">
-        <v>-4.4572428598669198</v>
+        <f>[1]Sheet1!H48</f>
+        <v>-1.7094017094017</v>
       </c>
       <c r="H48">
-        <v>1.47535476536296</v>
+        <f>[1]Sheet1!I48</f>
+        <v>4.22319591582818</v>
       </c>
       <c r="I48">
-        <v>7.87726254787278</v>
+        <f>[1]Sheet1!J48</f>
+        <v>10.625103698338</v>
       </c>
       <c r="J48">
+        <f>[1]Sheet1!K48</f>
         <v>-6.6882745471877998</v>
       </c>
       <c r="K48">
+        <f>[1]Sheet1!L48</f>
         <v>-1.3841352097783599</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <f>-[1]Sheet1!M48</f>
+        <v>-3.1919361612767698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>41639.000000057902</v>
       </c>
       <c r="B49">
-        <v>-0.74834329745378003</v>
+        <f>[1]Sheet1!C49</f>
+        <v>-5.2141284897337297</v>
       </c>
       <c r="C49">
-        <v>1.4937725923878498</v>
+        <f>[1]Sheet1!D49</f>
+        <v>-2.9720125998920999</v>
       </c>
       <c r="D49">
-        <v>4.8508863514720968</v>
+        <f>[1]Sheet1!E49</f>
+        <v>0.38510115919214699</v>
       </c>
       <c r="E49">
-        <v>-3.7179722474297199</v>
+        <f>[1]Sheet1!F49</f>
+        <v>-8.1837574397096695</v>
       </c>
       <c r="F49">
-        <v>-0.43908999782042013</v>
+        <f>[1]Sheet1!G49</f>
+        <v>-4.9048751901003698</v>
       </c>
       <c r="G49">
-        <v>5.9150605545987691</v>
+        <f>[1]Sheet1!H49</f>
+        <v>1.4492753623188199</v>
       </c>
       <c r="H49">
-        <v>2.4422067973399297</v>
+        <f>[1]Sheet1!I49</f>
+        <v>-2.0235783949400199</v>
       </c>
       <c r="I49">
-        <v>-9.8777878290440491E-2</v>
+        <f>[1]Sheet1!J49</f>
+        <v>-4.5645630705703901</v>
       </c>
       <c r="J49">
+        <f>[1]Sheet1!K49</f>
         <v>-3.3713375015324201</v>
       </c>
       <c r="K49">
+        <f>[1]Sheet1!L49</f>
         <v>-0.27530960114311398</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <f>-[1]Sheet1!M49</f>
+        <v>4.5584045584045603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>41669.000000057902</v>
       </c>
       <c r="B50">
-        <v>-0.71196931493776017</v>
+        <f>[1]Sheet1!C50</f>
+        <v>-6.1872730239950799</v>
       </c>
       <c r="C50">
-        <v>6.9461469576987795</v>
+        <f>[1]Sheet1!D50</f>
+        <v>1.47084324864146</v>
       </c>
       <c r="D50">
-        <v>0.35033145757570949</v>
+        <f>[1]Sheet1!E50</f>
+        <v>-5.1249722514816103</v>
       </c>
       <c r="E50">
-        <v>8.9402535314980902</v>
+        <f>[1]Sheet1!F50</f>
+        <v>3.46494982244077</v>
       </c>
       <c r="F50">
-        <v>16.164859130437918</v>
+        <f>[1]Sheet1!G50</f>
+        <v>10.6895554213806</v>
       </c>
       <c r="G50">
-        <v>-1.52469629094269</v>
+        <f>[1]Sheet1!H50</f>
+        <v>-7.0000000000000098</v>
       </c>
       <c r="H50">
-        <v>-1.1794952837561103</v>
+        <f>[1]Sheet1!I50</f>
+        <v>-6.6547989928134301</v>
       </c>
       <c r="I50">
-        <v>20.158494401796922</v>
+        <f>[1]Sheet1!J50</f>
+        <v>14.683190692739601</v>
       </c>
       <c r="J50">
+        <f>[1]Sheet1!K50</f>
         <v>4.1909836758859704</v>
       </c>
       <c r="K50">
+        <f>[1]Sheet1!L50</f>
         <v>0.88812669524893595</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <f>-[1]Sheet1!M50</f>
+        <v>6.2174840085287899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>41698.000000057902</v>
       </c>
       <c r="B51">
-        <v>0.18445860601025499</v>
+        <f>[1]Sheet1!C51</f>
+        <v>-0.88158148570578498</v>
       </c>
       <c r="C51">
-        <v>3.39559759598328</v>
+        <f>[1]Sheet1!D51</f>
+        <v>2.3295575042672398</v>
       </c>
       <c r="D51">
-        <v>-4.1879097344959098</v>
+        <f>[1]Sheet1!E51</f>
+        <v>-5.2539498262119499</v>
       </c>
       <c r="E51">
-        <v>-0.53754410335101999</v>
+        <f>[1]Sheet1!F51</f>
+        <v>-1.60358419506706</v>
       </c>
       <c r="F51">
-        <v>2.5582324413477999</v>
+        <f>[1]Sheet1!G51</f>
+        <v>1.49219234963176</v>
       </c>
       <c r="G51">
-        <v>-0.93088771166337003</v>
+        <f>[1]Sheet1!H51</f>
+        <v>-1.99692780337941</v>
       </c>
       <c r="H51">
-        <v>2.6431781112698802</v>
+        <f>[1]Sheet1!I51</f>
+        <v>1.57713801955384</v>
       </c>
       <c r="I51">
-        <v>-3.01717503577916</v>
+        <f>[1]Sheet1!J51</f>
+        <v>-4.0832151274952002</v>
       </c>
       <c r="J51">
+        <f>[1]Sheet1!K51</f>
         <v>6.6404188821691097</v>
       </c>
       <c r="K51">
+        <f>[1]Sheet1!L51</f>
         <v>1.6684786718776501</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <f>-[1]Sheet1!M51</f>
+        <v>1.1458712259003201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>41729.000000057902</v>
       </c>
       <c r="B52">
-        <v>1.5989894888346541</v>
+        <f>[1]Sheet1!C52</f>
+        <v>9.9841496502484098E-2</v>
       </c>
       <c r="C52">
-        <v>-1.9061693561416102</v>
+        <f>[1]Sheet1!D52</f>
+        <v>-3.4053173484737802</v>
       </c>
       <c r="D52">
-        <v>-3.3850392522274504</v>
+        <f>[1]Sheet1!E52</f>
+        <v>-4.8841872445596204</v>
       </c>
       <c r="E52">
-        <v>-6.3198927456251797</v>
+        <f>[1]Sheet1!F52</f>
+        <v>-7.8190407379573497</v>
       </c>
       <c r="F52">
-        <v>-7.3850754982933795</v>
+        <f>[1]Sheet1!G52</f>
+        <v>-8.8842234906255495</v>
       </c>
       <c r="G52">
-        <v>3.8502451710155698</v>
+        <f>[1]Sheet1!H52</f>
+        <v>2.3510971786833998</v>
       </c>
       <c r="H52">
-        <v>-8.684364253183996E-2</v>
+        <f>[1]Sheet1!I52</f>
+        <v>-1.58599163486401</v>
       </c>
       <c r="I52">
-        <v>-5.9643998376817597</v>
+        <f>[1]Sheet1!J52</f>
+        <v>-7.4635478300139297</v>
       </c>
       <c r="J52">
+        <f>[1]Sheet1!K52</f>
         <v>-1.8764511095040499</v>
       </c>
       <c r="K52">
+        <f>[1]Sheet1!L52</f>
         <v>8.9807221565196799E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <f>-[1]Sheet1!M52</f>
+        <v>1.4075436982520699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>41759.000000057902</v>
       </c>
       <c r="B53">
-        <v>1.4045764558842579</v>
+        <f>[1]Sheet1!C53</f>
+        <v>1.9801703253483001</v>
       </c>
       <c r="C53">
-        <v>-2.5119381714052218</v>
+        <f>[1]Sheet1!D53</f>
+        <v>-1.9363443019411799</v>
       </c>
       <c r="D53">
-        <v>3.6357142381967482</v>
+        <f>[1]Sheet1!E53</f>
+        <v>4.2113081076607903</v>
       </c>
       <c r="E53">
-        <v>-1.132403105132707</v>
+        <f>[1]Sheet1!F53</f>
+        <v>-0.55680923566866503</v>
       </c>
       <c r="F53">
-        <v>-1.9259153274856122</v>
+        <f>[1]Sheet1!G53</f>
+        <v>-1.3503214580215701</v>
       </c>
       <c r="G53">
-        <v>-3.0258235784992622</v>
+        <f>[1]Sheet1!H53</f>
+        <v>-2.4502297090352201</v>
       </c>
       <c r="H53">
-        <v>5.7820342105129985E-2</v>
+        <f>[1]Sheet1!I53</f>
+        <v>0.63341421156917199</v>
       </c>
       <c r="I53">
-        <v>-3.9338556558776521</v>
+        <f>[1]Sheet1!J53</f>
+        <v>-3.35826178641361</v>
       </c>
       <c r="J53">
+        <f>[1]Sheet1!K53</f>
         <v>0.95422808378586899</v>
       </c>
       <c r="K53">
+        <f>[1]Sheet1!L53</f>
         <v>0.90476635278251605</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <f>-[1]Sheet1!M53</f>
+        <v>-0.16795745077913199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>41789.000000057902</v>
       </c>
       <c r="B54">
-        <v>-0.74872672103191207</v>
+        <f>[1]Sheet1!C54</f>
+        <v>-0.85041021990783805</v>
       </c>
       <c r="C54">
-        <v>1.7762759893901561</v>
+        <f>[1]Sheet1!D54</f>
+        <v>1.67459249051423</v>
       </c>
       <c r="D54">
-        <v>-0.68773345025239296</v>
+        <f>[1]Sheet1!E54</f>
+        <v>-0.78941694912831895</v>
       </c>
       <c r="E54">
-        <v>7.0140328219194457</v>
+        <f>[1]Sheet1!F54</f>
+        <v>6.9123493230435198</v>
       </c>
       <c r="F54">
-        <v>5.8600362380397559</v>
+        <f>[1]Sheet1!G54</f>
+        <v>5.7583527391638301</v>
       </c>
       <c r="G54">
-        <v>-5.5302372395661006E-2</v>
+        <f>[1]Sheet1!H54</f>
+        <v>-0.156985871271587</v>
       </c>
       <c r="H54">
-        <v>-1.4063530430542939</v>
+        <f>[1]Sheet1!I54</f>
+        <v>-1.50803654193022</v>
       </c>
       <c r="I54">
-        <v>2.8228302489376658</v>
+        <f>[1]Sheet1!J54</f>
+        <v>2.7211467500617399</v>
       </c>
       <c r="J54">
+        <f>[1]Sheet1!K54</f>
         <v>-2.8663644048259398</v>
       </c>
       <c r="K54">
+        <f>[1]Sheet1!L54</f>
         <v>1.2204491106776201</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <f>-[1]Sheet1!M54</f>
+        <v>-3.7261294830003802E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>41820.000000057902</v>
       </c>
       <c r="B55">
-        <v>-0.380456247562866</v>
+        <f>[1]Sheet1!C55</f>
+        <v>2.0848851896237999E-2</v>
       </c>
       <c r="C55">
-        <v>2.0969726257697761</v>
+        <f>[1]Sheet1!D55</f>
+        <v>2.4982777252288799</v>
       </c>
       <c r="D55">
-        <v>-1.6757230730967039</v>
+        <f>[1]Sheet1!E55</f>
+        <v>-1.2744179736376</v>
       </c>
       <c r="E55">
-        <v>10.717896970174795</v>
+        <f>[1]Sheet1!F55</f>
+        <v>11.1192020696339</v>
       </c>
       <c r="F55">
-        <v>4.2061594585058462</v>
+        <f>[1]Sheet1!G55</f>
+        <v>4.60746455796495</v>
       </c>
       <c r="G55">
-        <v>-4.6131016380111936</v>
+        <f>[1]Sheet1!H55</f>
+        <v>-4.2117965385520897</v>
       </c>
       <c r="H55">
-        <v>-3.572313843713798E-2</v>
+        <f>[1]Sheet1!I55</f>
+        <v>0.365581961021966</v>
       </c>
       <c r="I55">
-        <v>6.1673335825495466</v>
+        <f>[1]Sheet1!J55</f>
+        <v>6.5686386820086504</v>
       </c>
       <c r="J55">
+        <f>[1]Sheet1!K55</f>
         <v>3.58386075949366</v>
       </c>
       <c r="K55">
+        <f>[1]Sheet1!L55</f>
         <v>0.78644387316764197</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <f>-[1]Sheet1!M55</f>
+        <v>-0.29797932768412499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>41851.000000057902</v>
       </c>
       <c r="B56">
-        <v>0.85575945530452913</v>
+        <f>[1]Sheet1!C56</f>
+        <v>9.4064712409901396</v>
       </c>
       <c r="C56">
-        <v>-8.8286090069679801E-2</v>
+        <f>[1]Sheet1!D56</f>
+        <v>8.4624256956159307</v>
       </c>
       <c r="D56">
-        <v>6.3513071011457889</v>
+        <f>[1]Sheet1!E56</f>
+        <v>14.902018886831399</v>
       </c>
       <c r="E56">
-        <v>-0.59390874668202009</v>
+        <f>[1]Sheet1!F56</f>
+        <v>7.9568030390035904</v>
       </c>
       <c r="F56">
-        <v>-8.124789959595029</v>
+        <f>[1]Sheet1!G56</f>
+        <v>0.42592182609058099</v>
       </c>
       <c r="G56">
-        <v>-1.8261998550999401</v>
+        <f>[1]Sheet1!H56</f>
+        <v>6.7245119305856704</v>
       </c>
       <c r="H56">
-        <v>5.5488694889819001E-2</v>
+        <f>[1]Sheet1!I56</f>
+        <v>8.6062004805754295</v>
       </c>
       <c r="I56">
-        <v>-12.83387343470925</v>
+        <f>[1]Sheet1!J56</f>
+        <v>-4.2831616490236399</v>
       </c>
       <c r="J56">
+        <f>[1]Sheet1!K56</f>
         <v>-1.5542656381272399</v>
       </c>
       <c r="K56">
+        <f>[1]Sheet1!L56</f>
         <v>-0.21559289702541801</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <f>-[1]Sheet1!M56</f>
+        <v>-10.054776715253899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>41880.000000057902</v>
       </c>
       <c r="B57">
-        <v>-1.9919853855941809</v>
+        <f>[1]Sheet1!C57</f>
+        <v>-2.5010373974856899</v>
       </c>
       <c r="C57">
-        <v>4.522023451000079</v>
+        <f>[1]Sheet1!D57</f>
+        <v>4.0129714391085702</v>
       </c>
       <c r="D57">
-        <v>-0.59517277376463107</v>
+        <f>[1]Sheet1!E57</f>
+        <v>-1.10422478565614</v>
       </c>
       <c r="E57">
-        <v>6.558794525008449</v>
+        <f>[1]Sheet1!F57</f>
+        <v>6.0497425131169402</v>
       </c>
       <c r="F57">
-        <v>8.0845254936940094</v>
+        <f>[1]Sheet1!G57</f>
+        <v>7.5754734818024998</v>
       </c>
       <c r="G57">
-        <v>2.5415723370947587</v>
+        <f>[1]Sheet1!H57</f>
+        <v>2.03252032520325</v>
       </c>
       <c r="H57">
-        <v>2.6991839415580987</v>
+        <f>[1]Sheet1!I57</f>
+        <v>2.19013192966659</v>
       </c>
       <c r="I57">
-        <v>6.4534465426766587</v>
+        <f>[1]Sheet1!J57</f>
+        <v>5.94439453078515</v>
       </c>
       <c r="J57">
+        <f>[1]Sheet1!K57</f>
         <v>-1.0667597657007799</v>
       </c>
       <c r="K57">
+        <f>[1]Sheet1!L57</f>
         <v>0.81146471870883197</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <f>-[1]Sheet1!M57</f>
+        <v>0.80985321410495503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>41912.000000057902</v>
       </c>
       <c r="B58">
-        <v>-2.3905820004647405</v>
+        <f>[1]Sheet1!C58</f>
+        <v>2.42922839919963</v>
       </c>
       <c r="C58">
-        <v>6.2066878402378292</v>
+        <f>[1]Sheet1!D58</f>
+        <v>11.0264982399022</v>
       </c>
       <c r="D58">
-        <v>3.5834275874668799</v>
+        <f>[1]Sheet1!E58</f>
+        <v>8.4032379871312504</v>
       </c>
       <c r="E58">
-        <v>14.97676742106043</v>
+        <f>[1]Sheet1!F58</f>
+        <v>19.796577820724799</v>
       </c>
       <c r="F58">
-        <v>4.9248149226169593</v>
+        <f>[1]Sheet1!G58</f>
+        <v>9.7446253222813297</v>
       </c>
       <c r="G58">
-        <v>3.3475202776264803</v>
+        <f>[1]Sheet1!H58</f>
+        <v>8.1673306772908507</v>
       </c>
       <c r="H58">
-        <v>1.6414960926689899</v>
+        <f>[1]Sheet1!I58</f>
+        <v>6.4613064923333603</v>
       </c>
       <c r="I58">
-        <v>3.3520066072343395</v>
+        <f>[1]Sheet1!J58</f>
+        <v>8.1718170068987099</v>
       </c>
       <c r="J58">
+        <f>[1]Sheet1!K58</f>
         <v>-5.4109159347553204</v>
       </c>
       <c r="K58">
+        <f>[1]Sheet1!L58</f>
         <v>0.95788669704233198</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <f>-[1]Sheet1!M58</f>
+        <v>-4.3204626637183203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>41943.000000057902</v>
       </c>
       <c r="B59">
-        <v>-1.8599631866450306E-2</v>
+        <f>[1]Sheet1!C59</f>
+        <v>2.3207427068149298</v>
       </c>
       <c r="C59">
-        <v>-0.90941356763250014</v>
+        <f>[1]Sheet1!D59</f>
+        <v>1.4299287710488799</v>
       </c>
       <c r="D59">
-        <v>3.6803178247820201</v>
+        <f>[1]Sheet1!E59</f>
+        <v>6.0196601634634002</v>
       </c>
       <c r="E59">
-        <v>-1.4701046094875301</v>
+        <f>[1]Sheet1!F59</f>
+        <v>0.86923772919385001</v>
       </c>
       <c r="F59">
-        <v>-2.8863130891585742</v>
+        <f>[1]Sheet1!G59</f>
+        <v>-0.54697075047719401</v>
       </c>
       <c r="G59">
-        <v>10.18367791914552</v>
+        <f>[1]Sheet1!H59</f>
+        <v>12.5230202578269</v>
       </c>
       <c r="H59">
-        <v>-4.3625986711214697</v>
+        <f>[1]Sheet1!I59</f>
+        <v>-2.0232563324400901</v>
       </c>
       <c r="I59">
-        <v>-4.1309878593404399</v>
+        <f>[1]Sheet1!J59</f>
+        <v>-1.79164552065906</v>
       </c>
       <c r="J59">
+        <f>[1]Sheet1!K59</f>
         <v>-4.4768695075443601</v>
       </c>
       <c r="K59">
+        <f>[1]Sheet1!L59</f>
         <v>1.68544088989295</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <f>-[1]Sheet1!M59</f>
+        <v>-2.85341594651883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>41971.000000057902</v>
       </c>
       <c r="B60">
-        <v>3.5367064394395005</v>
+        <f>[1]Sheet1!C60</f>
+        <v>15.5165734821871</v>
       </c>
       <c r="C60">
-        <v>-6.7887437991193096</v>
+        <f>[1]Sheet1!D60</f>
+        <v>5.1911232436282901</v>
       </c>
       <c r="D60">
-        <v>29.400499712909102</v>
+        <f>[1]Sheet1!E60</f>
+        <v>41.380366755656702</v>
       </c>
       <c r="E60">
-        <v>-13.20452032092987</v>
+        <f>[1]Sheet1!F60</f>
+        <v>-1.2246532781822701</v>
       </c>
       <c r="F60">
-        <v>-7.1253832875402399</v>
+        <f>[1]Sheet1!G60</f>
+        <v>4.8544837552073599</v>
       </c>
       <c r="G60">
-        <v>-1.5052352915200995</v>
+        <f>[1]Sheet1!H60</f>
+        <v>10.4746317512275</v>
       </c>
       <c r="H60">
-        <v>-9.0415491914917787</v>
+        <f>[1]Sheet1!I60</f>
+        <v>2.9383178512558201</v>
       </c>
       <c r="I60">
-        <v>-8.1745901154109202</v>
+        <f>[1]Sheet1!J60</f>
+        <v>3.80527692733668</v>
       </c>
       <c r="J60">
+        <f>[1]Sheet1!K60</f>
         <v>2.19579934039229</v>
       </c>
       <c r="K60">
+        <f>[1]Sheet1!L60</f>
         <v>1.7460784747596501</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <f>-[1]Sheet1!M60</f>
+        <v>-12.000634115408999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42004.000000057902</v>
       </c>
       <c r="B61">
-        <v>9.0396080353077011</v>
+        <f>[1]Sheet1!C61</f>
+        <v>34.847109337456402</v>
       </c>
       <c r="C61">
-        <v>-24.330989238987751</v>
+        <f>[1]Sheet1!D61</f>
+        <v>1.4765120631609501</v>
       </c>
       <c r="D61">
-        <v>31.845416545672897</v>
+        <f>[1]Sheet1!E61</f>
+        <v>57.652917847821598</v>
       </c>
       <c r="E61">
-        <v>-20.678710645070602</v>
+        <f>[1]Sheet1!F61</f>
+        <v>5.1287906570780999</v>
       </c>
       <c r="F61">
-        <v>-32.594246180025991</v>
+        <f>[1]Sheet1!G61</f>
+        <v>-6.7867448778772896</v>
       </c>
       <c r="G61">
-        <v>-21.807501302148722</v>
+        <f>[1]Sheet1!H61</f>
+        <v>3.99999999999998</v>
       </c>
       <c r="H61">
-        <v>-19.954255401698212</v>
+        <f>[1]Sheet1!I61</f>
+        <v>5.8532459004504904</v>
       </c>
       <c r="I61">
-        <v>-32.115356089139972</v>
+        <f>[1]Sheet1!J61</f>
+        <v>-6.3078547869912702</v>
       </c>
       <c r="J61">
+        <f>[1]Sheet1!K61</f>
         <v>2.1613588110403401</v>
       </c>
       <c r="K61">
+        <f>[1]Sheet1!L61</f>
         <v>-0.20014183279488701</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <f>-[1]Sheet1!M61</f>
+        <v>-27.1479122434536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42034.000000057902</v>
       </c>
       <c r="B62">
-        <v>-4.0143020897980701</v>
+        <f>[1]Sheet1!C62</f>
+        <v>-6.8248083431497202</v>
       </c>
       <c r="C62">
-        <v>8.634865781216579</v>
+        <f>[1]Sheet1!D62</f>
+        <v>5.8243595278649298</v>
       </c>
       <c r="D62">
-        <v>-12.09592020492445</v>
+        <f>[1]Sheet1!E62</f>
+        <v>-14.906426458276099</v>
       </c>
       <c r="E62">
-        <v>9.5496523164531801</v>
+        <f>[1]Sheet1!F62</f>
+        <v>6.7391460631015301</v>
       </c>
       <c r="F62">
-        <v>18.218409292847252</v>
+        <f>[1]Sheet1!G62</f>
+        <v>15.407903039495601</v>
       </c>
       <c r="G62">
-        <v>-4.3120008691554697</v>
+        <f>[1]Sheet1!H62</f>
+        <v>-7.1225071225071197</v>
       </c>
       <c r="H62">
-        <v>5.0828032919917003</v>
+        <f>[1]Sheet1!I62</f>
+        <v>2.2722970386400498</v>
       </c>
       <c r="I62">
-        <v>16.998650548225051</v>
+        <f>[1]Sheet1!J62</f>
+        <v>14.1881442948734</v>
       </c>
       <c r="J62">
+        <f>[1]Sheet1!K62</f>
         <v>5.2371254000581802</v>
       </c>
       <c r="K62">
+        <f>[1]Sheet1!L62</f>
         <v>1.09518696311268</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <f>-[1]Sheet1!M62</f>
+        <v>4.5641767783591201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42062.000000057902</v>
       </c>
       <c r="B63">
-        <v>-1.1538630078417502</v>
+        <f>[1]Sheet1!C63</f>
+        <v>2.8775079197465501</v>
       </c>
       <c r="C63">
-        <v>2.8167318034507201</v>
+        <f>[1]Sheet1!D63</f>
+        <v>6.8481027310390203</v>
       </c>
       <c r="D63">
-        <v>5.2028705309981689</v>
+        <f>[1]Sheet1!E63</f>
+        <v>9.2342414585864692</v>
       </c>
       <c r="E63">
-        <v>3.1331059192718893</v>
+        <f>[1]Sheet1!F63</f>
+        <v>7.1644768468601896</v>
       </c>
       <c r="F63">
-        <v>10.7900886727592</v>
+        <f>[1]Sheet1!G63</f>
+        <v>14.821459600347501</v>
       </c>
       <c r="G63">
-        <v>-1.4240089643981002</v>
+        <f>[1]Sheet1!H63</f>
+        <v>2.6073619631902001</v>
       </c>
       <c r="H63">
-        <v>0.28578257368387927</v>
+        <f>[1]Sheet1!I63</f>
+        <v>4.3171535012721796</v>
       </c>
       <c r="I63">
-        <v>10.693545470321899</v>
+        <f>[1]Sheet1!J63</f>
+        <v>14.724916397910199</v>
       </c>
       <c r="J63">
+        <f>[1]Sheet1!K63</f>
         <v>-3.3018681622496899</v>
       </c>
       <c r="K63">
+        <f>[1]Sheet1!L63</f>
         <v>0.772489767509565</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <f>-[1]Sheet1!M63</f>
+        <v>-4.6074886270850302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42094.000000057902</v>
       </c>
       <c r="B64">
-        <v>-2.0712767705478008</v>
+        <f>[1]Sheet1!C64</f>
+        <v>11.317528726922999</v>
       </c>
       <c r="C64">
-        <v>7.1254188152815008</v>
+        <f>[1]Sheet1!D64</f>
+        <v>20.514224312752301</v>
       </c>
       <c r="D64">
-        <v>-0.96167560630989968</v>
+        <f>[1]Sheet1!E64</f>
+        <v>12.4271298911609</v>
       </c>
       <c r="E64">
-        <v>2.0571714140469002</v>
+        <f>[1]Sheet1!F64</f>
+        <v>15.4459769115177</v>
       </c>
       <c r="F64">
-        <v>10.052119362950998</v>
+        <f>[1]Sheet1!G64</f>
+        <v>23.440924860421799</v>
       </c>
       <c r="G64">
-        <v>8.5842886729327983</v>
+        <f>[1]Sheet1!H64</f>
+        <v>21.973094170403598</v>
       </c>
       <c r="H64">
-        <v>2.1385078738443006</v>
+        <f>[1]Sheet1!I64</f>
+        <v>15.527313371315101</v>
       </c>
       <c r="I64">
-        <v>7.7272582438130986</v>
+        <f>[1]Sheet1!J64</f>
+        <v>21.116063741283899</v>
       </c>
       <c r="J64">
+        <f>[1]Sheet1!K64</f>
         <v>-3.79038516521668</v>
       </c>
       <c r="K64">
+        <f>[1]Sheet1!L64</f>
         <v>-0.91797212851610899</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <f>-[1]Sheet1!M64</f>
+        <v>-12.5055753791258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42124.000000057902</v>
       </c>
       <c r="B65">
-        <v>0.7534858491255001</v>
+        <f>[1]Sheet1!C65</f>
+        <v>17.999766214172499</v>
       </c>
       <c r="C65">
-        <v>-0.47319948822509872</v>
+        <f>[1]Sheet1!D65</f>
+        <v>16.773080876821901</v>
       </c>
       <c r="D65">
-        <v>-7.7983382473381688</v>
+        <f>[1]Sheet1!E65</f>
+        <v>9.4479421177088305</v>
       </c>
       <c r="E65">
-        <v>0.90858237483920234</v>
+        <f>[1]Sheet1!F65</f>
+        <v>18.154862739886202</v>
       </c>
       <c r="F65">
-        <v>-0.30860928942160015</v>
+        <f>[1]Sheet1!G65</f>
+        <v>16.937671075625399</v>
       </c>
       <c r="G65">
-        <v>5.0576412035805021</v>
+        <f>[1]Sheet1!H65</f>
+        <v>22.303921568627501</v>
       </c>
       <c r="H65">
-        <v>-1.4581000588156989</v>
+        <f>[1]Sheet1!I65</f>
+        <v>15.7881803062313</v>
       </c>
       <c r="I65">
-        <v>5.1383330101619009</v>
+        <f>[1]Sheet1!J65</f>
+        <v>22.3846133752089</v>
       </c>
       <c r="J65">
+        <f>[1]Sheet1!K65</f>
         <v>1.85947781787306</v>
       </c>
       <c r="K65">
+        <f>[1]Sheet1!L65</f>
         <v>1.35423569407864</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <f>-[1]Sheet1!M65</f>
+        <v>-18.137667872540799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42153.000000057902</v>
       </c>
       <c r="B66">
-        <v>-6.1957130470775299</v>
+        <f>[1]Sheet1!C66</f>
+        <v>-4.2810776221431297</v>
       </c>
       <c r="C66">
-        <v>15.7622217571551</v>
+        <f>[1]Sheet1!D66</f>
+        <v>17.676857182089499</v>
       </c>
       <c r="D66">
-        <v>-7.8933316362833006</v>
+        <f>[1]Sheet1!E66</f>
+        <v>-5.9786962113489004</v>
       </c>
       <c r="E66">
-        <v>32.3815438967614</v>
+        <f>[1]Sheet1!F66</f>
+        <v>34.296179321695803</v>
       </c>
       <c r="F66">
-        <v>26.2928510203092</v>
+        <f>[1]Sheet1!G66</f>
+        <v>28.2074864452436</v>
       </c>
       <c r="G66">
-        <v>2.7947834127409497</v>
+        <f>[1]Sheet1!H66</f>
+        <v>4.7094188376753499</v>
       </c>
       <c r="H66">
-        <v>11.7651684102676</v>
+        <f>[1]Sheet1!I66</f>
+        <v>13.679803835202</v>
       </c>
       <c r="I66">
-        <v>22.0524871725064</v>
+        <f>[1]Sheet1!J66</f>
+        <v>23.967122597440799</v>
       </c>
       <c r="J66">
+        <f>[1]Sheet1!K66</f>
         <v>-0.97528445796690699</v>
       </c>
       <c r="K66">
+        <f>[1]Sheet1!L66</f>
         <v>0.41457296515057301</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <f>-[1]Sheet1!M66</f>
+        <v>-2.7098452116280001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42185.000000057902</v>
       </c>
       <c r="B67">
-        <v>-0.15727459221919915</v>
+        <f>[1]Sheet1!C67</f>
+        <v>-7.7557954240849796</v>
       </c>
       <c r="C67">
-        <v>-3.0450158138832197</v>
+        <f>[1]Sheet1!D67</f>
+        <v>-10.643536645749</v>
       </c>
       <c r="D67">
-        <v>-6.6345961173033192</v>
+        <f>[1]Sheet1!E67</f>
+        <v>-14.2331169491691</v>
       </c>
       <c r="E67">
-        <v>-7.9354982614417189</v>
+        <f>[1]Sheet1!F67</f>
+        <v>-15.534019093307499</v>
       </c>
       <c r="F67">
-        <v>-11.374325289028519</v>
+        <f>[1]Sheet1!G67</f>
+        <v>-18.9728461208943</v>
       </c>
       <c r="G67">
-        <v>5.7803390136839505</v>
+        <f>[1]Sheet1!H67</f>
+        <v>-1.8181818181818299</v>
       </c>
       <c r="H67">
-        <v>1.6597188437916301</v>
+        <f>[1]Sheet1!I67</f>
+        <v>-5.9388019880741503</v>
       </c>
       <c r="I67">
-        <v>-11.714720168866918</v>
+        <f>[1]Sheet1!J67</f>
+        <v>-19.313241000732699</v>
       </c>
       <c r="J67">
+        <f>[1]Sheet1!K67</f>
         <v>-1.11536680836736</v>
       </c>
       <c r="K67">
+        <f>[1]Sheet1!L67</f>
         <v>0.42878556663761302</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <f>-[1]Sheet1!M67</f>
+        <v>10.5288952419849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42216.000000057902</v>
       </c>
       <c r="B68">
-        <v>0.42918798657579948</v>
+        <f>[1]Sheet1!C68</f>
+        <v>-14.243261200519701</v>
       </c>
       <c r="C68">
-        <v>1.4346687472982005</v>
+        <f>[1]Sheet1!D68</f>
+        <v>-13.2377804397973</v>
       </c>
       <c r="D68">
-        <v>-6.9408166777594982</v>
+        <f>[1]Sheet1!E68</f>
+        <v>-21.613265864854998</v>
       </c>
       <c r="E68">
-        <v>7.4712727285564604</v>
+        <f>[1]Sheet1!F68</f>
+        <v>-7.2011764585390399</v>
       </c>
       <c r="F68">
-        <v>-1.777055491458098</v>
+        <f>[1]Sheet1!G68</f>
+        <v>-16.449504678553598</v>
       </c>
       <c r="G68">
-        <v>1.4987382876536994</v>
+        <f>[1]Sheet1!H68</f>
+        <v>-13.173710899441801</v>
       </c>
       <c r="H68">
-        <v>2.1836470246662003</v>
+        <f>[1]Sheet1!I68</f>
+        <v>-12.4888021624293</v>
       </c>
       <c r="I68">
-        <v>3.5214895935034001</v>
+        <f>[1]Sheet1!J68</f>
+        <v>-11.1509595935921</v>
       </c>
       <c r="J68">
+        <f>[1]Sheet1!K68</f>
         <v>-7.6913254447944199</v>
       </c>
       <c r="K68">
+        <f>[1]Sheet1!L68</f>
         <v>1.21627644438567</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <f>-[1]Sheet1!M68</f>
+        <v>15.702743415346699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42247.000000057902</v>
       </c>
       <c r="B69">
-        <v>1.6048564254054991</v>
+        <f>[1]Sheet1!C69</f>
+        <v>-10.189716964224701</v>
       </c>
       <c r="C69">
-        <v>-3.0331616270271002</v>
+        <f>[1]Sheet1!D69</f>
+        <v>-14.8277350166573</v>
       </c>
       <c r="D69">
-        <v>-13.849230167566899</v>
+        <f>[1]Sheet1!E69</f>
+        <v>-25.643803557197099</v>
       </c>
       <c r="E69">
-        <v>-5.5785794965006001</v>
+        <f>[1]Sheet1!F69</f>
+        <v>-17.3731528861308</v>
       </c>
       <c r="F69">
-        <v>-8.1987761143333007</v>
+        <f>[1]Sheet1!G69</f>
+        <v>-19.993349503963501</v>
       </c>
       <c r="G69">
-        <v>-5.4935622035901002</v>
+        <f>[1]Sheet1!H69</f>
+        <v>-17.2881355932203</v>
       </c>
       <c r="H69">
-        <v>0.7905761889476004</v>
+        <f>[1]Sheet1!I69</f>
+        <v>-11.003997200682599</v>
       </c>
       <c r="I69">
-        <v>-9.5838656011109986</v>
+        <f>[1]Sheet1!J69</f>
+        <v>-21.378438990741198</v>
       </c>
       <c r="J69">
+        <f>[1]Sheet1!K69</f>
         <v>7.7834647484668302</v>
       </c>
       <c r="K69">
+        <f>[1]Sheet1!L69</f>
         <v>0.78407059841105697</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <f>-[1]Sheet1!M69</f>
+        <v>16.873341636432599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42277.000000057902</v>
       </c>
       <c r="B70">
-        <v>1.9490374538087201</v>
+        <f>[1]Sheet1!C70</f>
+        <v>-2.9102126733026399</v>
       </c>
       <c r="C70">
-        <v>-2.0935466910674903</v>
+        <f>[1]Sheet1!D70</f>
+        <v>-6.9527968181788502</v>
       </c>
       <c r="D70">
-        <v>1.2295012004179497</v>
+        <f>[1]Sheet1!E70</f>
+        <v>-3.6297489266934102</v>
       </c>
       <c r="E70">
-        <v>-5.9464194594800395</v>
+        <f>[1]Sheet1!F70</f>
+        <v>-10.805669586591399</v>
       </c>
       <c r="F70">
-        <v>3.8530982914305101</v>
+        <f>[1]Sheet1!G70</f>
+        <v>-1.0061518356808501</v>
       </c>
       <c r="G70">
-        <v>1.99039766809496</v>
+        <f>[1]Sheet1!H70</f>
+        <v>-2.8688524590164</v>
       </c>
       <c r="H70">
-        <v>-1.5523766956712999</v>
+        <f>[1]Sheet1!I70</f>
+        <v>-6.4116268227826598</v>
       </c>
       <c r="I70">
-        <v>9.1563858874156203</v>
+        <f>[1]Sheet1!J70</f>
+        <v>4.2971357603042604</v>
       </c>
       <c r="J70">
+        <f>[1]Sheet1!K70</f>
         <v>-1.3903743315507999</v>
       </c>
       <c r="K70">
+        <f>[1]Sheet1!L70</f>
         <v>0.54583383845718803</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <f>-[1]Sheet1!M70</f>
+        <v>-1.6676438017067401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42307.000000057902</v>
       </c>
       <c r="B71">
-        <v>-2.5635576843756791</v>
+        <f>[1]Sheet1!C71</f>
+        <v>7.7747728689662203</v>
       </c>
       <c r="C71">
-        <v>5.3586973711866008</v>
+        <f>[1]Sheet1!D71</f>
+        <v>15.6970279245285</v>
       </c>
       <c r="D71">
-        <v>9.0879881236787998</v>
+        <f>[1]Sheet1!E71</f>
+        <v>19.426318677020699</v>
       </c>
       <c r="E71">
-        <v>9.4442567965666999</v>
+        <f>[1]Sheet1!F71</f>
+        <v>19.782587349908599</v>
       </c>
       <c r="F71">
-        <v>11.949303254939702</v>
+        <f>[1]Sheet1!G71</f>
+        <v>22.287633808281601</v>
       </c>
       <c r="G71">
-        <v>2.6011912469394005</v>
+        <f>[1]Sheet1!H71</f>
+        <v>12.9395218002813</v>
       </c>
       <c r="H71">
-        <v>0.71724919036519985</v>
+        <f>[1]Sheet1!I71</f>
+        <v>11.055579743707099</v>
       </c>
       <c r="I71">
-        <v>8.6566821058705994</v>
+        <f>[1]Sheet1!J71</f>
+        <v>18.995012659212499</v>
       </c>
       <c r="J71">
+        <f>[1]Sheet1!K71</f>
         <v>1.47939262472885</v>
       </c>
       <c r="K71">
+        <f>[1]Sheet1!L71</f>
         <v>1.1509813155794699</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <f>-[1]Sheet1!M71</f>
+        <v>-10.1813288908823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42338.000000057902</v>
       </c>
       <c r="B72">
-        <v>9.3171341128007068E-2</v>
+        <f>[1]Sheet1!C72</f>
+        <v>1.0080745402304201</v>
       </c>
       <c r="C72">
-        <v>3.6500868094658769</v>
+        <f>[1]Sheet1!D72</f>
+        <v>4.56499000856829</v>
       </c>
       <c r="D72">
-        <v>10.428018001922986</v>
+        <f>[1]Sheet1!E72</f>
+        <v>11.342921201025399</v>
       </c>
       <c r="E72">
-        <v>0.57918065306134703</v>
+        <f>[1]Sheet1!F72</f>
+        <v>1.4940838521637601</v>
       </c>
       <c r="F72">
-        <v>7.566885925726897</v>
+        <f>[1]Sheet1!G72</f>
+        <v>8.4817891248293105</v>
       </c>
       <c r="G72">
-        <v>-1.039436200347744</v>
+        <f>[1]Sheet1!H72</f>
+        <v>-0.124533001245331</v>
       </c>
       <c r="H72">
-        <v>1.6955310797754071</v>
+        <f>[1]Sheet1!I72</f>
+        <v>2.6104342788778201</v>
       </c>
       <c r="I72">
-        <v>6.9253826123706368</v>
+        <f>[1]Sheet1!J72</f>
+        <v>7.8402858114730503</v>
       </c>
       <c r="J72">
+        <f>[1]Sheet1!K72</f>
         <v>-6.7932110640844696</v>
       </c>
       <c r="K72">
+        <f>[1]Sheet1!L72</f>
         <v>-1.0267691704890501E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <f>-[1]Sheet1!M72</f>
+        <v>-1.3549662712258801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42369.000000057902</v>
       </c>
       <c r="B73">
-        <v>-0.99777777916201016</v>
+        <f>[1]Sheet1!C73</f>
+        <v>3.6172944774885099</v>
       </c>
       <c r="C73">
-        <v>-1.7900326543008198</v>
+        <f>[1]Sheet1!D73</f>
+        <v>2.8250396023497002</v>
       </c>
       <c r="D73">
-        <v>0.31786953614436975</v>
+        <f>[1]Sheet1!E73</f>
+        <v>4.9329417927948898</v>
       </c>
       <c r="E73">
-        <v>-6.2114130713025997</v>
+        <f>[1]Sheet1!F73</f>
+        <v>-1.5963408146520801</v>
       </c>
       <c r="F73">
-        <v>-0.82389323290137018</v>
+        <f>[1]Sheet1!G73</f>
+        <v>3.7911790237491498</v>
       </c>
       <c r="G73">
-        <v>-1.6059224858997467E-3</v>
+        <f>[1]Sheet1!H73</f>
+        <v>4.6134663341646203</v>
       </c>
       <c r="H73">
-        <v>1.3216017695484998</v>
+        <f>[1]Sheet1!I73</f>
+        <v>5.9366740261990198</v>
       </c>
       <c r="I73">
-        <v>-3.0635009478670003</v>
+        <f>[1]Sheet1!J73</f>
+        <v>1.5515713087835199</v>
       </c>
       <c r="J73">
+        <f>[1]Sheet1!K73</f>
         <v>2.2199798183652799</v>
       </c>
       <c r="K73">
+        <f>[1]Sheet1!L73</f>
         <v>1.5953146190354399</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <f>-[1]Sheet1!M73</f>
+        <v>-4.9457800218027304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42398.000000057902</v>
       </c>
       <c r="B74">
-        <v>2.5397882484913019</v>
+        <f>[1]Sheet1!C74</f>
+        <v>-18.497829313341299</v>
       </c>
       <c r="C74">
-        <v>-7.1673091554434976</v>
+        <f>[1]Sheet1!D74</f>
+        <v>-28.204926717276098</v>
       </c>
       <c r="D74">
-        <v>-5.6222762330911991</v>
+        <f>[1]Sheet1!E74</f>
+        <v>-26.6598937949238</v>
       </c>
       <c r="E74">
-        <v>-4.2061963361854993</v>
+        <f>[1]Sheet1!F74</f>
+        <v>-25.2438138980181</v>
       </c>
       <c r="F74">
-        <v>-7.8526927170820002</v>
+        <f>[1]Sheet1!G74</f>
+        <v>-28.890310278914601</v>
       </c>
       <c r="G74">
-        <v>-2.3235266574760978</v>
+        <f>[1]Sheet1!H74</f>
+        <v>-23.361144219308699</v>
       </c>
       <c r="H74">
-        <v>-1.4714782196146992</v>
+        <f>[1]Sheet1!I74</f>
+        <v>-22.5090957814473</v>
       </c>
       <c r="I74">
-        <v>-5.4903952072856974</v>
+        <f>[1]Sheet1!J74</f>
+        <v>-26.528012769118298</v>
       </c>
       <c r="J74">
+        <f>[1]Sheet1!K74</f>
         <v>6.1114601094857601</v>
       </c>
       <c r="K74">
+        <f>[1]Sheet1!L74</f>
         <v>0.22288779397427999</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <f>-[1]Sheet1!M74</f>
+        <v>20.622163905746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>42429.000000057902</v>
       </c>
       <c r="B75">
-        <v>0.89018138822355009</v>
+        <f>[1]Sheet1!C75</f>
+        <v>-1.4391295066024099</v>
       </c>
       <c r="C75">
-        <v>0.1590973539186602</v>
+        <f>[1]Sheet1!D75</f>
+        <v>-2.1702135409072998</v>
       </c>
       <c r="D75">
-        <v>-3.5032429416775002</v>
+        <f>[1]Sheet1!E75</f>
+        <v>-5.8325538365034602</v>
       </c>
       <c r="E75">
-        <v>-3.6266111377642303</v>
+        <f>[1]Sheet1!F75</f>
+        <v>-5.9559220325901903</v>
       </c>
       <c r="F75">
-        <v>-2.0068063221833898</v>
+        <f>[1]Sheet1!G75</f>
+        <v>-4.3361172170093498</v>
       </c>
       <c r="G75">
-        <v>-0.6255880165270602</v>
+        <f>[1]Sheet1!H75</f>
+        <v>-2.9548989113530202</v>
       </c>
       <c r="H75">
-        <v>1.483998002235527</v>
+        <f>[1]Sheet1!I75</f>
+        <v>-0.84531289259043296</v>
       </c>
       <c r="I75">
-        <v>-3.3835921449445601</v>
+        <f>[1]Sheet1!J75</f>
+        <v>-5.7129030397705201</v>
       </c>
       <c r="J75">
+        <f>[1]Sheet1!K75</f>
         <v>9.4638024357239594</v>
       </c>
       <c r="K75">
+        <f>[1]Sheet1!L75</f>
         <v>0.33552982007509802</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <f>-[1]Sheet1!M75</f>
+        <v>3.9534403195812402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>42460.000000057902</v>
       </c>
       <c r="B76">
-        <v>-0.93922347765530034</v>
+        <f>[1]Sheet1!C76</f>
+        <v>10.8983179207401</v>
       </c>
       <c r="C76">
-        <v>3.2150720000286999</v>
+        <f>[1]Sheet1!D76</f>
+        <v>15.0526133984241</v>
       </c>
       <c r="D76">
-        <v>12.103342882648901</v>
+        <f>[1]Sheet1!E76</f>
+        <v>23.940884281044301</v>
       </c>
       <c r="E76">
-        <v>2.3950833137591001</v>
+        <f>[1]Sheet1!F76</f>
+        <v>14.2326247121545</v>
       </c>
       <c r="F76">
-        <v>5.8782974722093986</v>
+        <f>[1]Sheet1!G76</f>
+        <v>17.715838870604799</v>
       </c>
       <c r="G76">
-        <v>4.3483560375019987</v>
+        <f>[1]Sheet1!H76</f>
+        <v>16.185897435897399</v>
       </c>
       <c r="H76">
-        <v>3.0182780466665005</v>
+        <f>[1]Sheet1!I76</f>
+        <v>14.855819445061901</v>
       </c>
       <c r="I76">
-        <v>7.2109793015927988</v>
+        <f>[1]Sheet1!J76</f>
+        <v>19.048520699988199</v>
       </c>
       <c r="J76">
+        <f>[1]Sheet1!K76</f>
         <v>-1.2207370779572</v>
       </c>
       <c r="K76">
+        <f>[1]Sheet1!L76</f>
         <v>0.69313508017931902</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <f>-[1]Sheet1!M76</f>
+        <v>-14.413768375761901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>42489.000000057902</v>
       </c>
       <c r="B77">
-        <v>0.930908438665212</v>
+        <f>[1]Sheet1!C77</f>
+        <v>-0.97527939417800802</v>
       </c>
       <c r="C77">
-        <v>-0.85899976915993981</v>
+        <f>[1]Sheet1!D77</f>
+        <v>-2.7651876020031598</v>
       </c>
       <c r="D77">
-        <v>-3.3452346914064401</v>
+        <f>[1]Sheet1!E77</f>
+        <v>-5.2514225242496604</v>
       </c>
       <c r="E77">
-        <v>-4.7547954956575795</v>
+        <f>[1]Sheet1!F77</f>
+        <v>-6.6609833285007998</v>
       </c>
       <c r="F77">
-        <v>-2.3760668373514298</v>
+        <f>[1]Sheet1!G77</f>
+        <v>-4.28225467019465</v>
       </c>
       <c r="G77">
-        <v>-1.4041569947430002</v>
+        <f>[1]Sheet1!H77</f>
+        <v>-3.3103448275862202</v>
       </c>
       <c r="H77">
-        <v>1.516382227098156</v>
+        <f>[1]Sheet1!I77</f>
+        <v>-0.38980560574506401</v>
       </c>
       <c r="I77">
-        <v>-2.5413224495782494</v>
+        <f>[1]Sheet1!J77</f>
+        <v>-4.4475102824214696</v>
       </c>
       <c r="J77">
+        <f>[1]Sheet1!K77</f>
         <v>4.1533046538912801</v>
       </c>
       <c r="K77">
+        <f>[1]Sheet1!L77</f>
         <v>-0.74401116619119401</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <f>-[1]Sheet1!M77</f>
+        <v>1.9743027264180499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>42521.000000057902</v>
       </c>
       <c r="B78">
-        <v>0.53748198902379207</v>
+        <f>[1]Sheet1!C78</f>
+        <v>0.94342860790031002</v>
       </c>
       <c r="C78">
-        <v>-1.0453418067225331</v>
+        <f>[1]Sheet1!D78</f>
+        <v>-0.63939518784601501</v>
       </c>
       <c r="D78">
-        <v>2.205822172682482</v>
+        <f>[1]Sheet1!E78</f>
+        <v>2.6117687915590002</v>
       </c>
       <c r="E78">
-        <v>-1.296389512858142</v>
+        <f>[1]Sheet1!F78</f>
+        <v>-0.89044289398162402</v>
       </c>
       <c r="F78">
-        <v>2.6542300998278319</v>
+        <f>[1]Sheet1!G78</f>
+        <v>3.06017671870435</v>
       </c>
       <c r="G78">
-        <v>-3.544320370659678</v>
+        <f>[1]Sheet1!H78</f>
+        <v>-3.1383737517831598</v>
       </c>
       <c r="H78">
-        <v>0.89153407127265205</v>
+        <f>[1]Sheet1!I78</f>
+        <v>1.29748069014917</v>
       </c>
       <c r="I78">
-        <v>0.57883973644143905</v>
+        <f>[1]Sheet1!J78</f>
+        <v>0.984786355317957</v>
       </c>
       <c r="J78">
+        <f>[1]Sheet1!K78</f>
         <v>-3.5370982276960099</v>
       </c>
       <c r="K78">
+        <f>[1]Sheet1!L78</f>
         <v>0.39453226598851199</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <f>-[1]Sheet1!M78</f>
+        <v>-0.98465473145780602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>42551.000000057902</v>
       </c>
       <c r="B79">
-        <v>-1.038503701257824</v>
+        <f>[1]Sheet1!C79</f>
+        <v>-1.5319097572028799</v>
       </c>
       <c r="C79">
-        <v>3.455604641311806</v>
+        <f>[1]Sheet1!D79</f>
+        <v>2.9621985853667501</v>
       </c>
       <c r="D79">
-        <v>0.48472505830164941</v>
+        <f>[1]Sheet1!E79</f>
+        <v>-8.6809976434065704E-3</v>
       </c>
       <c r="E79">
-        <v>8.2479399396262263</v>
+        <f>[1]Sheet1!F79</f>
+        <v>7.7545338836811704</v>
       </c>
       <c r="F79">
-        <v>6.2853331581912162</v>
+        <f>[1]Sheet1!G79</f>
+        <v>5.7919271022461603</v>
       </c>
       <c r="G79">
-        <v>0.34788857818496299</v>
+        <f>[1]Sheet1!H79</f>
+        <v>-0.14551747776009299</v>
       </c>
       <c r="H79">
-        <v>4.5283954563900961</v>
+        <f>[1]Sheet1!I79</f>
+        <v>4.0349894004450402</v>
       </c>
       <c r="I79">
-        <v>3.6413827204510261</v>
+        <f>[1]Sheet1!J79</f>
+        <v>3.1479766645059701</v>
       </c>
       <c r="J79">
+        <f>[1]Sheet1!K79</f>
         <v>9.5757103931490803</v>
       </c>
       <c r="K79">
+        <f>[1]Sheet1!L79</f>
         <v>0.71872035077054097</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <f>-[1]Sheet1!M79</f>
+        <v>1.5069013549449299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>42580.000000057902</v>
       </c>
       <c r="B80">
-        <v>-4.9529359222999947E-2</v>
+        <f>[1]Sheet1!C80</f>
+        <v>1.5360969135974201</v>
       </c>
       <c r="C80">
-        <v>-0.28900703392478011</v>
+        <f>[1]Sheet1!D80</f>
+        <v>1.2966192388956399</v>
       </c>
       <c r="D80">
-        <v>-3.7890547542894999</v>
+        <f>[1]Sheet1!E80</f>
+        <v>-2.2034284814690799</v>
       </c>
       <c r="E80">
-        <v>-2.6571364550279699</v>
+        <f>[1]Sheet1!F80</f>
+        <v>-1.0715101822075499</v>
       </c>
       <c r="F80">
-        <v>-6.0199707854875903</v>
+        <f>[1]Sheet1!G80</f>
+        <v>-4.4343445126671703</v>
       </c>
       <c r="G80">
-        <v>2.8654123028472496</v>
+        <f>[1]Sheet1!H80</f>
+        <v>4.4510385756676696</v>
       </c>
       <c r="H80">
-        <v>3.0435096658892897</v>
+        <f>[1]Sheet1!I80</f>
+        <v>4.6291359387097097</v>
       </c>
       <c r="I80">
-        <v>-6.3157848604790496</v>
+        <f>[1]Sheet1!J80</f>
+        <v>-4.7301585876586296</v>
       </c>
       <c r="J80">
+        <f>[1]Sheet1!K80</f>
         <v>1.5381882770870301</v>
       </c>
       <c r="K80">
+        <f>[1]Sheet1!L80</f>
         <v>0.97750162907412896</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <f>-[1]Sheet1!M80</f>
+        <v>-2.2692208794034601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>42613.000000057902</v>
       </c>
       <c r="B81">
-        <v>-0.27134621607665999</v>
+        <f>[1]Sheet1!C81</f>
+        <v>3.5946366404797598</v>
       </c>
       <c r="C81">
-        <v>-0.13678704253270979</v>
+        <f>[1]Sheet1!D81</f>
+        <v>3.72919581402371</v>
       </c>
       <c r="D81">
-        <v>1.5038715311071305</v>
+        <f>[1]Sheet1!E81</f>
+        <v>5.3698543876635503</v>
       </c>
       <c r="E81">
-        <v>-1.66142120398117</v>
+        <f>[1]Sheet1!F81</f>
+        <v>2.2045616525752498</v>
       </c>
       <c r="F81">
-        <v>-0.80912664670584977</v>
+        <f>[1]Sheet1!G81</f>
+        <v>3.05685620985057</v>
       </c>
       <c r="G81">
-        <v>6.7874262343526812</v>
+        <f>[1]Sheet1!H81</f>
+        <v>10.653409090909101</v>
       </c>
       <c r="H81">
-        <v>-4.087729101569419</v>
+        <f>[1]Sheet1!I81</f>
+        <v>-0.221746245012999</v>
       </c>
       <c r="I81">
-        <v>-0.5986624682435</v>
+        <f>[1]Sheet1!J81</f>
+        <v>3.2673203883129198</v>
       </c>
       <c r="J81">
+        <f>[1]Sheet1!K81</f>
         <v>-0.92362593149773997</v>
       </c>
       <c r="K81">
+        <f>[1]Sheet1!L81</f>
         <v>0.67317233879837801</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <f>-[1]Sheet1!M81</f>
+        <v>-4.0480231315607398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>42643.000000057902</v>
       </c>
       <c r="B82">
-        <v>-0.24047387983157975</v>
+        <f>[1]Sheet1!C82</f>
+        <v>-2.4794647692310399</v>
       </c>
       <c r="C82">
-        <v>0.58960899089361019</v>
+        <f>[1]Sheet1!D82</f>
+        <v>-1.6493818985058499</v>
       </c>
       <c r="D82">
-        <v>-2.1185055749298503</v>
+        <f>[1]Sheet1!E82</f>
+        <v>-4.3574964643293104</v>
       </c>
       <c r="E82">
-        <v>-2.4028104270407296</v>
+        <f>[1]Sheet1!F82</f>
+        <v>-4.6418013164401897</v>
       </c>
       <c r="F82">
-        <v>-0.56201926771447974</v>
+        <f>[1]Sheet1!G82</f>
+        <v>-2.8010101571139399</v>
       </c>
       <c r="G82">
-        <v>5.06312439389239</v>
+        <f>[1]Sheet1!H82</f>
+        <v>2.8241335044929299</v>
       </c>
       <c r="H82">
-        <v>-0.33775946251692979</v>
+        <f>[1]Sheet1!I82</f>
+        <v>-2.5767503519163899</v>
       </c>
       <c r="I82">
-        <v>0.32924537917434016</v>
+        <f>[1]Sheet1!J82</f>
+        <v>-1.90974551022512</v>
       </c>
       <c r="J82">
+        <f>[1]Sheet1!K82</f>
         <v>0.62149087185281404</v>
       </c>
       <c r="K82">
+        <f>[1]Sheet1!L82</f>
         <v>0.53293508459317795</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <f>-[1]Sheet1!M82</f>
+        <v>1.9513079200145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>42674.000000057902</v>
       </c>
       <c r="B83">
-        <v>0.80701219163018001</v>
+        <f>[1]Sheet1!C83</f>
+        <v>3.3580645925758201</v>
       </c>
       <c r="C83">
-        <v>-0.58963455918952001</v>
+        <f>[1]Sheet1!D83</f>
+        <v>1.9614178417561201</v>
       </c>
       <c r="D83">
-        <v>1.7659607840554394</v>
+        <f>[1]Sheet1!E83</f>
+        <v>4.3170131850010796</v>
       </c>
       <c r="E83">
-        <v>-0.12171431598113003</v>
+        <f>[1]Sheet1!F83</f>
+        <v>2.4293380849645101</v>
       </c>
       <c r="F83">
-        <v>-0.74824137094342014</v>
+        <f>[1]Sheet1!G83</f>
+        <v>1.80281103000222</v>
       </c>
       <c r="G83">
-        <v>0.94457806097697006</v>
+        <f>[1]Sheet1!H83</f>
+        <v>3.4956304619226102</v>
       </c>
       <c r="H83">
-        <v>2.1018323423501495</v>
+        <f>[1]Sheet1!I83</f>
+        <v>4.6528847432957896</v>
       </c>
       <c r="I83">
-        <v>-2.092473145435723</v>
+        <f>[1]Sheet1!J83</f>
+        <v>0.45857925550991702</v>
       </c>
       <c r="J83">
+        <f>[1]Sheet1!K83</f>
         <v>-2.11265134234075</v>
       </c>
       <c r="K83">
+        <f>[1]Sheet1!L83</f>
         <v>0.52485246913891404</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <f>-[1]Sheet1!M83</f>
+        <v>-2.1996303142329099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>42704.000000057902</v>
       </c>
       <c r="B84">
-        <v>1.4607147348669303</v>
+        <f>[1]Sheet1!C84</f>
+        <v>7.5070697476299602</v>
       </c>
       <c r="C84">
-        <v>-3.9792820746989599</v>
+        <f>[1]Sheet1!D84</f>
+        <v>2.06707293806407</v>
       </c>
       <c r="D84">
-        <v>-5.7865681494497778E-3</v>
+        <f>[1]Sheet1!E84</f>
+        <v>6.0405684446135801</v>
       </c>
       <c r="E84">
-        <v>-5.4576057693459328</v>
+        <f>[1]Sheet1!F84</f>
+        <v>0.588749243417097</v>
       </c>
       <c r="F84">
-        <v>-5.1660046771187877</v>
+        <f>[1]Sheet1!G84</f>
+        <v>0.88035033564424203</v>
       </c>
       <c r="G84">
-        <v>-4.7194551333902997</v>
+        <f>[1]Sheet1!H84</f>
+        <v>1.32689987937273</v>
       </c>
       <c r="H84">
-        <v>-4.1902098013515898</v>
+        <f>[1]Sheet1!I84</f>
+        <v>1.8561452114114401</v>
       </c>
       <c r="I84">
-        <v>-4.9680407556233597</v>
+        <f>[1]Sheet1!J84</f>
+        <v>1.07831425713967</v>
       </c>
       <c r="J84">
+        <f>[1]Sheet1!K84</f>
         <v>-3.9508120316925299</v>
       </c>
       <c r="K84">
+        <f>[1]Sheet1!L84</f>
         <v>-0.80164022444592098</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <f>-[1]Sheet1!M84</f>
+        <v>-6.5472960752396396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>42734.000000057902</v>
       </c>
       <c r="B85">
-        <v>0.96489958776089946</v>
+        <f>[1]Sheet1!C85</f>
+        <v>-5.4771619040250004</v>
       </c>
       <c r="C85">
-        <v>1.5533179440673299</v>
+        <f>[1]Sheet1!D85</f>
+        <v>-4.8887435477185699</v>
       </c>
       <c r="D85">
-        <v>-4.0196571429132</v>
+        <f>[1]Sheet1!E85</f>
+        <v>-10.4617186346991</v>
       </c>
       <c r="E85">
-        <v>2.2523072862489695</v>
+        <f>[1]Sheet1!F85</f>
+        <v>-4.1897542055369303</v>
       </c>
       <c r="F85">
-        <v>-3.2246027032822902</v>
+        <f>[1]Sheet1!G85</f>
+        <v>-9.66666419506819</v>
       </c>
       <c r="G85">
-        <v>2.5134900632144697</v>
+        <f>[1]Sheet1!H85</f>
+        <v>-3.9285714285714302</v>
       </c>
       <c r="H85">
-        <v>4.1176263584397894</v>
+        <f>[1]Sheet1!I85</f>
+        <v>-2.32443513334611</v>
       </c>
       <c r="I85">
-        <v>-3.6809499477190997</v>
+        <f>[1]Sheet1!J85</f>
+        <v>-10.123011439504999</v>
       </c>
       <c r="J85">
+        <f>[1]Sheet1!K85</f>
         <v>-1.4967713037960699</v>
       </c>
       <c r="K85">
+        <f>[1]Sheet1!L85</f>
         <v>-1.5121932888254801</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <f>-[1]Sheet1!M85</f>
+        <v>7.0616194194534003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>42761.000000057902</v>
       </c>
       <c r="B86">
-        <v>1.01970875414586</v>
+        <f>[1]Sheet1!C86</f>
+        <v>3.3725153684133899</v>
       </c>
       <c r="C86">
-        <v>-2.9901291898697471</v>
+        <f>[1]Sheet1!D86</f>
+        <v>-0.63732257560221695</v>
       </c>
       <c r="D86">
-        <v>-2.149521296808385</v>
+        <f>[1]Sheet1!E86</f>
+        <v>0.20328531745914499</v>
       </c>
       <c r="E86">
-        <v>1.8317784651127105</v>
+        <f>[1]Sheet1!F86</f>
+        <v>4.1845850793802404</v>
       </c>
       <c r="F86">
-        <v>-5.0991650424406201</v>
+        <f>[1]Sheet1!G86</f>
+        <v>-2.7463584281730902</v>
       </c>
       <c r="G86">
-        <v>1.11683403009431</v>
+        <f>[1]Sheet1!H86</f>
+        <v>3.4696406443618399</v>
       </c>
       <c r="H86">
-        <v>-2.5598930220874418</v>
+        <f>[1]Sheet1!I86</f>
+        <v>-0.207086407819912</v>
       </c>
       <c r="I86">
-        <v>-6.2174565352918201</v>
+        <f>[1]Sheet1!J86</f>
+        <v>-3.8646499210242902</v>
       </c>
       <c r="J86">
+        <f>[1]Sheet1!K86</f>
         <v>0.89048882152331599</v>
       </c>
       <c r="K86">
+        <f>[1]Sheet1!L86</f>
         <v>-0.222444198170102</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <f>-[1]Sheet1!M86</f>
+        <v>-2.8188736681887301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>42794.000000057902</v>
       </c>
       <c r="B87">
-        <v>-1.6314430463080001</v>
+        <f>[1]Sheet1!C87</f>
+        <v>0.28267897742511</v>
       </c>
       <c r="C87">
-        <v>1.7374642875163802</v>
+        <f>[1]Sheet1!D87</f>
+        <v>3.6515863112494902</v>
       </c>
       <c r="D87">
-        <v>-1.0289272844407051</v>
+        <f>[1]Sheet1!E87</f>
+        <v>0.885194739292405</v>
       </c>
       <c r="E87">
-        <v>-1.0799813202226209</v>
+        <f>[1]Sheet1!F87</f>
+        <v>0.83414070351048897</v>
       </c>
       <c r="F87">
-        <v>1.1755325776721599</v>
+        <f>[1]Sheet1!G87</f>
+        <v>3.0896546014052699</v>
       </c>
       <c r="G87">
-        <v>4.0739019283626803</v>
+        <f>[1]Sheet1!H87</f>
+        <v>5.9880239520957899</v>
       </c>
       <c r="H87">
-        <v>1.9157123138891201</v>
+        <f>[1]Sheet1!I87</f>
+        <v>3.8298343376222301</v>
       </c>
       <c r="I87">
-        <v>0.25569059740786981</v>
+        <f>[1]Sheet1!J87</f>
+        <v>2.1698126211409798</v>
       </c>
       <c r="J87">
+        <f>[1]Sheet1!K87</f>
         <v>5.8516431924882504</v>
       </c>
       <c r="K87">
+        <f>[1]Sheet1!L87</f>
         <v>-0.175566767882018</v>
+      </c>
+      <c r="L87">
+        <f>-[1]Sheet1!M87</f>
+        <v>-1.53363334912364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>